--- a/data/input/CLASIFICACION_ABC+D_UTILES_JARDIN_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_UTILES_JARDIN_P2_2025.xlsx
@@ -3138,12 +3138,12 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>4601010005</t>
+          <t>4601010004</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>REGADERA MONDEGO VERDE SECO</t>
+          <t>REGADERA MONDEGO ANTRACITA</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -3194,7 +3194,7 @@
         <v>-7</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q31" s="4" t="n">
         <v>0</v>
@@ -3229,12 +3229,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>4601010004</t>
+          <t>4601010005</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>REGADERA MONDEGO ANTRACITA</t>
+          <t>REGADERA MONDEGO VERDE SECO</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -3285,7 +3285,7 @@
         <v>-7</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q32" s="4" t="n">
         <v>0</v>
@@ -3320,16 +3320,24 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>4604020001</t>
+          <t>4602110002</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>ROLLO 25M TUBERIA PE 6AT/20MM</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr"/>
-      <c r="D33" s="3" t="inlineStr"/>
+          <t>XPANSY HOSE MANGUERA EXTENSIBLE PRO + ACCESORIOS</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>15M</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -3344,83 +3352,75 @@
         <v>90</v>
       </c>
       <c r="H33" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>59.97</v>
+        <v>67.98</v>
       </c>
       <c r="J33" s="4" t="n">
-        <v>21.66</v>
+        <v>28.28</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="N33" s="5" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="O33" s="4" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P33" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="P33" s="4" t="n">
-        <v>25</v>
-      </c>
       <c r="Q33" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T33" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T33" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>4602110002</t>
+          <t>4604020001</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>XPANSY HOSE MANGUERA EXTENSIBLE PRO + ACCESORIOS</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>15M</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ROLLO 25M TUBERIA PE 6AT/20MM</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr"/>
+      <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -3435,59 +3435,59 @@
         <v>90</v>
       </c>
       <c r="H34" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>67.98</v>
+        <v>59.97</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>28.28</v>
+        <v>21.66</v>
       </c>
       <c r="K34" s="4" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L34" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N34" s="5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O34" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N34" s="5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O34" s="4" t="n">
-        <v>-2</v>
-      </c>
       <c r="P34" s="4" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T34" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -5135,166 +5135,166 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>4106010012</t>
+          <t>4603050019</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>ESCOBA JARDIN PUAS PLANAS MANGO MADERA 1,2M</t>
+          <t>PACK 6 CONOS RIEGO REGULABLES PARA BOTELLA</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
       <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>39</v>
+        <v>47.94</v>
       </c>
       <c r="J54" s="4" t="n">
-        <v>12.79</v>
+        <v>20.18</v>
       </c>
       <c r="K54" s="4" t="n">
-        <v>30.77</v>
+        <v>50</v>
       </c>
       <c r="L54" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="N54" s="5" t="n">
-        <v>5.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>102.22</v>
+        <v>88.89</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T54" s="7" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T54" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>4603050019</t>
+          <t>4106010012</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>PACK 6 CONOS RIEGO REGULABLES PARA BOTELLA</t>
+          <t>ESCOBA JARDIN PUAS PLANAS MANGO MADERA 1,2M</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
       <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>47.94</v>
+        <v>39</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>20.18</v>
+        <v>12.79</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>50</v>
+        <v>30.77</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="N55" s="5" t="n">
-        <v>8.800000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>88.89</v>
+        <v>102.22</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T55" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T55" s="7" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9263,166 +9263,166 @@
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>4301010008</t>
+          <t>4403020010</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR ROJO 1L ECLOZ</t>
+          <t>KIT SEMILLERO TUBA CON TAPA+ BANDEJA 24 HUECOS</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr"/>
       <c r="D102" s="3" t="inlineStr"/>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F102" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G102" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H102" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I102" s="4" t="n">
-        <v>29.95</v>
+        <v>47.8</v>
       </c>
       <c r="J102" s="4" t="n">
-        <v>12.55</v>
+        <v>27.3</v>
       </c>
       <c r="K102" s="4" t="n">
-        <v>20.83</v>
+        <v>0</v>
       </c>
       <c r="L102" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M102" s="5" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="N102" s="5" t="n">
-        <v>7.3</v>
+        <v>5.9</v>
       </c>
       <c r="O102" s="4" t="n">
-        <v>19</v>
+        <v>-4</v>
       </c>
       <c r="P102" s="4" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="Q102" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R102" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S102" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T102" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T102" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U102" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V102" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W102" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>4403020010</t>
+          <t>4301010008</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>KIT SEMILLERO TUBA CON TAPA+ BANDEJA 24 HUECOS</t>
+          <t>PULVERIZADOR ROJO 1L ECLOZ</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr"/>
       <c r="D103" s="3" t="inlineStr"/>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F103" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G103" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H103" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I103" s="4" t="n">
-        <v>47.8</v>
+        <v>29.95</v>
       </c>
       <c r="J103" s="4" t="n">
-        <v>27.3</v>
+        <v>12.55</v>
       </c>
       <c r="K103" s="4" t="n">
-        <v>0</v>
+        <v>20.83</v>
       </c>
       <c r="L103" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M103" s="5" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N103" s="5" t="n">
-        <v>5.9</v>
+        <v>7.3</v>
       </c>
       <c r="O103" s="4" t="n">
-        <v>-4</v>
+        <v>19</v>
       </c>
       <c r="P103" s="4" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="Q103" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R103" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S103" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T103" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T103" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U103" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V103" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W103" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>T43</t>
+          <t>T41</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -10505,7 +10505,7 @@
         <v>-1</v>
       </c>
       <c r="P116" s="4" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q116" s="4" t="n">
         <v>0</v>
@@ -10641,7 +10641,7 @@
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>T41</t>
+          <t>T43</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
@@ -10687,7 +10687,7 @@
         <v>-1</v>
       </c>
       <c r="P118" s="4" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q118" s="4" t="n">
         <v>0</v>
@@ -12007,12 +12007,12 @@
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>4103070007</t>
+          <t>4103070008</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>AZADA HORQUILLA FORJADA CON MANGO 40CM</t>
+          <t>AZADA LANZA FORJADA CON MANGO 40CM</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr"/>
@@ -12055,7 +12055,7 @@
         <v>-1</v>
       </c>
       <c r="P134" s="4" t="n">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="Q134" s="4" t="n">
         <v>0</v>
@@ -12090,12 +12090,12 @@
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>4103070008</t>
+          <t>4103070007</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>AZADA LANZA FORJADA CON MANGO 40CM</t>
+          <t>AZADA HORQUILLA FORJADA CON MANGO 40CM</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr"/>
@@ -12138,7 +12138,7 @@
         <v>-1</v>
       </c>
       <c r="P135" s="4" t="n">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="Q135" s="4" t="n">
         <v>0</v>
@@ -13953,55 +13953,63 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>4105090006</t>
+          <t>4501020001</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>PINCEL BL 5GR</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr"/>
+          <t>GUANTES JD BALCONES Y TERRAZAS</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>T8</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PROTECCION PERSONAL</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H3" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I3" s="4" t="n">
-        <v>18.98</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N3" s="5" t="n">
-        <v>2.9</v>
+        <v>5.9</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>0</v>
@@ -14019,7 +14027,7 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
@@ -14036,45 +14044,37 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>4501020001</t>
+          <t>4105090006</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>GUANTES JD BALCONES Y TERRAZAS</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>T8</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PINCEL BL 5GR</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION PERSONAL</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>15.46</v>
+        <v>18.98</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.94</v>
+        <v>7.84</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>0</v>
@@ -14083,16 +14083,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>5.9</v>
+        <v>2.9</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>0</v>
@@ -14110,7 +14110,7 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
@@ -14831,24 +14831,16 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>4101170006</t>
+          <t>4104010024</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>MANGO MADERA AZADA</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>1200X38</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>MINI RASTRILLO JUNIOR AMARILLO</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr"/>
+      <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="4" t="inlineStr">
         <is>
           <t>41</t>
@@ -14866,13 +14858,13 @@
         <v>2</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>14.98</v>
+        <v>13.9</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>5.1</v>
+        <v>4.21</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>0</v>
@@ -14884,54 +14876,62 @@
         <v>2.9</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>68.89</v>
+        <v>102.22</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T13" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T13" s="7" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>4104010024</t>
+          <t>4101170006</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>MINI RASTRILLO JUNIOR AMARILLO</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr"/>
-      <c r="D14" s="3" t="inlineStr"/>
+          <t>MANGO MADERA AZADA</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>1200X38</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
           <t>41</t>
@@ -14949,13 +14949,13 @@
         <v>2</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>13.9</v>
+        <v>14.98</v>
       </c>
       <c r="J14" s="4" t="n">
-        <v>4.21</v>
+        <v>5.1</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L14" s="4" t="n">
         <v>0</v>
@@ -14967,38 +14967,38 @@
         <v>2.9</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>102.22</v>
+        <v>68.89</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T14" s="7" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T14" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 30/03/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -15511,24 +15511,16 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>4603020007</t>
+          <t>4603010030</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>ADAPTADOR GRIFO ROSCA HEMBRA</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>3I4M1</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>MICRO 3 VARI-JET 180°</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
+      <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -15543,13 +15535,13 @@
         <v>90</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>16.14</v>
+        <v>16.35</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>6.44</v>
+        <v>6.61</v>
       </c>
       <c r="K21" s="4" t="n">
         <v>0</v>
@@ -15558,16 +15550,16 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>8.800000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>0</v>
@@ -15585,7 +15577,7 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -15602,16 +15594,24 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>4603010030</t>
+          <t>4603020007</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>MICRO 3 VARI-JET 180°</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr"/>
-      <c r="D22" s="3" t="inlineStr"/>
+          <t>ADAPTADOR GRIFO ROSCA HEMBRA</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>3I4M1</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -15626,13 +15626,13 @@
         <v>90</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>16.35</v>
+        <v>16.14</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>6.61</v>
+        <v>6.44</v>
       </c>
       <c r="K22" s="4" t="n">
         <v>0</v>
@@ -15641,16 +15641,16 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>7.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>0</v>
@@ -15668,7 +15668,7 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
@@ -15950,24 +15950,24 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>4201010004</t>
+          <t>4101090008</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>TIJERA DE CORTE DE HOJA CLASIC</t>
+          <t>AZUELA-HORQUILLA MANGO MADERA 130CM</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
       <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -15998,7 +15998,7 @@
         <v>-1</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="Q26" s="4" t="n">
         <v>0</v>
@@ -16124,24 +16124,24 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>4101090008</t>
+          <t>4201010004</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>AZUELA-HORQUILLA MANGO MADERA 130CM</t>
+          <t>TIJERA DE CORTE DE HOJA CLASIC</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
       <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
@@ -16172,7 +16172,7 @@
         <v>-1</v>
       </c>
       <c r="P28" s="4" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="Q28" s="4" t="n">
         <v>0</v>
@@ -16389,17 +16389,17 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>4105080002</t>
+          <t>4603020021</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>HILO DE ALUMINIO 100 GR</t>
+          <t>TE 16 MM</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>3I5MM</t>
+          <t>10UD</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -16409,49 +16409,49 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H31" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I31" s="4" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="J31" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K31" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="L31" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I31" s="4" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J31" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="K31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N31" s="5" t="n">
-        <v>2.9</v>
+        <v>5.9</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>0</v>
+        <v>28.89</v>
       </c>
       <c r="S31" s="5" t="n">
         <v>0</v>
@@ -16463,86 +16463,78 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 138 días.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>4603020021</t>
+          <t>4105090009</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>TE 16 MM</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>10UD</t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>POWER GEL BL 3GR</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr"/>
+      <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H32" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>13.6</v>
+        <v>15.98</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>4.64</v>
+        <v>6.6</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N32" s="5" t="n">
-        <v>5.9</v>
+        <v>2.9</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>28.89</v>
+        <v>0</v>
       </c>
       <c r="S32" s="5" t="n">
         <v>0</v>
@@ -16554,78 +16546,86 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 138 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>4105090009</t>
+          <t>4603030002</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>POWER GEL BL 3GR</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr"/>
-      <c r="D33" s="3" t="inlineStr"/>
+          <t>TAPON 16MM</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>25UD</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H33" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>15.98</v>
+        <v>10.47</v>
       </c>
       <c r="J33" s="4" t="n">
-        <v>6.6</v>
+        <v>2.05</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L33" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="N33" s="5" t="n">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>0</v>
+        <v>28.89</v>
       </c>
       <c r="S33" s="5" t="n">
         <v>0</v>
@@ -16637,34 +16637,34 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 214 días.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>4603030002</t>
+          <t>4105080002</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>TAPON 16MM</t>
+          <t>HILO DE ALUMINIO 100 GR</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>25UD</t>
+          <t>3I5MM</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -16674,49 +16674,49 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H34" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>10.47</v>
+        <v>13.9</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>2.05</v>
+        <v>4.89</v>
       </c>
       <c r="K34" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="N34" s="5" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>28.89</v>
+        <v>0</v>
       </c>
       <c r="S34" s="5" t="n">
         <v>0</v>
@@ -16728,17 +16728,17 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 214 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -17513,7 +17513,7 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>KIT SEMILLERO PLAST CON TAPA+ BANDEJA 24HUECOS 4X4</t>
+          <t>KIT SEMILLERO PLAST CON TAPA+ BANDEJA 24 HUECOS</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
@@ -17541,7 +17541,7 @@
         <v>5.04</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L44" s="4" t="n">
         <v>0</v>
@@ -17553,38 +17553,38 @@
         <v>1.5</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T44" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T44" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -17679,7 +17679,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>KIT SEMILLERO PLAST CON TAPA+ BANDEJA 24 HUECOS</t>
+          <t>KIT SEMILLERO PLAST CON TAPA+ BANDEJA 24HUECOS 4X4</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
         <v>5.04</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L46" s="4" t="n">
         <v>0</v>
@@ -17719,38 +17719,38 @@
         <v>1.5</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T46" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -18702,39 +18702,31 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>4403040001</t>
+          <t>4103070005</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>MACETA PP MARRON</t>
-        </is>
-      </c>
-      <c r="C58" s="3" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="D58" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>LANZA Y HORQUILLA CON MANGO 35CM</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr"/>
+      <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H58" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I58" s="4" t="n">
         <v>12.5</v>
@@ -18749,16 +18741,16 @@
         <v>0</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>4.9</v>
+        <v>0.5</v>
       </c>
       <c r="N58" s="5" t="n">
-        <v>14.7</v>
+        <v>1.5</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="P58" s="4" t="n">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="Q58" s="4" t="n">
         <v>0</v>
@@ -18776,7 +18768,7 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -10 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
@@ -18793,31 +18785,39 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>4103070005</t>
+          <t>4403040001</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>LANZA Y HORQUILLA CON MANGO 35CM</t>
-        </is>
-      </c>
-      <c r="C59" s="3" t="inlineStr"/>
-      <c r="D59" s="3" t="inlineStr"/>
+          <t>MACETA PP MARRON</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H59" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I59" s="4" t="n">
         <v>12.5</v>
@@ -18832,16 +18832,16 @@
         <v>0</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>0.5</v>
+        <v>4.9</v>
       </c>
       <c r="N59" s="5" t="n">
-        <v>1.5</v>
+        <v>14.7</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="P59" s="4" t="n">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="Q59" s="4" t="n">
         <v>0</v>
@@ -18859,7 +18859,7 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -10 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
@@ -19240,16 +19240,24 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>4602050001</t>
+          <t>4604050025</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>ASPERSOR CIRCULAR CON BASE 3 BRAZOS</t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="inlineStr"/>
-      <c r="D64" s="3" t="inlineStr"/>
+          <t>VALVULA DE BOLA</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>1I2P</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -19267,10 +19275,10 @@
         <v>1</v>
       </c>
       <c r="I64" s="4" t="n">
-        <v>10.5</v>
+        <v>11.97</v>
       </c>
       <c r="J64" s="4" t="n">
-        <v>3.73</v>
+        <v>4.95</v>
       </c>
       <c r="K64" s="4" t="n">
         <v>0</v>
@@ -19323,17 +19331,17 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>4604050025</t>
+          <t>4602030010</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>VALVULA DE BOLA</t>
+          <t>ENLACE RAPIDO BIMATERIA STOP</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>1I2P</t>
+          <t>15MM</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -19355,13 +19363,13 @@
         <v>90</v>
       </c>
       <c r="H65" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65" s="4" t="n">
-        <v>11.97</v>
+        <v>10.47</v>
       </c>
       <c r="J65" s="4" t="n">
-        <v>4.95</v>
+        <v>3.7</v>
       </c>
       <c r="K65" s="4" t="n">
         <v>0</v>
@@ -19370,16 +19378,16 @@
         <v>0</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="N65" s="5" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="P65" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q65" s="4" t="n">
         <v>0</v>
@@ -19397,7 +19405,7 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
@@ -19414,24 +19422,16 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>4602030010</t>
+          <t>4602050001</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>ENLACE RAPIDO BIMATERIA STOP</t>
-        </is>
-      </c>
-      <c r="C66" s="3" t="inlineStr">
-        <is>
-          <t>15MM</t>
-        </is>
-      </c>
-      <c r="D66" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ASPERSOR CIRCULAR CON BASE 3 BRAZOS</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr"/>
+      <c r="D66" s="3" t="inlineStr"/>
       <c r="E66" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -19446,13 +19446,13 @@
         <v>90</v>
       </c>
       <c r="H66" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>10.47</v>
+        <v>10.5</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>3.7</v>
+        <v>3.73</v>
       </c>
       <c r="K66" s="4" t="n">
         <v>0</v>
@@ -19461,16 +19461,16 @@
         <v>0</v>
       </c>
       <c r="M66" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N66" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="N66" s="5" t="n">
-        <v>4.4</v>
-      </c>
       <c r="O66" s="4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="P66" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q66" s="4" t="n">
         <v>0</v>
@@ -19488,7 +19488,7 @@
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
@@ -20616,55 +20616,63 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>4202010001</t>
+          <t>4501030001</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>ARCO SIERRA CON HOJA TRONZ WOLFPACK</t>
-        </is>
-      </c>
-      <c r="C80" s="3" t="inlineStr"/>
-      <c r="D80" s="3" t="inlineStr"/>
+          <t>GUANTES JD PLANTACIONES</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>T10</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>PROTECCION PERSONAL</t>
         </is>
       </c>
       <c r="G80" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H80" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I80" s="4" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="J80" s="4" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="K80" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I80" s="4" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="J80" s="4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K80" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M80" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N80" s="5" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O80" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P80" s="4" t="n">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="Q80" s="4" t="n">
         <v>0</v>
@@ -20682,7 +20690,7 @@
       </c>
       <c r="U80" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V80" s="4" t="inlineStr">
@@ -20699,45 +20707,37 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>4501030001</t>
+          <t>4202010001</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>GUANTES JD PLANTACIONES</t>
-        </is>
-      </c>
-      <c r="C81" s="3" t="inlineStr">
-        <is>
-          <t>T10</t>
-        </is>
-      </c>
-      <c r="D81" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ARCO SIERRA CON HOJA TRONZ WOLFPACK</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr"/>
+      <c r="D81" s="3" t="inlineStr"/>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F81" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION PERSONAL</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G81" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H81" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" s="4" t="n">
-        <v>11.98</v>
+        <v>9.99</v>
       </c>
       <c r="J81" s="4" t="n">
-        <v>5.44</v>
+        <v>3.8</v>
       </c>
       <c r="K81" s="4" t="n">
         <v>0</v>
@@ -20746,16 +20746,16 @@
         <v>0</v>
       </c>
       <c r="M81" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N81" s="5" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P81" s="4" t="n">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="Q81" s="4" t="n">
         <v>0</v>
@@ -20773,7 +20773,7 @@
       </c>
       <c r="U81" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V81" s="4" t="inlineStr">
@@ -21834,12 +21834,12 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>4104010007</t>
+          <t>4104010008</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>ESCOBA METALICA KIDS GARDEN VERDE</t>
+          <t>ESCOBA METALICA KIDS GARDEN AZUL</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr"/>
@@ -21882,7 +21882,7 @@
         <v>-1</v>
       </c>
       <c r="P94" s="4" t="n">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="Q94" s="4" t="n">
         <v>0</v>
@@ -22000,12 +22000,12 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>4104010008</t>
+          <t>4104010007</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>ESCOBA METALICA KIDS GARDEN AZUL</t>
+          <t>ESCOBA METALICA KIDS GARDEN VERDE</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr"/>
@@ -22048,7 +22048,7 @@
         <v>-1</v>
       </c>
       <c r="P96" s="4" t="n">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="Q96" s="4" t="n">
         <v>0</v>
@@ -22267,7 +22267,7 @@
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>10UD</t>
+          <t>50UD</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
@@ -22289,31 +22289,31 @@
         <v>90</v>
       </c>
       <c r="H99" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I99" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>8.99</v>
       </c>
       <c r="J99" s="4" t="n">
-        <v>3.66</v>
+        <v>3.68</v>
       </c>
       <c r="K99" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L99" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M99" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N99" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="N99" s="5" t="n">
-        <v>4.4</v>
-      </c>
       <c r="O99" s="4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P99" s="4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q99" s="4" t="n">
         <v>80</v>
@@ -22358,7 +22358,7 @@
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>50UD</t>
+          <t>10UD</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
@@ -22380,31 +22380,31 @@
         <v>90</v>
       </c>
       <c r="H100" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I100" s="4" t="n">
-        <v>8.99</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="J100" s="4" t="n">
-        <v>3.68</v>
+        <v>3.66</v>
       </c>
       <c r="K100" s="4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L100" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M100" s="5" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="N100" s="5" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="O100" s="4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P100" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q100" s="4" t="n">
         <v>80</v>
@@ -22704,17 +22704,17 @@
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>4603020021</t>
+          <t>4604050016</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>TE 16 MM</t>
+          <t>TAPON FINAL</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>25UD</t>
+          <t>20MM</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
@@ -22736,37 +22736,37 @@
         <v>90</v>
       </c>
       <c r="H104" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I104" s="4" t="n">
-        <v>6.5</v>
+        <v>8.75</v>
       </c>
       <c r="J104" s="4" t="n">
-        <v>1.75</v>
+        <v>3.62</v>
       </c>
       <c r="K104" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L104" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M104" s="5" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="N104" s="5" t="n">
-        <v>1.5</v>
+        <v>7.3</v>
       </c>
       <c r="O104" s="4" t="n">
-        <v>9</v>
+        <v>-5</v>
       </c>
       <c r="P104" s="4" t="n">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="Q104" s="4" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R104" s="4" t="n">
-        <v>28.89</v>
+        <v>0</v>
       </c>
       <c r="S104" s="5" t="n">
         <v>0</v>
@@ -22778,17 +22778,17 @@
       </c>
       <c r="U104" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 828 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V104" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W104" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -22878,17 +22878,17 @@
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>4604050016</t>
+          <t>4603020021</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>TAPON FINAL</t>
+          <t>TE 16 MM</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>20MM</t>
+          <t>25UD</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
@@ -22910,37 +22910,37 @@
         <v>90</v>
       </c>
       <c r="H106" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I106" s="4" t="n">
-        <v>8.75</v>
+        <v>6.5</v>
       </c>
       <c r="J106" s="4" t="n">
-        <v>3.62</v>
+        <v>1.75</v>
       </c>
       <c r="K106" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L106" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M106" s="5" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="N106" s="5" t="n">
-        <v>7.3</v>
+        <v>1.5</v>
       </c>
       <c r="O106" s="4" t="n">
-        <v>-5</v>
+        <v>9</v>
       </c>
       <c r="P106" s="4" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="Q106" s="4" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R106" s="4" t="n">
-        <v>0</v>
+        <v>28.89</v>
       </c>
       <c r="S106" s="5" t="n">
         <v>0</v>
@@ -22952,17 +22952,17 @@
       </c>
       <c r="U106" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 828 días.</t>
         </is>
       </c>
       <c r="V106" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W106" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -23226,16 +23226,24 @@
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>4603010001</t>
+          <t>4603030002</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>GOTERO INTERLINEA BARREL 4L/H ROJO 10UD</t>
-        </is>
-      </c>
-      <c r="C110" s="3" t="inlineStr"/>
-      <c r="D110" s="3" t="inlineStr"/>
+          <t>TAPON 16MM</t>
+        </is>
+      </c>
+      <c r="C110" s="3" t="inlineStr">
+        <is>
+          <t>4UD</t>
+        </is>
+      </c>
+      <c r="D110" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E110" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -23250,31 +23258,31 @@
         <v>90</v>
       </c>
       <c r="H110" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I110" s="4" t="n">
-        <v>7.98</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="J110" s="4" t="n">
-        <v>3.1</v>
+        <v>3.62</v>
       </c>
       <c r="K110" s="4" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="L110" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M110" s="5" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="N110" s="5" t="n">
-        <v>2.9</v>
+        <v>10.3</v>
       </c>
       <c r="O110" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P110" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q110" s="4" t="n">
         <v>80</v>
@@ -23292,7 +23300,7 @@
       </c>
       <c r="U110" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V110" s="4" t="inlineStr">
@@ -23302,31 +23310,23 @@
       </c>
       <c r="W110" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>4603030002</t>
+          <t>4603010001</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>TAPON 16MM</t>
-        </is>
-      </c>
-      <c r="C111" s="3" t="inlineStr">
-        <is>
-          <t>4UD</t>
-        </is>
-      </c>
-      <c r="D111" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>GOTERO INTERLINEA BARREL 4L/H ROJO 10UD</t>
+        </is>
+      </c>
+      <c r="C111" s="3" t="inlineStr"/>
+      <c r="D111" s="3" t="inlineStr"/>
       <c r="E111" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -23341,31 +23341,31 @@
         <v>90</v>
       </c>
       <c r="H111" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I111" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>7.98</v>
       </c>
       <c r="J111" s="4" t="n">
-        <v>3.62</v>
+        <v>3.1</v>
       </c>
       <c r="K111" s="4" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="L111" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M111" s="5" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="N111" s="5" t="n">
-        <v>10.3</v>
+        <v>2.9</v>
       </c>
       <c r="O111" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P111" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q111" s="4" t="n">
         <v>80</v>
@@ -23383,7 +23383,7 @@
       </c>
       <c r="U111" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V111" s="4" t="inlineStr">
@@ -23393,7 +23393,7 @@
       </c>
       <c r="W111" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -24500,12 +24500,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>4603010019</t>
+          <t>4603020012</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>KIT GOTERO 4L/H 2 SALIDAS+2 MICROT</t>
+          <t>ADAPTADOR ROSCA MACHO 3/4</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -24524,13 +24524,13 @@
         <v>90</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.26</v>
+        <v>7.5</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>0</v>
@@ -24539,16 +24539,16 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>2.9</v>
+        <v>7.3</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>0</v>
@@ -24566,7 +24566,7 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -24583,107 +24583,107 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>4603020012</t>
+          <t>4403040004</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>ADAPTADOR ROSCA MACHO 3/4</t>
+          <t>MACETAS FIBRA DE MADERA REDONDAS 6CM 24UDS</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>7.5</v>
+        <v>6.94</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>3.1</v>
+        <v>2.64</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>7.3</v>
+        <v>2.9</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>-5</v>
+        <v>18</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T6" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>4403040004</t>
+          <t>4603010019</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>MACETAS FIBRA DE MADERA REDONDAS 6CM 24UDS</t>
+          <t>KIT GOTERO 4L/H 2 SALIDAS+2 MICROT</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -24693,13 +24693,13 @@
         <v>2</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>6.94</v>
+        <v>7.26</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>2.64</v>
+        <v>2.9</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0</v>
@@ -24711,38 +24711,38 @@
         <v>2.9</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>18</v>
+        <v>-2</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T7" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T7" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -26647,37 +26647,45 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>4404040003</t>
+          <t>4603010016</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>ETIQUETAS PICUDAS PLASTICO 12CM 25UDS</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr"/>
-      <c r="D30" s="3" t="inlineStr"/>
+          <t>GOTERO TURBULENTO 8 L/H</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>25UD</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>5.98</v>
+        <v>5.37</v>
       </c>
       <c r="J30" s="4" t="n">
-        <v>2.54</v>
+        <v>2.04</v>
       </c>
       <c r="K30" s="4" t="n">
         <v>0</v>
@@ -26686,16 +26694,16 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="Q30" s="4" t="n">
         <v>0</v>
@@ -26713,7 +26721,7 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
@@ -26730,63 +26738,55 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>4603010016</t>
+          <t>4404040003</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>GOTERO TURBULENTO 8 L/H</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>25UD</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ETIQUETAS PICUDAS PLASTICO 12CM 25UDS</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr"/>
+      <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H31" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" s="4" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="J31" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K31" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I31" s="4" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="J31" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="K31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N31" s="5" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="Q31" s="4" t="n">
         <v>0</v>
@@ -26804,7 +26804,7 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -27691,166 +27691,166 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>4105040016</t>
+          <t>4603050004</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>COLLAR ARBOLES 45X2.5 2 UDS</t>
+          <t>ABRAZADERA AUTOMATICA 16MM 10UD</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
       <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H42" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" s="4" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="J42" s="4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K42" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="L42" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I42" s="4" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="J42" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="K42" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N42" s="5" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T42" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>4603050004</t>
+          <t>4105040016</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>ABRAZADERA AUTOMATICA 16MM 10UD</t>
+          <t>COLLAR ARBOLES 45X2.5 2 UDS</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
       <c r="D43" s="3" t="inlineStr"/>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>4.98</v>
+        <v>4.37</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>2.02</v>
+        <v>1.51</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L43" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N43" s="5" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T43" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T43" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W43" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -27948,16 +27948,24 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>4603010024</t>
+          <t>4604050017</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>GOTERO AUTOCOMPENSADO AUTO-DRIP 4L/H 10UD</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr"/>
-      <c r="D45" s="3" t="inlineStr"/>
+          <t>TAPON ROSCA HEMBRA</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>3I4P</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -27972,7 +27980,7 @@
         <v>90</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I45" s="4" t="n">
         <v>4.95</v>
@@ -27981,74 +27989,74 @@
         <v>2.05</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L45" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="N45" s="5" t="n">
-        <v>1.5</v>
+        <v>7.3</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>9</v>
+        <v>-5</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T45" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T45" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>4301020002</t>
+          <t>4504010001</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR 2L JD</t>
+          <t>COJIN JARDINERO JD</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
       <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>PROTECCION PERSONAL</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
@@ -28079,7 +28087,7 @@
         <v>-1</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v>0</v>
@@ -28114,39 +28122,31 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>4604050023</t>
+          <t>4301020002</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>TERMINAL ROSCA MACHO</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>25I3/4</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PULVERIZADOR 2L JD</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr"/>
+      <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I47" s="4" t="n">
         <v>4.95</v>
@@ -28161,16 +28161,16 @@
         <v>0</v>
       </c>
       <c r="M47" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N47" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="N47" s="5" t="n">
-        <v>4.4</v>
-      </c>
       <c r="O47" s="4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="P47" s="4" t="n">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="Q47" s="4" t="n">
         <v>0</v>
@@ -28188,7 +28188,7 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
@@ -28205,31 +28205,39 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>4504010001</t>
+          <t>4604050023</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>COJIN JARDINERO JD</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr"/>
-      <c r="D48" s="3" t="inlineStr"/>
+          <t>TERMINAL ROSCA MACHO</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>25I3/4</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION PERSONAL</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I48" s="4" t="n">
         <v>4.95</v>
@@ -28244,16 +28252,16 @@
         <v>0</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="N48" s="5" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="P48" s="4" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="Q48" s="4" t="n">
         <v>0</v>
@@ -28271,7 +28279,7 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
@@ -28288,24 +28296,16 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>4604050017</t>
+          <t>4603010024</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>TAPON ROSCA HEMBRA</t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="inlineStr">
-        <is>
-          <t>3I4P</t>
-        </is>
-      </c>
-      <c r="D49" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>GOTERO AUTOCOMPENSADO AUTO-DRIP 4L/H 10UD</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr"/>
+      <c r="D49" s="3" t="inlineStr"/>
       <c r="E49" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -28320,7 +28320,7 @@
         <v>90</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I49" s="4" t="n">
         <v>4.95</v>
@@ -28329,50 +28329,50 @@
         <v>2.05</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L49" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="N49" s="5" t="n">
-        <v>7.3</v>
+        <v>1.5</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>-5</v>
+        <v>9</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T49" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -28470,17 +28470,17 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>4105040014</t>
+          <t>4603020011</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>BOLSA 50 BRIDAS NEGRA</t>
+          <t>ADAPTADOR MACHO 16MM</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>20CM</t>
+          <t>1I2P</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -28490,88 +28490,88 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H51" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I51" s="4" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="J51" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K51" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="L51" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I51" s="4" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="J51" s="4" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="K51" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N51" s="5" t="n">
-        <v>2.9</v>
+        <v>5.9</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="P51" s="4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T51" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T51" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>4603020011</t>
+          <t>4105040014</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>ADAPTADOR MACHO 16MM</t>
+          <t>BOLSA 50 BRIDAS NEGRA</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>1I2P</t>
+          <t>20CM</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -28581,71 +28581,71 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>4.76</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>1.93</v>
+        <v>5.06</v>
       </c>
       <c r="K52" s="4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L52" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N52" s="5" t="n">
-        <v>5.9</v>
+        <v>2.9</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="P52" s="4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q52" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R52" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T52" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T52" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W52" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -28826,17 +28826,17 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>4603020017</t>
+          <t>4604060003</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ENLACE 16MM</t>
+          <t>RAIN BOBINA RECORTABLE PROLONGADOR</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>25UD</t>
+          <t>1I2P</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -28858,13 +28858,13 @@
         <v>90</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>3.99</v>
+        <v>4.69</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>1.41</v>
+        <v>1.99</v>
       </c>
       <c r="K55" s="4" t="n">
         <v>0</v>
@@ -28873,16 +28873,16 @@
         <v>0</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="N55" s="5" t="n">
-        <v>1.5</v>
+        <v>10.3</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="Q55" s="4" t="n">
         <v>0</v>
@@ -28900,7 +28900,7 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -7 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
@@ -28917,17 +28917,17 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>4604060003</t>
+          <t>4603020017</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>RAIN BOBINA RECORTABLE PROLONGADOR</t>
+          <t>ENLACE 16MM</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>1I2P</t>
+          <t>25UD</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -28949,13 +28949,13 @@
         <v>90</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I56" s="4" t="n">
-        <v>4.69</v>
+        <v>3.99</v>
       </c>
       <c r="J56" s="4" t="n">
-        <v>1.99</v>
+        <v>1.41</v>
       </c>
       <c r="K56" s="4" t="n">
         <v>0</v>
@@ -28964,16 +28964,16 @@
         <v>0</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="N56" s="5" t="n">
-        <v>10.3</v>
+        <v>1.5</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="P56" s="4" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Q56" s="4" t="n">
         <v>0</v>
@@ -28991,7 +28991,7 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -7 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
@@ -29530,12 +29530,12 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>4602180012</t>
+          <t>4603010028</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>ENLACE RAPIDO BIMATERIA STOP MANGUERA HELIC</t>
+          <t>MICRO 10 MAXI-JET 90°</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr"/>
@@ -29557,10 +29557,10 @@
         <v>1</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>3.49</v>
+        <v>3.99</v>
       </c>
       <c r="J63" s="4" t="n">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="K63" s="4" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>-1</v>
       </c>
       <c r="P63" s="4" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="Q63" s="4" t="n">
         <v>0</v>
@@ -29613,12 +29613,12 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>4603010028</t>
+          <t>4602180012</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>MICRO 10 MAXI-JET 90°</t>
+          <t>ENLACE RAPIDO BIMATERIA STOP MANGUERA HELIC</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr"/>
@@ -29640,10 +29640,10 @@
         <v>1</v>
       </c>
       <c r="I64" s="4" t="n">
-        <v>3.99</v>
+        <v>3.49</v>
       </c>
       <c r="J64" s="4" t="n">
-        <v>1.65</v>
+        <v>1.23</v>
       </c>
       <c r="K64" s="4" t="n">
         <v>0</v>
@@ -29661,7 +29661,7 @@
         <v>-1</v>
       </c>
       <c r="P64" s="4" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="Q64" s="4" t="n">
         <v>0</v>
@@ -30665,32 +30665,24 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>4604050006</t>
+          <t>4201040001</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>CODO ROSCA MACHO</t>
-        </is>
-      </c>
-      <c r="C76" s="3" t="inlineStr">
-        <is>
-          <t>32I1</t>
-        </is>
-      </c>
-      <c r="D76" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CUTER MAURER 18MM CON 2 HOJAS</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="inlineStr"/>
+      <c r="D76" s="3" t="inlineStr"/>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G76" s="4" t="n">
@@ -30700,10 +30692,10 @@
         <v>1</v>
       </c>
       <c r="I76" s="4" t="n">
-        <v>3.49</v>
+        <v>3.5</v>
       </c>
       <c r="J76" s="4" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="K76" s="4" t="n">
         <v>0</v>
@@ -30721,7 +30713,7 @@
         <v>-1</v>
       </c>
       <c r="P76" s="4" t="n">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="Q76" s="4" t="n">
         <v>0</v>
@@ -30756,24 +30748,32 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>4201040001</t>
+          <t>4604050006</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>CUTER MAURER 18MM CON 2 HOJAS</t>
-        </is>
-      </c>
-      <c r="C77" s="3" t="inlineStr"/>
-      <c r="D77" s="3" t="inlineStr"/>
+          <t>CODO ROSCA MACHO</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>32I1</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G77" s="4" t="n">
@@ -30783,10 +30783,10 @@
         <v>1</v>
       </c>
       <c r="I77" s="4" t="n">
-        <v>3.5</v>
+        <v>3.49</v>
       </c>
       <c r="J77" s="4" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="K77" s="4" t="n">
         <v>0</v>
@@ -30804,7 +30804,7 @@
         <v>-1</v>
       </c>
       <c r="P77" s="4" t="n">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="Q77" s="4" t="n">
         <v>0</v>
@@ -31104,12 +31104,12 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>4603010014</t>
+          <t>4603010013</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>GOTERO TURBULENTO 2L/H</t>
+          <t>GOTERO REGULABLE INDUNDADOR 0-80L/H</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
@@ -31139,10 +31139,10 @@
         <v>1</v>
       </c>
       <c r="I81" s="4" t="n">
-        <v>3.19</v>
+        <v>3.23</v>
       </c>
       <c r="J81" s="4" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="K81" s="4" t="n">
         <v>0</v>
@@ -31160,7 +31160,7 @@
         <v>-1</v>
       </c>
       <c r="P81" s="4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q81" s="4" t="n">
         <v>0</v>
@@ -31195,12 +31195,12 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>4603010013</t>
+          <t>4603010014</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>GOTERO REGULABLE INDUNDADOR 0-80L/H</t>
+          <t>GOTERO TURBULENTO 2L/H</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -31230,10 +31230,10 @@
         <v>1</v>
       </c>
       <c r="I82" s="4" t="n">
-        <v>3.23</v>
+        <v>3.19</v>
       </c>
       <c r="J82" s="4" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="K82" s="4" t="n">
         <v>0</v>
@@ -31251,7 +31251,7 @@
         <v>-1</v>
       </c>
       <c r="P82" s="4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Q82" s="4" t="n">
         <v>0</v>
@@ -31460,32 +31460,24 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>4603010017</t>
+          <t>4402010003</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>GOTERO TURBULENTO BANDERA 4L/H</t>
-        </is>
-      </c>
-      <c r="C85" s="3" t="inlineStr">
-        <is>
-          <t>10UD</t>
-        </is>
-      </c>
-      <c r="D85" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERMOMETRO MADERA</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr"/>
+      <c r="D85" s="3" t="inlineStr"/>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F85" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G85" s="4" t="n">
@@ -31495,13 +31487,13 @@
         <v>1</v>
       </c>
       <c r="I85" s="4" t="n">
-        <v>2.99</v>
+        <v>3.49</v>
       </c>
       <c r="J85" s="4" t="n">
-        <v>1.22</v>
+        <v>1.63</v>
       </c>
       <c r="K85" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L85" s="4" t="n">
         <v>0</v>
@@ -31513,54 +31505,62 @@
         <v>1.5</v>
       </c>
       <c r="O85" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P85" s="4" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="Q85" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R85" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T85" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T85" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U85" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V85" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W85" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>4603020001</t>
+          <t>4603010017</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>2 VALVULA 16MM</t>
-        </is>
-      </c>
-      <c r="C86" s="3" t="inlineStr"/>
-      <c r="D86" s="3" t="inlineStr"/>
+          <t>GOTERO TURBULENTO BANDERA 4L/H</t>
+        </is>
+      </c>
+      <c r="C86" s="3" t="inlineStr">
+        <is>
+          <t>10UD</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -31599,7 +31599,7 @@
         <v>-1</v>
       </c>
       <c r="P86" s="4" t="n">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="Q86" s="4" t="n">
         <v>0</v>
@@ -31634,24 +31634,24 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>4402010003</t>
+          <t>4603020001</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>TERMOMETRO MADERA</t>
+          <t>2 VALVULA 16MM</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr"/>
       <c r="D87" s="3" t="inlineStr"/>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F87" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G87" s="4" t="n">
@@ -31661,13 +31661,13 @@
         <v>1</v>
       </c>
       <c r="I87" s="4" t="n">
-        <v>3.49</v>
+        <v>2.99</v>
       </c>
       <c r="J87" s="4" t="n">
-        <v>1.63</v>
+        <v>1.22</v>
       </c>
       <c r="K87" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L87" s="4" t="n">
         <v>0</v>
@@ -31679,38 +31679,38 @@
         <v>1.5</v>
       </c>
       <c r="O87" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P87" s="4" t="n">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="Q87" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R87" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S87" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T87" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T87" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U87" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V87" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W87" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -31800,166 +31800,166 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>4403070000</t>
+          <t>4603030003</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>GRAPAS PARA TUTOR 15UD</t>
+          <t>TAPON FINAL AUTOMATICO 3/8 DRIP FRESH</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr"/>
       <c r="D89" s="3" t="inlineStr"/>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F89" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G89" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H89" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" s="4" t="n">
-        <v>3.9</v>
+        <v>4.75</v>
       </c>
       <c r="J89" s="4" t="n">
-        <v>2</v>
+        <v>2.71</v>
       </c>
       <c r="K89" s="4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L89" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M89" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N89" s="5" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O89" s="4" t="n">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="P89" s="4" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="Q89" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R89" s="4" t="n">
-        <v>102.22</v>
+        <v>0</v>
       </c>
       <c r="S89" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T89" s="7" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T89" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U89" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V89" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W89" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>4603030003</t>
+          <t>4403070000</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>TAPON FINAL AUTOMATICO 3/8 DRIP FRESH</t>
+          <t>GRAPAS PARA TUTOR 15UD</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr"/>
       <c r="D90" s="3" t="inlineStr"/>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G90" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H90" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I90" s="4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J90" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K90" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="L90" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I90" s="4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J90" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="K90" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M90" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N90" s="5" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O90" s="4" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="P90" s="4" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="Q90" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R90" s="4" t="n">
-        <v>0</v>
+        <v>102.22</v>
       </c>
       <c r="S90" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T90" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T90" s="7" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U90" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V90" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W90" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -34332,24 +34332,32 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>4201060008</t>
+          <t>4602090004</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>CORTASETOS NATURECUT FSC 100%</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr"/>
-      <c r="D2" s="3" t="inlineStr"/>
+          <t>MANGUERA FLEX 25M</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>15MM</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -34415,24 +34423,24 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>4403040002</t>
+          <t>4201060008</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>SET 15 MACETAS PP MARRON 9X6,8CM</t>
+          <t>CORTASETOS NATURECUT FSC 100%</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -34451,7 +34459,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -34460,19 +34468,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>12.22</v>
+        <v>98.89</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T3" s="9" t="inlineStr">
         <is>
@@ -34481,12 +34489,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -34498,12 +34506,12 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>4603020005</t>
+          <t>4602130001</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>ENLACE 4UD 16-12MM</t>
+          <t>SET DE MANGUERA FLEX 20M DIAMETRO 15MM</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -34534,7 +34542,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -34543,19 +34551,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>28.89</v>
+        <v>98.89</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T4" s="9" t="inlineStr">
         <is>
@@ -34564,12 +34572,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -34581,32 +34589,24 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>4105060006</t>
+          <t>4603010004</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>CUBO JARDIN ANTRACITA</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>90L</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>GOTERO REGULABLE SPECTRUM-R 0-80L/H C/ ESTACA 25UD</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -34625,7 +34625,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -34634,16 +34634,16 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>58.89</v>
+        <v>12.22</v>
       </c>
       <c r="S5" s="5" t="n">
         <v>0</v>
@@ -34660,7 +34660,7 @@
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -34672,24 +34672,24 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>4203010005</t>
+          <t>4105040029</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>HUERTO ELEVADO PAPRIKA 80X40X87CM 50L</t>
+          <t>MANGO MADERA ESPATULA SOLADOR 1500X25MM (NO VENTA)</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -34723,13 +34723,13 @@
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>96.67</v>
+        <v>102.22</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T6" s="9" t="inlineStr">
         <is>
@@ -34738,12 +34738,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -34755,16 +34755,24 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>4106010022</t>
+          <t>4105060006</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>MANGO MADERA ROSCA 1150X22MM CEP RAICES (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" s="3" t="inlineStr"/>
+          <t>CUBO JARDIN ANTRACITA</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>90L</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
           <t>41</t>
@@ -34806,13 +34814,13 @@
         <v>92</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>102.22</v>
+        <v>58.89</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T7" s="9" t="inlineStr">
         <is>
@@ -34821,12 +34829,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -34838,32 +34846,24 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>4604050006</t>
+          <t>4301040003</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>CODO ROSCA MACHO</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>20I1/2</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PULVERIZADOR MATABI E1 ELECTRIC 1L</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -34882,7 +34882,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -34891,19 +34891,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>28.89</v>
+        <v>88.89</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T8" s="9" t="inlineStr">
         <is>
@@ -34912,12 +34912,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -34929,12 +34929,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>4604060001</t>
+          <t>4603010038</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>ARQUETA CIRCULAR 2 VALVULA</t>
+          <t>KIT GOTERO 8L/H 4 SALIDAS+4 MICROT 50CM+4PIQUETAS</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -34965,7 +34965,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -34974,19 +34974,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>88.89</v>
+        <v>12.22</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T9" s="9" t="inlineStr">
         <is>
@@ -34995,12 +34995,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -35012,24 +35012,24 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>4603010004</t>
+          <t>4402010004</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>GOTERO REGULABLE SPECTRUM-R 0-80L/H C/ ESTACA 25UD</t>
+          <t>TERMOMETRO PARED INTERIOR EXTERIOR CHAPA METALICA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -35063,13 +35063,13 @@
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>12.22</v>
+        <v>88.89</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T10" s="9" t="inlineStr">
         <is>
@@ -35078,12 +35078,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -35095,24 +35095,24 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>4403020010</t>
+          <t>4106010021</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>KIT SEMILLERO FIBRA CON TAPA+BANDEJA 24HUECOS 4X4</t>
+          <t>CEPILLO RAICES 5X10 (NO VENTA)</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
       <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -35131,7 +35131,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -35140,19 +35140,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>12.22</v>
+        <v>102.22</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T11" s="9" t="inlineStr">
         <is>
@@ -35161,12 +35161,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -35261,24 +35261,16 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>4101170006</t>
+          <t>4105070001</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>MANGO MADERA AZADA</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>900X32</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CINTA PARA INJERTAR PLANTAS (3CM) 100M</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr"/>
+      <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="4" t="inlineStr">
         <is>
           <t>41</t>
@@ -35305,7 +35297,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -35314,19 +35306,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>68.89</v>
+        <v>12.22</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T13" s="9" t="inlineStr">
         <is>
@@ -35335,12 +35327,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/03/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -35352,24 +35344,24 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>4105060005</t>
+          <t>4402010002</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>CARRETILLA OBRA METALICA AMARILLA</t>
+          <t>TERMOMETRO PARED BLANCO</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
       <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -35388,7 +35380,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -35397,19 +35389,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>102.22</v>
+        <v>88.89</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T14" s="9" t="inlineStr">
         <is>
@@ -35418,12 +35410,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -35435,17 +35427,17 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>4602090006</t>
+          <t>4101170006</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>MANGUERA TRICOTADO NO TORSION X METRO</t>
+          <t>MANGO MADERA AZADA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>19MM</t>
+          <t>900X32</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -35455,12 +35447,12 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -35479,7 +35471,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -35488,19 +35480,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>102.22</v>
+        <v>68.89</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T15" s="9" t="inlineStr">
         <is>
@@ -35509,12 +35501,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 30/03/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -35526,24 +35518,24 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>4604060004</t>
+          <t>4106010022</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>ARQUETA CUADRADA 1 VALVULA</t>
+          <t>MANGO MADERA ROSCA 1150X22MM CEP RAICES (NO VENTA)</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
       <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -35562,7 +35554,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -35571,19 +35563,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>12.22</v>
+        <v>102.22</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T16" s="9" t="inlineStr">
         <is>
@@ -35592,12 +35584,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -35609,24 +35601,32 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>4105040028</t>
+          <t>4603010024</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>ESPATULA SOLADOR 55CM (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr"/>
-      <c r="D17" s="3" t="inlineStr"/>
+          <t>GOTERO AUTOCOMPENSADO AUTO-DRIP 4L/H</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>25UD</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -35645,7 +35645,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -35654,19 +35654,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>102.22</v>
+        <v>28.89</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T17" s="9" t="inlineStr">
         <is>
@@ -35675,12 +35675,12 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.83€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -35692,24 +35692,24 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>4402010002</t>
+          <t>4603020005</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>TERMOMETRO PARED BLANCO</t>
+          <t>ENLACE 4UD 16-12MM</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -35737,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>88.89</v>
+        <v>28.89</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T18" s="9" t="inlineStr">
         <is>
@@ -35758,12 +35758,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -35775,32 +35775,24 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>4605010014</t>
+          <t>4105060005</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>PROGRAMADOR RAIN BIRD WPX 9V</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>T4</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CARRETILLA OBRA METALICA AMARILLA</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr"/>
+      <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -35849,7 +35841,7 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 82.28€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -35866,16 +35858,24 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>4602180009</t>
+          <t>4605010014</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>DISTRIBUIDOR CUADRUPLE</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr"/>
-      <c r="D20" s="3" t="inlineStr"/>
+          <t>PROGRAMADOR RAIN BIRD WPX 9V</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -35902,7 +35902,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -35911,19 +35911,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>98.89</v>
+        <v>17.78</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T20" s="9" t="inlineStr">
         <is>
@@ -35932,12 +35932,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -35949,24 +35949,16 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>4602090002</t>
+          <t>4602100001</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>MANGUERA CLASSIC 20M</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>15MM</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>MANGUERA LATFLEX REFORZADO 19MM  X METRO</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
+      <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -35993,7 +35985,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -36002,19 +35994,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>98.89</v>
+        <v>102.22</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T21" s="9" t="inlineStr">
         <is>
@@ -36023,12 +36015,12 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -36040,32 +36032,24 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>4602090004</t>
+          <t>4301010009</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>MANGUERA FLEX 25M</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>15MM</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PULVERIZADOR 0,6L ECLOZ</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr"/>
+      <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -36084,7 +36068,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -36093,16 +36077,16 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>98.89</v>
+        <v>88.89</v>
       </c>
       <c r="S22" s="5" t="n">
         <v>10</v>
@@ -36119,7 +36103,7 @@
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -36131,24 +36115,24 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>4603010038</t>
+          <t>4101140003</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>KIT GOTERO 8L/H 4 SALIDAS+4 MICROT 50CM+4PIQUETAS</t>
+          <t>RASTRILLO JARDIN REGULABLE MARIPOSA CON MANGO</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
       <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -36167,7 +36151,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -36176,19 +36160,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>12.22</v>
+        <v>102.22</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T23" s="9" t="inlineStr">
         <is>
@@ -36197,12 +36181,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -36214,24 +36198,24 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>4402010004</t>
+          <t>4105040028</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>TERMOMETRO PARED INTERIOR EXTERIOR CHAPA METALICA</t>
+          <t>ESPATULA SOLADOR 55CM (NO VENTA)</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
       <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -36250,7 +36234,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -36259,19 +36243,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>88.89</v>
+        <v>102.22</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T24" s="9" t="inlineStr">
         <is>
@@ -36280,12 +36264,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.83€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -36297,24 +36281,24 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>4106010021</t>
+          <t>4403020010</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>CEPILLO RAICES 5X10 (NO VENTA)</t>
+          <t>KIT SEMILLERO FIBRA CON TAPA+BANDEJA 24HUECOS 4X4</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
       <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -36333,7 +36317,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -36342,19 +36326,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>102.22</v>
+        <v>12.22</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T25" s="9" t="inlineStr">
         <is>
@@ -36363,12 +36347,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -36380,24 +36364,24 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>4101140003</t>
+          <t>4603050006</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>RASTRILLO JARDIN REGULABLE MARIPOSA CON MANGO</t>
+          <t>PUNZON PERFORADOR 4MM</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
       <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -36416,7 +36400,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -36425,19 +36409,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>102.22</v>
+        <v>88.89</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T26" s="9" t="inlineStr">
         <is>
@@ -36446,12 +36430,12 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -36463,17 +36447,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>4301020003</t>
+          <t>4605010014</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR MATABI BERRY</t>
+          <t>PROGRAMADOR RAIN BIRD WPX 9V</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>3I5L</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -36483,12 +36467,12 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
@@ -36507,7 +36491,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -36516,19 +36500,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>88.89</v>
+        <v>102.22</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T27" s="9" t="inlineStr">
         <is>
@@ -36537,12 +36521,12 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 82.28€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
@@ -36554,24 +36538,24 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>4301010009</t>
+          <t>4604060001</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR 0,6L ECLOZ</t>
+          <t>ARQUETA CIRCULAR 2 VALVULA</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
       <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
@@ -36590,7 +36574,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -36599,7 +36583,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>92</v>
@@ -36637,12 +36621,12 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>4602010001</t>
+          <t>4605010001</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>LANZA REGULABLE CON ACOPLE</t>
+          <t>PROGRAMADOR DE GRIFO AQUA CONTROL DISPLAY LCD</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
@@ -36673,7 +36657,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>0</v>
@@ -36682,19 +36666,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>88.89</v>
+        <v>12.22</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T29" s="9" t="inlineStr">
         <is>
@@ -36703,12 +36687,12 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
@@ -36720,17 +36704,17 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>4301020003</t>
+          <t>4602160004</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR MATABI BERRY</t>
+          <t>PORTAMANGUERA AUTOMATICO ROLLUP</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>5L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -36740,12 +36724,12 @@
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
@@ -36764,7 +36748,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>0</v>
@@ -36773,16 +36757,16 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>66.67</v>
+        <v>98.89</v>
       </c>
       <c r="S30" s="5" t="n">
         <v>10</v>
@@ -36799,7 +36783,7 @@
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
@@ -36811,24 +36795,32 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>4104010020</t>
+          <t>4602090006</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>ESCOBA CESPED JUNIOR</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr"/>
-      <c r="D31" s="3" t="inlineStr"/>
+          <t>MANGUERA TRICOTADO NO TORSION X METRO</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>19MM</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
@@ -36847,7 +36839,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>0</v>
@@ -36856,7 +36848,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>92</v>
@@ -36877,7 +36869,7 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.39€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -36894,24 +36886,16 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>4605010014</t>
+          <t>4602010001</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>PROGRAMADOR RAIN BIRD WPX 9V</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>LANZA REGULABLE CON ACOPLE</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr"/>
+      <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -36938,7 +36922,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>0</v>
@@ -36947,19 +36931,19 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>17.78</v>
+        <v>88.89</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T32" s="9" t="inlineStr">
         <is>
@@ -36968,12 +36952,12 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -36985,32 +36969,24 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>4603010024</t>
+          <t>4301020004</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>GOTERO AUTOCOMPENSADO AUTO-DRIP 4L/H</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>25UD</t>
-        </is>
-      </c>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PULVERIZADOR MATABI EVOLUTION 12</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr"/>
+      <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
@@ -37029,7 +37005,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>0</v>
@@ -37038,19 +37014,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>28.89</v>
+        <v>88.89</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T33" s="9" t="inlineStr">
         <is>
@@ -37059,12 +37035,12 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -37076,24 +37052,24 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>4602180016</t>
+          <t>4201020006</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>MANGUITO RED 1X3/4" CONT</t>
+          <t>CORTARRAMAS EASYCUT</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
       <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
@@ -37112,7 +37088,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>0</v>
@@ -37121,19 +37097,19 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>12.22</v>
+        <v>98.89</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T34" s="9" t="inlineStr">
         <is>
@@ -37142,12 +37118,12 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -37159,24 +37135,24 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>4602130001</t>
+          <t>4104010020</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>SET DE MANGUERA FLEX 20M DIAMETRO 15MM</t>
+          <t>ESCOBA CESPED JUNIOR</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
       <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
@@ -37195,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M35" s="5" t="n">
         <v>0</v>
@@ -37204,19 +37180,19 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>98.89</v>
+        <v>102.22</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T35" s="9" t="inlineStr">
         <is>
@@ -37225,12 +37201,12 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.39€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
@@ -37242,16 +37218,24 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>4603050006</t>
+          <t>4602090002</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>PUNZON PERFORADOR 4MM</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr"/>
-      <c r="D36" s="3" t="inlineStr"/>
+          <t>MANGUERA CLASSIC 20M</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>15MM</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -37278,7 +37262,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>0</v>
@@ -37287,16 +37271,16 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>88.89</v>
+        <v>98.89</v>
       </c>
       <c r="S36" s="5" t="n">
         <v>10</v>
@@ -37313,7 +37297,7 @@
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -37408,24 +37392,24 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>4105040029</t>
+          <t>4401060003</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>MANGO MADERA ESPATULA SOLADOR 1500X25MM (NO VENTA)</t>
+          <t>TREEGUARD 0,2X0,5M</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
       <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
@@ -37444,7 +37428,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>0</v>
@@ -37453,7 +37437,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>92</v>
@@ -37474,7 +37458,7 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
@@ -37491,12 +37475,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>4602100001</t>
+          <t>4602180009</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>MANGUERA LATFLEX REFORZADO 19MM  X METRO</t>
+          <t>DISTRIBUIDOR CUADRUPLE</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -37527,7 +37511,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0</v>
@@ -37536,19 +37520,19 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>102.22</v>
+        <v>98.89</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T39" s="9" t="inlineStr">
         <is>
@@ -37557,12 +37541,12 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
@@ -37574,24 +37558,32 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>4106010020</t>
+          <t>4301020003</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>CEPILLO BARREND IND FIBRA RIG PP 50CM (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr"/>
-      <c r="D40" s="3" t="inlineStr"/>
+          <t>PULVERIZADOR MATABI BERRY</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>3I5L</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
@@ -37610,7 +37602,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0</v>
@@ -37619,19 +37611,19 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>102.22</v>
+        <v>88.89</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T40" s="9" t="inlineStr">
         <is>
@@ -37640,12 +37632,12 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
@@ -37657,24 +37649,24 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>4301040003</t>
+          <t>4203010005</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR MATABI E1 ELECTRIC 1L</t>
+          <t>HUERTO ELEVADO PAPRIKA 80X40X87CM 50L</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
       <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
@@ -37693,7 +37685,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M41" s="5" t="n">
         <v>0</v>
@@ -37702,16 +37694,16 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>88.89</v>
+        <v>96.67</v>
       </c>
       <c r="S41" s="5" t="n">
         <v>10</v>
@@ -37728,7 +37720,7 @@
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 05/03/2025</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
@@ -37740,24 +37732,24 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>4301020004</t>
+          <t>4604060004</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR MATABI EVOLUTION 12</t>
+          <t>ARQUETA CUADRADA 1 VALVULA</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
       <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -37776,7 +37768,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>0</v>
@@ -37785,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>88.89</v>
+        <v>12.22</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T42" s="9" t="inlineStr">
         <is>
@@ -37806,12 +37798,12 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -37823,24 +37815,24 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>4201020006</t>
+          <t>4503020001</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>CORTARRAMAS EASYCUT</t>
+          <t>DELANTAL IMPERMEABLE RECOLECCION 76X43X44CM</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
       <c r="D43" s="3" t="inlineStr"/>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>PROTECCION PERSONAL</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
@@ -37859,7 +37851,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M43" s="5" t="n">
         <v>0</v>
@@ -37868,16 +37860,16 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>98.89</v>
+        <v>88.89</v>
       </c>
       <c r="S43" s="5" t="n">
         <v>10</v>
@@ -37894,7 +37886,7 @@
       </c>
       <c r="V43" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W43" s="4" t="inlineStr">
@@ -37906,24 +37898,24 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>4401060003</t>
+          <t>4602180016</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>TREEGUARD 0,2X0,5M</t>
+          <t>MANGUITO RED 1X3/4" CONT</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
       <c r="D44" s="3" t="inlineStr"/>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
@@ -37942,7 +37934,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="M44" s="5" t="n">
         <v>0</v>
@@ -37951,19 +37943,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>102.22</v>
+        <v>12.22</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T44" s="9" t="inlineStr">
         <is>
@@ -37972,12 +37964,12 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
@@ -37989,17 +37981,17 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>4603010008</t>
+          <t>4604050005</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>GOTERO AUTOCOMPENSADO AUTO-MAT 2L/H</t>
+          <t>CODO ROSCA HEMBRA</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>10UD</t>
+          <t>25I3/4</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -38033,7 +38025,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M45" s="5" t="n">
         <v>0</v>
@@ -38042,19 +38034,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>88.89</v>
+        <v>28.89</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T45" s="9" t="inlineStr">
         <is>
@@ -38063,12 +38055,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -38080,16 +38072,24 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>4605010001</t>
+          <t>4603010008</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>PROGRAMADOR DE GRIFO AQUA CONTROL DISPLAY LCD</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr"/>
-      <c r="D46" s="3" t="inlineStr"/>
+          <t>GOTERO AUTOCOMPENSADO AUTO-MAT 2L/H</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>10UD</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M46" s="5" t="n">
         <v>0</v>
@@ -38125,19 +38125,19 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>12.22</v>
+        <v>88.89</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T46" s="9" t="inlineStr">
         <is>
@@ -38146,12 +38146,12 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
@@ -38163,17 +38163,17 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>4602160004</t>
+          <t>4301020003</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>PORTAMANGUERA AUTOMATICO ROLLUP</t>
+          <t>PULVERIZADOR MATABI BERRY</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>5L</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -38183,12 +38183,12 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
@@ -38207,7 +38207,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M47" s="5" t="n">
         <v>0</v>
@@ -38216,16 +38216,16 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>98.89</v>
+        <v>66.67</v>
       </c>
       <c r="S47" s="5" t="n">
         <v>10</v>
@@ -38242,7 +38242,7 @@
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
@@ -38254,24 +38254,32 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>4503020001</t>
+          <t>4604050006</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>DELANTAL IMPERMEABLE RECOLECCION 76X43X44CM</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr"/>
-      <c r="D48" s="3" t="inlineStr"/>
+          <t>CODO ROSCA MACHO</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>20I1/2</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION PERSONAL</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -38290,7 +38298,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="M48" s="5" t="n">
         <v>0</v>
@@ -38299,19 +38307,19 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>88.89</v>
+        <v>28.89</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T48" s="9" t="inlineStr">
         <is>
@@ -38320,12 +38328,12 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
@@ -38337,12 +38345,12 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>4105070001</t>
+          <t>4106010020</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>CINTA PARA INJERTAR PLANTAS (3CM) 100M</t>
+          <t>CEPILLO BARREND IND FIBRA RIG PP 50CM (NO VENTA)</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -38373,7 +38381,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M49" s="5" t="n">
         <v>0</v>
@@ -38382,19 +38390,19 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>12.22</v>
+        <v>102.22</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T49" s="9" t="inlineStr">
         <is>
@@ -38403,12 +38411,12 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
@@ -38420,32 +38428,24 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>4604050005</t>
+          <t>4403040002</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>CODO ROSCA HEMBRA</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t>25I3/4</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>SET 15 MACETAS PP MARRON 9X6,8CM</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr"/>
+      <c r="D50" s="3" t="inlineStr"/>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G50" s="4" t="n">
@@ -38464,7 +38464,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M50" s="5" t="n">
         <v>0</v>
@@ -38473,16 +38473,16 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>28.89</v>
+        <v>12.22</v>
       </c>
       <c r="S50" s="5" t="n">
         <v>0</v>
@@ -38499,7 +38499,7 @@
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_UTILES_JARDIN_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_UTILES_JARDIN_P2_2025.xlsx
@@ -3138,12 +3138,12 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>4601010004</t>
+          <t>4601010005</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>REGADERA MONDEGO ANTRACITA</t>
+          <t>REGADERA MONDEGO VERDE SECO</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -3194,7 +3194,7 @@
         <v>-7</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q31" s="4" t="n">
         <v>0</v>
@@ -3229,12 +3229,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>4601010005</t>
+          <t>4601010004</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>REGADERA MONDEGO VERDE SECO</t>
+          <t>REGADERA MONDEGO ANTRACITA</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -3285,7 +3285,7 @@
         <v>-7</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q32" s="4" t="n">
         <v>0</v>
@@ -7638,16 +7638,24 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>4602180007</t>
+          <t>4603040003</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>DISTRIBUIDOR 4 VIAS 1"-3/4" CON ADAP DE GRIFO</t>
-        </is>
-      </c>
-      <c r="C83" s="3" t="inlineStr"/>
-      <c r="D83" s="3" t="inlineStr"/>
+          <t>ROLLO MICROTUBO NEGRO 4MM</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>15M</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -7665,13 +7673,13 @@
         <v>3</v>
       </c>
       <c r="I83" s="4" t="n">
-        <v>31.5</v>
+        <v>33.32</v>
       </c>
       <c r="J83" s="4" t="n">
-        <v>11.18</v>
+        <v>12.69</v>
       </c>
       <c r="K83" s="4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L83" s="4" t="n">
         <v>0</v>
@@ -7683,16 +7691,16 @@
         <v>4.4</v>
       </c>
       <c r="O83" s="4" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="P83" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="Q83" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="R83" s="4" t="n">
-        <v>0</v>
+        <v>12.22</v>
       </c>
       <c r="S83" s="5" t="n">
         <v>0</v>
@@ -7704,41 +7712,33 @@
       </c>
       <c r="U83" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 61 días.</t>
         </is>
       </c>
       <c r="V83" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W83" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>4603040003</t>
+          <t>4602180007</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>ROLLO MICROTUBO NEGRO 4MM</t>
-        </is>
-      </c>
-      <c r="C84" s="3" t="inlineStr">
-        <is>
-          <t>15M</t>
-        </is>
-      </c>
-      <c r="D84" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DISTRIBUIDOR 4 VIAS 1"-3/4" CON ADAP DE GRIFO</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="inlineStr"/>
+      <c r="D84" s="3" t="inlineStr"/>
       <c r="E84" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -7756,13 +7756,13 @@
         <v>3</v>
       </c>
       <c r="I84" s="4" t="n">
-        <v>33.32</v>
+        <v>31.5</v>
       </c>
       <c r="J84" s="4" t="n">
-        <v>12.69</v>
+        <v>11.18</v>
       </c>
       <c r="K84" s="4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L84" s="4" t="n">
         <v>0</v>
@@ -7774,16 +7774,16 @@
         <v>4.4</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="P84" s="4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q84" s="4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R84" s="4" t="n">
-        <v>12.22</v>
+        <v>0</v>
       </c>
       <c r="S84" s="5" t="n">
         <v>0</v>
@@ -7795,17 +7795,17 @@
       </c>
       <c r="U84" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 61 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V84" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W84" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -9263,166 +9263,166 @@
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>4403020010</t>
+          <t>4301010008</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>KIT SEMILLERO TUBA CON TAPA+ BANDEJA 24 HUECOS</t>
+          <t>PULVERIZADOR ROJO 1L ECLOZ</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr"/>
       <c r="D102" s="3" t="inlineStr"/>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F102" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G102" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H102" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I102" s="4" t="n">
-        <v>47.8</v>
+        <v>29.95</v>
       </c>
       <c r="J102" s="4" t="n">
-        <v>27.3</v>
+        <v>12.55</v>
       </c>
       <c r="K102" s="4" t="n">
-        <v>0</v>
+        <v>20.83</v>
       </c>
       <c r="L102" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M102" s="5" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N102" s="5" t="n">
-        <v>5.9</v>
+        <v>7.3</v>
       </c>
       <c r="O102" s="4" t="n">
-        <v>-4</v>
+        <v>19</v>
       </c>
       <c r="P102" s="4" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="Q102" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R102" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S102" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T102" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T102" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U102" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V102" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W102" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>4301010008</t>
+          <t>4403020010</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR ROJO 1L ECLOZ</t>
+          <t>KIT SEMILLERO TUBA CON TAPA+ BANDEJA 24 HUECOS</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr"/>
       <c r="D103" s="3" t="inlineStr"/>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F103" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G103" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H103" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I103" s="4" t="n">
-        <v>29.95</v>
+        <v>47.8</v>
       </c>
       <c r="J103" s="4" t="n">
-        <v>12.55</v>
+        <v>27.3</v>
       </c>
       <c r="K103" s="4" t="n">
-        <v>20.83</v>
+        <v>0</v>
       </c>
       <c r="L103" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M103" s="5" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="N103" s="5" t="n">
-        <v>7.3</v>
+        <v>5.9</v>
       </c>
       <c r="O103" s="4" t="n">
-        <v>19</v>
+        <v>-4</v>
       </c>
       <c r="P103" s="4" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="Q103" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R103" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S103" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T103" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T103" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U103" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V103" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W103" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -9512,32 +9512,24 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>4401060001</t>
+          <t>4201010010</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>BIRDNET</t>
-        </is>
-      </c>
-      <c r="C105" s="3" t="inlineStr">
-        <is>
-          <t>2X5</t>
-        </is>
-      </c>
-      <c r="D105" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TIJERA VENDIMIA 1 MANO RECTA P10/18CM</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr"/>
+      <c r="D105" s="3" t="inlineStr"/>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F105" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G105" s="4" t="n">
@@ -9547,13 +9539,13 @@
         <v>4</v>
       </c>
       <c r="I105" s="4" t="n">
-        <v>27.48</v>
+        <v>27.8</v>
       </c>
       <c r="J105" s="4" t="n">
-        <v>10.79</v>
+        <v>11.06</v>
       </c>
       <c r="K105" s="4" t="n">
-        <v>22.22</v>
+        <v>0</v>
       </c>
       <c r="L105" s="4" t="n">
         <v>0</v>
@@ -9565,62 +9557,70 @@
         <v>5.9</v>
       </c>
       <c r="O105" s="4" t="n">
-        <v>14</v>
+        <v>-4</v>
       </c>
       <c r="P105" s="4" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q105" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R105" s="4" t="n">
-        <v>102.22</v>
+        <v>0</v>
       </c>
       <c r="S105" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T105" s="7" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T105" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U105" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V105" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W105" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>4201010010</t>
+          <t>4401060001</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>TIJERA VENDIMIA 1 MANO RECTA P10/18CM</t>
-        </is>
-      </c>
-      <c r="C106" s="3" t="inlineStr"/>
-      <c r="D106" s="3" t="inlineStr"/>
+          <t>BIRDNET</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t>2X5</t>
+        </is>
+      </c>
+      <c r="D106" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E106" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F106" s="4" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G106" s="4" t="n">
@@ -9630,13 +9630,13 @@
         <v>4</v>
       </c>
       <c r="I106" s="4" t="n">
-        <v>27.8</v>
+        <v>27.48</v>
       </c>
       <c r="J106" s="4" t="n">
-        <v>11.06</v>
+        <v>10.79</v>
       </c>
       <c r="K106" s="4" t="n">
-        <v>0</v>
+        <v>22.22</v>
       </c>
       <c r="L106" s="4" t="n">
         <v>0</v>
@@ -9648,38 +9648,38 @@
         <v>5.9</v>
       </c>
       <c r="O106" s="4" t="n">
-        <v>-4</v>
+        <v>14</v>
       </c>
       <c r="P106" s="4" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q106" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R106" s="4" t="n">
-        <v>0</v>
+        <v>102.22</v>
       </c>
       <c r="S106" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T106" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T106" s="7" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U106" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V106" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W106" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -10026,55 +10026,63 @@
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>4105030001</t>
+          <t>4602120003</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>AIREADOR</t>
-        </is>
-      </c>
-      <c r="C111" s="3" t="inlineStr"/>
-      <c r="D111" s="3" t="inlineStr"/>
+          <t>KIT IDRO GREEN 15M</t>
+        </is>
+      </c>
+      <c r="C111" s="3" t="inlineStr">
+        <is>
+          <t>15MM</t>
+        </is>
+      </c>
+      <c r="D111" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F111" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G111" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H111" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I111" s="4" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J111" s="4" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="K111" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I111" s="4" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J111" s="4" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="K111" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M111" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N111" s="5" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O111" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P111" s="4" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q111" s="4" t="n">
         <v>0</v>
@@ -10092,7 +10100,7 @@
       </c>
       <c r="U111" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V111" s="4" t="inlineStr">
@@ -10109,45 +10117,37 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>4602120003</t>
+          <t>4105030001</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>KIT IDRO GREEN 15M</t>
-        </is>
-      </c>
-      <c r="C112" s="3" t="inlineStr">
-        <is>
-          <t>15MM</t>
-        </is>
-      </c>
-      <c r="D112" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>AIREADOR</t>
+        </is>
+      </c>
+      <c r="C112" s="3" t="inlineStr"/>
+      <c r="D112" s="3" t="inlineStr"/>
       <c r="E112" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F112" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G112" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H112" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" s="4" t="n">
-        <v>23.9</v>
+        <v>27.5</v>
       </c>
       <c r="J112" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>11.36</v>
       </c>
       <c r="K112" s="4" t="n">
         <v>0</v>
@@ -10156,16 +10156,16 @@
         <v>0</v>
       </c>
       <c r="M112" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N112" s="5" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O112" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P112" s="4" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Q112" s="4" t="n">
         <v>0</v>
@@ -10183,7 +10183,7 @@
       </c>
       <c r="U112" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V112" s="4" t="inlineStr">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>T41</t>
+          <t>T39</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -10550,7 +10550,7 @@
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>T39</t>
+          <t>T43</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -10596,7 +10596,7 @@
         <v>-1</v>
       </c>
       <c r="P117" s="4" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q117" s="4" t="n">
         <v>0</v>
@@ -10641,7 +10641,7 @@
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>T43</t>
+          <t>T41</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
@@ -10687,7 +10687,7 @@
         <v>-1</v>
       </c>
       <c r="P118" s="4" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q118" s="4" t="n">
         <v>0</v>
@@ -13953,45 +13953,37 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>4501020001</t>
+          <t>4105090006</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>GUANTES JD BALCONES Y TERRAZAS</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>T8</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PINCEL BL 5GR</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION PERSONAL</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.46</v>
+        <v>18.98</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.94</v>
+        <v>7.84</v>
       </c>
       <c r="K3" s="4" t="n">
         <v>0</v>
@@ -14000,16 +13992,16 @@
         <v>0</v>
       </c>
       <c r="M3" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3" s="5" t="n">
-        <v>5.9</v>
+        <v>2.9</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>0</v>
@@ -14027,7 +14019,7 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
@@ -14044,55 +14036,63 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>4105090006</t>
+          <t>4501020001</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>PINCEL BL 5GR</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
+          <t>GUANTES JD BALCONES Y TERRAZAS</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>T8</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PROTECCION PERSONAL</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H4" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I4" s="4" t="n">
-        <v>18.98</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N4" s="5" t="n">
-        <v>2.9</v>
+        <v>5.9</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>0</v>
@@ -14110,7 +14110,7 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
@@ -14831,16 +14831,24 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>4104010024</t>
+          <t>4101170006</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>MINI RASTRILLO JUNIOR AMARILLO</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr"/>
-      <c r="D13" s="3" t="inlineStr"/>
+          <t>MANGO MADERA AZADA</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>1200X38</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
           <t>41</t>
@@ -14858,13 +14866,13 @@
         <v>2</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>13.9</v>
+        <v>14.98</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>4.21</v>
+        <v>5.1</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>0</v>
@@ -14876,62 +14884,54 @@
         <v>2.9</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>102.22</v>
+        <v>68.89</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T13" s="7" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T13" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 30/03/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>4101170006</t>
+          <t>4104010024</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>MANGO MADERA AZADA</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>1200X38</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>MINI RASTRILLO JUNIOR AMARILLO</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr"/>
+      <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="4" t="inlineStr">
         <is>
           <t>41</t>
@@ -14949,13 +14949,13 @@
         <v>2</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>14.98</v>
+        <v>13.9</v>
       </c>
       <c r="J14" s="4" t="n">
-        <v>5.1</v>
+        <v>4.21</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L14" s="4" t="n">
         <v>0</v>
@@ -14967,38 +14967,38 @@
         <v>2.9</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>68.89</v>
+        <v>102.22</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T14" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T14" s="7" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15778,7 +15778,7 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>T8I10</t>
+          <t>T6I8</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -15824,7 +15824,7 @@
         <v>-3</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>0</v>
@@ -15869,7 +15869,7 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>T6I8</t>
+          <t>T8I10</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -15915,7 +15915,7 @@
         <v>-3</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>0</v>
@@ -16033,69 +16033,61 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>4105080012</t>
+          <t>4201010004</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>PLATO RECTANGULAR BONSAI COLORES</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>20CM</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TIJERA DE CORTE DE HOJA CLASIC</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr"/>
+      <c r="D27" s="3" t="inlineStr"/>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>13.98</v>
+        <v>16.5</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>4.73</v>
+        <v>6.82</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>44.44</v>
+        <v>0</v>
       </c>
       <c r="S27" s="5" t="n">
         <v>0</v>
@@ -16107,78 +16099,86 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 184 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Compra 21/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>4201010004</t>
+          <t>4105080012</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>TIJERA DE CORTE DE HOJA CLASIC</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr"/>
-      <c r="D28" s="3" t="inlineStr"/>
+          <t>PLATO RECTANGULAR BONSAI COLORES</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>20CM</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H28" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" s="4" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="J28" s="4" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="K28" s="4" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="L28" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I28" s="4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J28" s="4" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="K28" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N28" s="5" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="P28" s="4" t="n">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>0</v>
+        <v>44.44</v>
       </c>
       <c r="S28" s="5" t="n">
         <v>0</v>
@@ -16190,17 +16190,17 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 184 días.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 21/04/2025</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -16480,61 +16480,69 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>4105090009</t>
+          <t>4603030002</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>POWER GEL BL 3GR</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr"/>
-      <c r="D32" s="3" t="inlineStr"/>
+          <t>TAPON 16MM</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>25UD</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H32" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>15.98</v>
+        <v>10.47</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>6.6</v>
+        <v>2.05</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="N32" s="5" t="n">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>0</v>
+        <v>28.89</v>
       </c>
       <c r="S32" s="5" t="n">
         <v>0</v>
@@ -16546,34 +16554,34 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 214 días.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>4603030002</t>
+          <t>4105080002</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>TAPON 16MM</t>
+          <t>HILO DE ALUMINIO 100 GR</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>25UD</t>
+          <t>3I5MM</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -16583,49 +16591,49 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H33" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>10.47</v>
+        <v>13.9</v>
       </c>
       <c r="J33" s="4" t="n">
-        <v>2.05</v>
+        <v>4.89</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="N33" s="5" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>28.89</v>
+        <v>0</v>
       </c>
       <c r="S33" s="5" t="n">
         <v>0</v>
@@ -16637,41 +16645,33 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 214 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>4105080002</t>
+          <t>4105090009</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>HILO DE ALUMINIO 100 GR</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>3I5MM</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>POWER GEL BL 3GR</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr"/>
+      <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="4" t="inlineStr">
         <is>
           <t>41</t>
@@ -16689,10 +16689,10 @@
         <v>2</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>13.9</v>
+        <v>15.98</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>4.89</v>
+        <v>6.6</v>
       </c>
       <c r="K34" s="4" t="n">
         <v>0</v>
@@ -16710,7 +16710,7 @@
         <v>-2</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="Q34" s="4" t="n">
         <v>0</v>
@@ -17591,166 +17591,166 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>4602150004</t>
+          <t>4403020005</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>COLGADOR MANGUERA VERDE MAX 10KG CARGA</t>
+          <t>KIT SEMILLERO PLAST CON TAPA+ BANDEJA 24HUECOS 4X4</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
       <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>5.45</v>
+        <v>5.04</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L45" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="N45" s="5" t="n">
-        <v>5.9</v>
+        <v>1.5</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>-4</v>
+        <v>19</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T45" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>4403020005</t>
+          <t>4602150004</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>KIT SEMILLERO PLAST CON TAPA+ BANDEJA 24HUECOS 4X4</t>
+          <t>COLGADOR MANGUERA VERDE MAX 10KG CARGA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
       <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>5.04</v>
+        <v>5.45</v>
       </c>
       <c r="K46" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" s="5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="O46" s="4" t="n">
+        <v>-4</v>
+      </c>
+      <c r="P46" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="L46" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N46" s="5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O46" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="P46" s="4" t="n">
-        <v>41</v>
-      </c>
       <c r="Q46" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T46" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T46" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -18702,31 +18702,39 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>4103070005</t>
+          <t>4403040001</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>LANZA Y HORQUILLA CON MANGO 35CM</t>
-        </is>
-      </c>
-      <c r="C58" s="3" t="inlineStr"/>
-      <c r="D58" s="3" t="inlineStr"/>
+          <t>MACETA PP MARRON</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H58" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I58" s="4" t="n">
         <v>12.5</v>
@@ -18741,16 +18749,16 @@
         <v>0</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>0.5</v>
+        <v>4.9</v>
       </c>
       <c r="N58" s="5" t="n">
-        <v>1.5</v>
+        <v>14.7</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="P58" s="4" t="n">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="Q58" s="4" t="n">
         <v>0</v>
@@ -18768,7 +18776,7 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -10 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
@@ -18785,39 +18793,31 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>4403040001</t>
+          <t>4103070005</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>MACETA PP MARRON</t>
-        </is>
-      </c>
-      <c r="C59" s="3" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="D59" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>LANZA Y HORQUILLA CON MANGO 35CM</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr"/>
+      <c r="D59" s="3" t="inlineStr"/>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H59" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I59" s="4" t="n">
         <v>12.5</v>
@@ -18832,16 +18832,16 @@
         <v>0</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>4.9</v>
+        <v>0.5</v>
       </c>
       <c r="N59" s="5" t="n">
-        <v>14.7</v>
+        <v>1.5</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="P59" s="4" t="n">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="Q59" s="4" t="n">
         <v>0</v>
@@ -18859,7 +18859,7 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -10 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
@@ -19240,24 +19240,16 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>4604050025</t>
+          <t>4602050001</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>VALVULA DE BOLA</t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="inlineStr">
-        <is>
-          <t>1I2P</t>
-        </is>
-      </c>
-      <c r="D64" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ASPERSOR CIRCULAR CON BASE 3 BRAZOS</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr"/>
+      <c r="D64" s="3" t="inlineStr"/>
       <c r="E64" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -19275,10 +19267,10 @@
         <v>1</v>
       </c>
       <c r="I64" s="4" t="n">
-        <v>11.97</v>
+        <v>10.5</v>
       </c>
       <c r="J64" s="4" t="n">
-        <v>4.95</v>
+        <v>3.73</v>
       </c>
       <c r="K64" s="4" t="n">
         <v>0</v>
@@ -19331,17 +19323,17 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>4602030010</t>
+          <t>4604050025</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>ENLACE RAPIDO BIMATERIA STOP</t>
+          <t>VALVULA DE BOLA</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>15MM</t>
+          <t>1I2P</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -19363,13 +19355,13 @@
         <v>90</v>
       </c>
       <c r="H65" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I65" s="4" t="n">
-        <v>10.47</v>
+        <v>11.97</v>
       </c>
       <c r="J65" s="4" t="n">
-        <v>3.7</v>
+        <v>4.95</v>
       </c>
       <c r="K65" s="4" t="n">
         <v>0</v>
@@ -19378,16 +19370,16 @@
         <v>0</v>
       </c>
       <c r="M65" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N65" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="N65" s="5" t="n">
-        <v>4.4</v>
-      </c>
       <c r="O65" s="4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="P65" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q65" s="4" t="n">
         <v>0</v>
@@ -19405,7 +19397,7 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
@@ -19422,16 +19414,24 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>4602050001</t>
+          <t>4602030010</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>ASPERSOR CIRCULAR CON BASE 3 BRAZOS</t>
-        </is>
-      </c>
-      <c r="C66" s="3" t="inlineStr"/>
-      <c r="D66" s="3" t="inlineStr"/>
+          <t>ENLACE RAPIDO BIMATERIA STOP</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>15MM</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -19446,13 +19446,13 @@
         <v>90</v>
       </c>
       <c r="H66" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>10.5</v>
+        <v>10.47</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>3.73</v>
+        <v>3.7</v>
       </c>
       <c r="K66" s="4" t="n">
         <v>0</v>
@@ -19461,16 +19461,16 @@
         <v>0</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="N66" s="5" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="P66" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q66" s="4" t="n">
         <v>0</v>
@@ -19488,7 +19488,7 @@
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
@@ -19505,12 +19505,12 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>4403020016</t>
+          <t>4403020014</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>KIT MACETA DE TERRACOTA 8CM - PLANTA BRILLANTE</t>
+          <t>KIT MACETA DE TERRACOTA 8CM - MIMOSA SENSITIVA</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr"/>
@@ -19553,7 +19553,7 @@
         <v>-2</v>
       </c>
       <c r="P67" s="4" t="n">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="Q67" s="4" t="n">
         <v>0</v>
@@ -19671,12 +19671,12 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>4403020014</t>
+          <t>4403020016</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>KIT MACETA DE TERRACOTA 8CM - MIMOSA SENSITIVA</t>
+          <t>KIT MACETA DE TERRACOTA 8CM - PLANTA BRILLANTE</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr"/>
@@ -19719,7 +19719,7 @@
         <v>-2</v>
       </c>
       <c r="P69" s="4" t="n">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="Q69" s="4" t="n">
         <v>0</v>
@@ -20626,7 +20626,7 @@
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -20672,7 +20672,7 @@
         <v>-2</v>
       </c>
       <c r="P80" s="4" t="n">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="Q80" s="4" t="n">
         <v>0</v>
@@ -20707,55 +20707,63 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>4202010001</t>
+          <t>4501030001</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>ARCO SIERRA CON HOJA TRONZ WOLFPACK</t>
-        </is>
-      </c>
-      <c r="C81" s="3" t="inlineStr"/>
-      <c r="D81" s="3" t="inlineStr"/>
+          <t>GUANTES JD PLANTACIONES</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>T10</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F81" s="4" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>PROTECCION PERSONAL</t>
         </is>
       </c>
       <c r="G81" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H81" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I81" s="4" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="J81" s="4" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="K81" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I81" s="4" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="J81" s="4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K81" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M81" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N81" s="5" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P81" s="4" t="n">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="Q81" s="4" t="n">
         <v>0</v>
@@ -20773,7 +20781,7 @@
       </c>
       <c r="U81" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V81" s="4" t="inlineStr">
@@ -20790,45 +20798,37 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>4501030001</t>
+          <t>4202010001</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>GUANTES JD PLANTACIONES</t>
-        </is>
-      </c>
-      <c r="C82" s="3" t="inlineStr">
-        <is>
-          <t>T8</t>
-        </is>
-      </c>
-      <c r="D82" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ARCO SIERRA CON HOJA TRONZ WOLFPACK</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr"/>
+      <c r="D82" s="3" t="inlineStr"/>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION PERSONAL</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G82" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H82" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" s="4" t="n">
-        <v>11.98</v>
+        <v>9.99</v>
       </c>
       <c r="J82" s="4" t="n">
-        <v>5.44</v>
+        <v>3.8</v>
       </c>
       <c r="K82" s="4" t="n">
         <v>0</v>
@@ -20837,16 +20837,16 @@
         <v>0</v>
       </c>
       <c r="M82" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N82" s="5" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P82" s="4" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Q82" s="4" t="n">
         <v>0</v>
@@ -20864,7 +20864,7 @@
       </c>
       <c r="U82" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V82" s="4" t="inlineStr">
@@ -21320,12 +21320,12 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>4104010011</t>
+          <t>4104010010</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>RASTRILLO 7 DIENTES KIDS GARDEN AZUL</t>
+          <t>RASTRILLO 7 DIENTES KIDS GARDEN VERDE</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr"/>
@@ -21368,7 +21368,7 @@
         <v>-1</v>
       </c>
       <c r="P88" s="4" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="Q88" s="4" t="n">
         <v>0</v>
@@ -21403,12 +21403,12 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>4104010010</t>
+          <t>4104010011</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>RASTRILLO 7 DIENTES KIDS GARDEN VERDE</t>
+          <t>RASTRILLO 7 DIENTES KIDS GARDEN AZUL</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr"/>
@@ -21451,7 +21451,7 @@
         <v>-1</v>
       </c>
       <c r="P89" s="4" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="Q89" s="4" t="n">
         <v>0</v>
@@ -21834,12 +21834,12 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>4104010008</t>
+          <t>4104010007</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>ESCOBA METALICA KIDS GARDEN AZUL</t>
+          <t>ESCOBA METALICA KIDS GARDEN VERDE</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr"/>
@@ -21882,7 +21882,7 @@
         <v>-1</v>
       </c>
       <c r="P94" s="4" t="n">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="Q94" s="4" t="n">
         <v>0</v>
@@ -22000,12 +22000,12 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>4104010007</t>
+          <t>4104010008</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>ESCOBA METALICA KIDS GARDEN VERDE</t>
+          <t>ESCOBA METALICA KIDS GARDEN AZUL</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr"/>
@@ -22048,7 +22048,7 @@
         <v>-1</v>
       </c>
       <c r="P96" s="4" t="n">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="Q96" s="4" t="n">
         <v>0</v>
@@ -22174,16 +22174,24 @@
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>4603020009</t>
+          <t>4603010011</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>ADAPTADOR HEMBRA 12-16 X1/2-3/4</t>
-        </is>
-      </c>
-      <c r="C98" s="3" t="inlineStr"/>
-      <c r="D98" s="3" t="inlineStr"/>
+          <t>GOTERO REGULABLE SPIDER-R 0-60L/H</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>50UD</t>
+        </is>
+      </c>
+      <c r="D98" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E98" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -22198,59 +22206,59 @@
         <v>90</v>
       </c>
       <c r="H98" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I98" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>8.99</v>
       </c>
       <c r="J98" s="4" t="n">
-        <v>3.17</v>
+        <v>3.68</v>
       </c>
       <c r="K98" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L98" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M98" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N98" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="N98" s="5" t="n">
-        <v>4.4</v>
-      </c>
       <c r="O98" s="4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P98" s="4" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q98" s="4" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="R98" s="4" t="n">
-        <v>28.89</v>
+        <v>88.89</v>
       </c>
       <c r="S98" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T98" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T98" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U98" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 214 días.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V98" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W98" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -22267,7 +22275,7 @@
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>50UD</t>
+          <t>10UD</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
@@ -22289,31 +22297,31 @@
         <v>90</v>
       </c>
       <c r="H99" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I99" s="4" t="n">
-        <v>8.99</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="J99" s="4" t="n">
-        <v>3.68</v>
+        <v>3.66</v>
       </c>
       <c r="K99" s="4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L99" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M99" s="5" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="N99" s="5" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="O99" s="4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P99" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q99" s="4" t="n">
         <v>80</v>
@@ -22348,24 +22356,16 @@
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>4603010011</t>
+          <t>4603020009</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>GOTERO REGULABLE SPIDER-R 0-60L/H</t>
-        </is>
-      </c>
-      <c r="C100" s="3" t="inlineStr">
-        <is>
-          <t>10UD</t>
-        </is>
-      </c>
-      <c r="D100" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ADAPTADOR HEMBRA 12-16 X1/2-3/4</t>
+        </is>
+      </c>
+      <c r="C100" s="3" t="inlineStr"/>
+      <c r="D100" s="3" t="inlineStr"/>
       <c r="E100" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -22383,10 +22383,10 @@
         <v>3</v>
       </c>
       <c r="I100" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="J100" s="4" t="n">
-        <v>3.66</v>
+        <v>3.17</v>
       </c>
       <c r="K100" s="4" t="n">
         <v>30</v>
@@ -22404,35 +22404,35 @@
         <v>7</v>
       </c>
       <c r="P100" s="4" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q100" s="4" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="R100" s="4" t="n">
-        <v>88.89</v>
+        <v>28.89</v>
       </c>
       <c r="S100" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T100" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T100" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U100" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 214 días.</t>
         </is>
       </c>
       <c r="V100" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W100" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -22704,17 +22704,17 @@
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>4604050016</t>
+          <t>4603020021</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>TAPON FINAL</t>
+          <t>TE 16 MM</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>20MM</t>
+          <t>25UD</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
@@ -22736,37 +22736,37 @@
         <v>90</v>
       </c>
       <c r="H104" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I104" s="4" t="n">
-        <v>8.75</v>
+        <v>6.5</v>
       </c>
       <c r="J104" s="4" t="n">
-        <v>3.62</v>
+        <v>1.75</v>
       </c>
       <c r="K104" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L104" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M104" s="5" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="N104" s="5" t="n">
-        <v>7.3</v>
+        <v>1.5</v>
       </c>
       <c r="O104" s="4" t="n">
-        <v>-5</v>
+        <v>9</v>
       </c>
       <c r="P104" s="4" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="Q104" s="4" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R104" s="4" t="n">
-        <v>0</v>
+        <v>28.89</v>
       </c>
       <c r="S104" s="5" t="n">
         <v>0</v>
@@ -22778,17 +22778,17 @@
       </c>
       <c r="U104" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 828 días.</t>
         </is>
       </c>
       <c r="V104" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W104" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -22878,17 +22878,17 @@
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>4603020021</t>
+          <t>4604050016</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>TE 16 MM</t>
+          <t>TAPON FINAL</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>25UD</t>
+          <t>20MM</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
@@ -22910,37 +22910,37 @@
         <v>90</v>
       </c>
       <c r="H106" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I106" s="4" t="n">
-        <v>6.5</v>
+        <v>8.75</v>
       </c>
       <c r="J106" s="4" t="n">
-        <v>1.75</v>
+        <v>3.62</v>
       </c>
       <c r="K106" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L106" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M106" s="5" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="N106" s="5" t="n">
-        <v>1.5</v>
+        <v>7.3</v>
       </c>
       <c r="O106" s="4" t="n">
-        <v>9</v>
+        <v>-5</v>
       </c>
       <c r="P106" s="4" t="n">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="Q106" s="4" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R106" s="4" t="n">
-        <v>28.89</v>
+        <v>0</v>
       </c>
       <c r="S106" s="5" t="n">
         <v>0</v>
@@ -22952,17 +22952,17 @@
       </c>
       <c r="U106" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 828 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V106" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W106" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -23226,24 +23226,16 @@
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>4603030002</t>
+          <t>4603010001</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>TAPON 16MM</t>
-        </is>
-      </c>
-      <c r="C110" s="3" t="inlineStr">
-        <is>
-          <t>4UD</t>
-        </is>
-      </c>
-      <c r="D110" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>GOTERO INTERLINEA BARREL 4L/H ROJO 10UD</t>
+        </is>
+      </c>
+      <c r="C110" s="3" t="inlineStr"/>
+      <c r="D110" s="3" t="inlineStr"/>
       <c r="E110" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -23258,31 +23250,31 @@
         <v>90</v>
       </c>
       <c r="H110" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I110" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>7.98</v>
       </c>
       <c r="J110" s="4" t="n">
-        <v>3.62</v>
+        <v>3.1</v>
       </c>
       <c r="K110" s="4" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="L110" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M110" s="5" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="N110" s="5" t="n">
-        <v>10.3</v>
+        <v>2.9</v>
       </c>
       <c r="O110" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P110" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q110" s="4" t="n">
         <v>80</v>
@@ -23300,7 +23292,7 @@
       </c>
       <c r="U110" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V110" s="4" t="inlineStr">
@@ -23310,23 +23302,31 @@
       </c>
       <c r="W110" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>4603010001</t>
+          <t>4603030002</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>GOTERO INTERLINEA BARREL 4L/H ROJO 10UD</t>
-        </is>
-      </c>
-      <c r="C111" s="3" t="inlineStr"/>
-      <c r="D111" s="3" t="inlineStr"/>
+          <t>TAPON 16MM</t>
+        </is>
+      </c>
+      <c r="C111" s="3" t="inlineStr">
+        <is>
+          <t>4UD</t>
+        </is>
+      </c>
+      <c r="D111" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E111" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -23341,31 +23341,31 @@
         <v>90</v>
       </c>
       <c r="H111" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I111" s="4" t="n">
-        <v>7.98</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="J111" s="4" t="n">
-        <v>3.1</v>
+        <v>3.62</v>
       </c>
       <c r="K111" s="4" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="L111" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M111" s="5" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="N111" s="5" t="n">
-        <v>2.9</v>
+        <v>10.3</v>
       </c>
       <c r="O111" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P111" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q111" s="4" t="n">
         <v>80</v>
@@ -23383,7 +23383,7 @@
       </c>
       <c r="U111" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V111" s="4" t="inlineStr">
@@ -23393,7 +23393,7 @@
       </c>
       <c r="W111" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -25097,12 +25097,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>4603010005</t>
+          <t>4603010038</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>GOTERO REGULABLE TORKE-R 0-6L/H 25UD</t>
+          <t>KIT GOTERO 8L/H 4 SALIDAS+4 MICROT</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -25124,13 +25124,13 @@
         <v>2</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>6.74</v>
+        <v>7.34</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>2.67</v>
+        <v>3.17</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
         <v>0</v>
@@ -25142,50 +25142,50 @@
         <v>2.9</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T12" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T12" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>4603010038</t>
+          <t>4603010005</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>KIT GOTERO 8L/H 4 SALIDAS+4 MICROT</t>
+          <t>GOTERO REGULABLE TORKE-R 0-6L/H 25UD</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -25207,13 +25207,13 @@
         <v>2</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>7.34</v>
+        <v>6.74</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>3.17</v>
+        <v>2.67</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>0</v>
@@ -25225,62 +25225,62 @@
         <v>2.9</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T13" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>4103090006</t>
+          <t>4602030001</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>CUCHILLO QUITAHIERBAS TRIMAT</t>
+          <t>ADAPTADOR DE GRIFO 3/4</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
       <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -25311,7 +25311,7 @@
         <v>-1</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>0</v>
@@ -25346,24 +25346,24 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>4602030001</t>
+          <t>4103090006</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ADAPTADOR DE GRIFO 3/4</t>
+          <t>CUCHILLO QUITAHIERBAS TRIMAT</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -25394,7 +25394,7 @@
         <v>-1</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>0</v>
@@ -27691,166 +27691,166 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>4603050004</t>
+          <t>4105040016</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>ABRAZADERA AUTOMATICA 16MM 10UD</t>
+          <t>COLLAR ARBOLES 45X2.5 2 UDS</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
       <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>4.98</v>
+        <v>4.37</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>2.02</v>
+        <v>1.51</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N42" s="5" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T42" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T42" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>4105040016</t>
+          <t>4603050004</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>COLLAR ARBOLES 45X2.5 2 UDS</t>
+          <t>ABRAZADERA AUTOMATICA 16MM 10UD</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
       <c r="D43" s="3" t="inlineStr"/>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H43" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" s="4" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="J43" s="4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K43" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="L43" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I43" s="4" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="J43" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="K43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N43" s="5" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T43" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W43" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -27948,39 +27948,31 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>4604050017</t>
+          <t>4301020002</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>TAPON ROSCA HEMBRA</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>3I4P</t>
-        </is>
-      </c>
-      <c r="D45" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PULVERIZADOR 2L JD</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr"/>
+      <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I45" s="4" t="n">
         <v>4.95</v>
@@ -27995,16 +27987,16 @@
         <v>0</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="N45" s="5" t="n">
-        <v>7.3</v>
+        <v>1.5</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="Q45" s="4" t="n">
         <v>0</v>
@@ -28022,7 +28014,7 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
@@ -28039,31 +28031,39 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>4504010001</t>
+          <t>4604050023</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>COJIN JARDINERO JD</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr"/>
-      <c r="D46" s="3" t="inlineStr"/>
+          <t>TERMINAL ROSCA MACHO</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>25I3/4</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION PERSONAL</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I46" s="4" t="n">
         <v>4.95</v>
@@ -28078,16 +28078,16 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="N46" s="5" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
@@ -28122,24 +28122,24 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>4301020002</t>
+          <t>4603010024</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR 2L JD</t>
+          <t>GOTERO AUTOCOMPENSADO AUTO-DRIP 4L/H 10UD</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
       <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
@@ -28155,7 +28155,7 @@
         <v>2.05</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L47" s="4" t="n">
         <v>0</v>
@@ -28167,55 +28167,55 @@
         <v>1.5</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P47" s="4" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T47" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>4604050023</t>
+          <t>4604050017</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>TERMINAL ROSCA MACHO</t>
+          <t>TAPON ROSCA HEMBRA</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>25I3/4</t>
+          <t>3I4P</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -28237,7 +28237,7 @@
         <v>90</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I48" s="4" t="n">
         <v>4.95</v>
@@ -28252,16 +28252,16 @@
         <v>0</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="N48" s="5" t="n">
-        <v>4.4</v>
+        <v>7.3</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="P48" s="4" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="Q48" s="4" t="n">
         <v>0</v>
@@ -28279,7 +28279,7 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
@@ -28296,24 +28296,24 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>4603010024</t>
+          <t>4504010001</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>GOTERO AUTOCOMPENSADO AUTO-DRIP 4L/H 10UD</t>
+          <t>COJIN JARDINERO JD</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
       <c r="D49" s="3" t="inlineStr"/>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION PERSONAL</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
@@ -28329,7 +28329,7 @@
         <v>2.05</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
         <v>0</v>
@@ -28341,38 +28341,38 @@
         <v>1.5</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T49" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T49" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -28470,17 +28470,17 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>4603020011</t>
+          <t>4105040014</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>ADAPTADOR MACHO 16MM</t>
+          <t>BOLSA 50 BRIDAS NEGRA</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>1I2P</t>
+          <t>20CM</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -28490,88 +28490,88 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>4.76</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1.93</v>
+        <v>5.06</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L51" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N51" s="5" t="n">
-        <v>5.9</v>
+        <v>2.9</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="P51" s="4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T51" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T51" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>4105040014</t>
+          <t>4603020011</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>BOLSA 50 BRIDAS NEGRA</t>
+          <t>ADAPTADOR MACHO 16MM</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>20CM</t>
+          <t>1I2P</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -28581,71 +28581,71 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H52" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I52" s="4" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="J52" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K52" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="L52" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I52" s="4" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="J52" s="4" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="K52" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N52" s="5" t="n">
-        <v>2.9</v>
+        <v>5.9</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="P52" s="4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q52" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R52" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T52" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W52" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -29447,12 +29447,12 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>4602180012</t>
+          <t>4603010028</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>ENLACE RAPIDO BIMATERIA STOP MANGUERA HELICOIDAL</t>
+          <t>MICRO 10 MAXI-JET 90°</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr"/>
@@ -29474,13 +29474,13 @@
         <v>1</v>
       </c>
       <c r="I62" s="4" t="n">
-        <v>3.49</v>
+        <v>3.99</v>
       </c>
       <c r="J62" s="4" t="n">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="K62" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L62" s="4" t="n">
         <v>0</v>
@@ -29492,16 +29492,16 @@
         <v>1.5</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P62" s="4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R62" s="4" t="n">
-        <v>12.22</v>
+        <v>0</v>
       </c>
       <c r="S62" s="5" t="n">
         <v>0</v>
@@ -29513,29 +29513,29 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 828 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W62" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>4603010028</t>
+          <t>4602180012</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>MICRO 10 MAXI-JET 90°</t>
+          <t>ENLACE RAPIDO BIMATERIA STOP MANGUERA HELICOIDAL</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr"/>
@@ -29557,13 +29557,13 @@
         <v>1</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>3.99</v>
+        <v>3.49</v>
       </c>
       <c r="J63" s="4" t="n">
-        <v>1.65</v>
+        <v>1.23</v>
       </c>
       <c r="K63" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L63" s="4" t="n">
         <v>0</v>
@@ -29575,16 +29575,16 @@
         <v>1.5</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P63" s="4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q63" s="4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R63" s="4" t="n">
-        <v>0</v>
+        <v>12.22</v>
       </c>
       <c r="S63" s="5" t="n">
         <v>0</v>
@@ -29596,17 +29596,17 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 828 días.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W63" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -29961,17 +29961,17 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>4603010007</t>
+          <t>4603020007</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>GOTERO AUTOCOMP ANTIDRENANTE 8L/H</t>
+          <t>ADAPTADOR GRIFO ROSCA HEMBRA</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>10UD</t>
+          <t>1I2P</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -29996,13 +29996,13 @@
         <v>1</v>
       </c>
       <c r="I68" s="4" t="n">
-        <v>3.83</v>
+        <v>3.99</v>
       </c>
       <c r="J68" s="4" t="n">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="K68" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L68" s="4" t="n">
         <v>0</v>
@@ -30014,55 +30014,55 @@
         <v>1.5</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P68" s="4" t="n">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="Q68" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R68" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T68" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T68" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U68" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V68" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W68" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>4603020007</t>
+          <t>4603010007</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>ADAPTADOR GRIFO ROSCA HEMBRA</t>
+          <t>GOTERO AUTOCOMP ANTIDRENANTE 8L/H</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>1I2P</t>
+          <t>10UD</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -30087,13 +30087,13 @@
         <v>1</v>
       </c>
       <c r="I69" s="4" t="n">
-        <v>3.99</v>
+        <v>3.83</v>
       </c>
       <c r="J69" s="4" t="n">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="K69" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L69" s="4" t="n">
         <v>0</v>
@@ -30105,38 +30105,38 @@
         <v>1.5</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P69" s="4" t="n">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="Q69" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R69" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T69" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T69" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W69" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -31460,24 +31460,32 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>4402010003</t>
+          <t>4603010017</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>TERMOMETRO MADERA</t>
-        </is>
-      </c>
-      <c r="C85" s="3" t="inlineStr"/>
-      <c r="D85" s="3" t="inlineStr"/>
+          <t>GOTERO TURBULENTO BANDERA 4L/H</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t>10UD</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F85" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G85" s="4" t="n">
@@ -31487,13 +31495,13 @@
         <v>1</v>
       </c>
       <c r="I85" s="4" t="n">
-        <v>3.49</v>
+        <v>2.99</v>
       </c>
       <c r="J85" s="4" t="n">
-        <v>1.63</v>
+        <v>1.22</v>
       </c>
       <c r="K85" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L85" s="4" t="n">
         <v>0</v>
@@ -31505,62 +31513,54 @@
         <v>1.5</v>
       </c>
       <c r="O85" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P85" s="4" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="Q85" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R85" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T85" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T85" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U85" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V85" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W85" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>4603010017</t>
+          <t>4603020001</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>GOTERO TURBULENTO BANDERA 4L/H</t>
-        </is>
-      </c>
-      <c r="C86" s="3" t="inlineStr">
-        <is>
-          <t>10UD</t>
-        </is>
-      </c>
-      <c r="D86" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>2 VALVULA 16MM</t>
+        </is>
+      </c>
+      <c r="C86" s="3" t="inlineStr"/>
+      <c r="D86" s="3" t="inlineStr"/>
       <c r="E86" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -31599,7 +31599,7 @@
         <v>-1</v>
       </c>
       <c r="P86" s="4" t="n">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="Q86" s="4" t="n">
         <v>0</v>
@@ -31634,24 +31634,24 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>4603020001</t>
+          <t>4402010003</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>2 VALVULA 16MM</t>
+          <t>TERMOMETRO MADERA</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr"/>
       <c r="D87" s="3" t="inlineStr"/>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F87" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G87" s="4" t="n">
@@ -31661,13 +31661,13 @@
         <v>1</v>
       </c>
       <c r="I87" s="4" t="n">
-        <v>2.99</v>
+        <v>3.49</v>
       </c>
       <c r="J87" s="4" t="n">
-        <v>1.22</v>
+        <v>1.63</v>
       </c>
       <c r="K87" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L87" s="4" t="n">
         <v>0</v>
@@ -31679,62 +31679,62 @@
         <v>1.5</v>
       </c>
       <c r="O87" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P87" s="4" t="n">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="Q87" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R87" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S87" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T87" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T87" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U87" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V87" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W87" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>4103020001</t>
+          <t>4603030003</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>HORCA AZUL JD</t>
+          <t>TAPON FINAL AUTOMATICO 3/8 DRIP FRESH</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr"/>
       <c r="D88" s="3" t="inlineStr"/>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G88" s="4" t="n">
@@ -31744,10 +31744,10 @@
         <v>1</v>
       </c>
       <c r="I88" s="4" t="n">
-        <v>2.95</v>
+        <v>4.75</v>
       </c>
       <c r="J88" s="4" t="n">
-        <v>1.22</v>
+        <v>2.71</v>
       </c>
       <c r="K88" s="4" t="n">
         <v>0</v>
@@ -31765,7 +31765,7 @@
         <v>-1</v>
       </c>
       <c r="P88" s="4" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="Q88" s="4" t="n">
         <v>0</v>
@@ -31800,24 +31800,24 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>4603030003</t>
+          <t>4103020001</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>TAPON FINAL AUTOMATICO 3/8 DRIP FRESH</t>
+          <t>HORCA AZUL JD</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr"/>
       <c r="D89" s="3" t="inlineStr"/>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F89" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G89" s="4" t="n">
@@ -31827,10 +31827,10 @@
         <v>1</v>
       </c>
       <c r="I89" s="4" t="n">
-        <v>4.75</v>
+        <v>2.95</v>
       </c>
       <c r="J89" s="4" t="n">
-        <v>2.71</v>
+        <v>1.22</v>
       </c>
       <c r="K89" s="4" t="n">
         <v>0</v>
@@ -31848,7 +31848,7 @@
         <v>-1</v>
       </c>
       <c r="P89" s="4" t="n">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="Q89" s="4" t="n">
         <v>0</v>
@@ -32836,17 +32836,17 @@
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>4603030002</t>
+          <t>4105040012</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>TAPON 16MM</t>
+          <t>BOLSA 50 BRIDAS BLANCAS</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>10UD</t>
+          <t>14CM</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
@@ -32856,12 +32856,12 @@
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F101" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G101" s="4" t="n">
@@ -32871,13 +32871,13 @@
         <v>1</v>
       </c>
       <c r="I101" s="4" t="n">
-        <v>2.49</v>
+        <v>1.99</v>
       </c>
       <c r="J101" s="4" t="n">
-        <v>1.06</v>
+        <v>0.64</v>
       </c>
       <c r="K101" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L101" s="4" t="n">
         <v>0</v>
@@ -32889,55 +32889,55 @@
         <v>1.5</v>
       </c>
       <c r="O101" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P101" s="4" t="n">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="Q101" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R101" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S101" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T101" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T101" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U101" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V101" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W101" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>4105040012</t>
+          <t>4603030002</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>BOLSA 50 BRIDAS BLANCAS</t>
+          <t>TAPON 16MM</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>14CM</t>
+          <t>10UD</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
@@ -32947,12 +32947,12 @@
       </c>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F102" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G102" s="4" t="n">
@@ -32962,13 +32962,13 @@
         <v>1</v>
       </c>
       <c r="I102" s="4" t="n">
-        <v>1.99</v>
+        <v>2.49</v>
       </c>
       <c r="J102" s="4" t="n">
-        <v>0.64</v>
+        <v>1.06</v>
       </c>
       <c r="K102" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L102" s="4" t="n">
         <v>0</v>
@@ -32980,38 +32980,38 @@
         <v>1.5</v>
       </c>
       <c r="O102" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P102" s="4" t="n">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="Q102" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R102" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S102" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T102" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T102" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U102" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V102" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W102" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -34332,32 +34332,24 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>4602090004</t>
+          <t>4301040003</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>MANGUERA FLEX 25M</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>15MM</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PULVERIZADOR MATABI E1 ELECTRIC 1L</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr"/>
+      <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -34376,7 +34368,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -34385,16 +34377,16 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>98.89</v>
+        <v>88.89</v>
       </c>
       <c r="S2" s="5" t="n">
         <v>10</v>
@@ -34411,7 +34403,7 @@
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -34506,24 +34498,32 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>4602130001</t>
+          <t>4301020003</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>SET DE MANGUERA FLEX 20M DIAMETRO 15MM</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
+          <t>PULVERIZADOR MATABI BERRY</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>5L</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -34542,7 +34542,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -34551,16 +34551,16 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>98.89</v>
+        <v>66.67</v>
       </c>
       <c r="S4" s="5" t="n">
         <v>10</v>
@@ -34577,7 +34577,7 @@
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -34589,12 +34589,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>4603010004</t>
+          <t>4604060004</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>GOTERO REGULABLE SPECTRUM-R 0-80L/H C/ ESTACA 25UD</t>
+          <t>ARQUETA CUADRADA 1 VALVULA</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -34625,7 +34625,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -34634,7 +34634,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
@@ -34672,24 +34672,32 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>4105040029</t>
+          <t>4604050006</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>MANGO MADERA ESPATULA SOLADOR 1500X25MM (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr"/>
-      <c r="D6" s="3" t="inlineStr"/>
+          <t>CODO ROSCA MACHO</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>20I1/2</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -34708,7 +34716,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -34717,19 +34725,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>102.22</v>
+        <v>28.89</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T6" s="9" t="inlineStr">
         <is>
@@ -34738,12 +34746,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -34755,17 +34763,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>4105060006</t>
+          <t>4602090006</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>CUBO JARDIN ANTRACITA</t>
+          <t>MANGUERA TRICOTADO NO TORSION X METRO</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>19MM</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -34775,12 +34783,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -34799,7 +34807,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -34808,19 +34816,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>58.89</v>
+        <v>102.22</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T7" s="9" t="inlineStr">
         <is>
@@ -34829,12 +34837,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -34846,24 +34854,32 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>4301040003</t>
+          <t>4603010024</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR MATABI E1 ELECTRIC 1L</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" s="3" t="inlineStr"/>
+          <t>GOTERO AUTOCOMPENSADO AUTO-DRIP 4L/H</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>25UD</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -34882,7 +34898,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -34891,19 +34907,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>88.89</v>
+        <v>28.89</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T8" s="9" t="inlineStr">
         <is>
@@ -34912,12 +34928,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -34929,16 +34945,24 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>4603010038</t>
+          <t>4605010014</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>KIT GOTERO 8L/H 4 SALIDAS+4 MICROT 50CM+4PIQUETAS</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr"/>
-      <c r="D9" s="3" t="inlineStr"/>
+          <t>PROGRAMADOR RAIN BIRD WPX 9V</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -34965,7 +34989,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -34974,19 +34998,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>12.22</v>
+        <v>102.22</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T9" s="9" t="inlineStr">
         <is>
@@ -34995,12 +35019,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 82.28€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -35012,24 +35036,24 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>4402010004</t>
+          <t>4105060005</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>TERMOMETRO PARED INTERIOR EXTERIOR CHAPA METALICA</t>
+          <t>CARRETILLA OBRA METALICA AMARILLA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -35048,7 +35072,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -35057,19 +35081,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>88.89</v>
+        <v>102.22</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T10" s="9" t="inlineStr">
         <is>
@@ -35078,12 +35102,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -35095,12 +35119,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>4106010021</t>
+          <t>4101140003</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>CEPILLO RAICES 5X10 (NO VENTA)</t>
+          <t>RASTRILLO JARDIN REGULABLE MARIPOSA CON MANGO</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -35131,7 +35155,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -35140,7 +35164,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
@@ -35161,7 +35185,7 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
@@ -35178,24 +35202,24 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>4106010010</t>
+          <t>4602010001</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>CEPILLO BARRENDERO PP F PROEX SIN MANGO (NO VENTA)</t>
+          <t>LANZA REGULABLE CON ACOPLE</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
       <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -35214,7 +35238,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -35223,19 +35247,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>102.22</v>
+        <v>88.89</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T12" s="9" t="inlineStr">
         <is>
@@ -35244,12 +35268,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 27.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -35261,24 +35285,32 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>4105070001</t>
+          <t>4602160004</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>CINTA PARA INJERTAR PLANTAS (3CM) 100M</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr"/>
-      <c r="D13" s="3" t="inlineStr"/>
+          <t>PORTAMANGUERA AUTOMATICO ROLLUP</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -35297,7 +35329,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -35306,19 +35338,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>12.22</v>
+        <v>98.89</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T13" s="9" t="inlineStr">
         <is>
@@ -35327,12 +35359,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -35344,24 +35376,24 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>4402010002</t>
+          <t>4602180016</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>TERMOMETRO PARED BLANCO</t>
+          <t>MANGUITO RED 1X3/4" CONT</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
       <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -35380,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -35389,19 +35421,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>88.89</v>
+        <v>12.22</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T14" s="9" t="inlineStr">
         <is>
@@ -35410,12 +35442,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -35427,32 +35459,24 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>4101170006</t>
+          <t>4603020005</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>MANGO MADERA AZADA</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>900X32</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ENLACE 4UD 16-12MM</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr"/>
+      <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -35471,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -35480,19 +35504,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>68.89</v>
+        <v>28.89</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T15" s="9" t="inlineStr">
         <is>
@@ -35501,12 +35525,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/03/2025</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -35518,24 +35542,24 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>4106010022</t>
+          <t>4603010038</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>MANGO MADERA ROSCA 1150X22MM CEP RAICES (NO VENTA)</t>
+          <t>KIT GOTERO 8L/H 4 SALIDAS+4 MICROT 50CM+4PIQUETAS</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
       <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -35554,7 +35578,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -35563,19 +35587,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>102.22</v>
+        <v>12.22</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T16" s="9" t="inlineStr">
         <is>
@@ -35584,12 +35608,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -35601,17 +35625,17 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>4603010024</t>
+          <t>4101170006</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>GOTERO AUTOCOMPENSADO AUTO-DRIP 4L/H</t>
+          <t>MANGO MADERA AZADA</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>25UD</t>
+          <t>900X32</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -35621,12 +35645,12 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -35645,7 +35669,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -35654,19 +35678,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>28.89</v>
+        <v>68.89</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T17" s="9" t="inlineStr">
         <is>
@@ -35675,12 +35699,12 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Compra 30/03/2025</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -35692,24 +35716,24 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>4603020005</t>
+          <t>4401060003</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>ENLACE 4UD 16-12MM</t>
+          <t>TREEGUARD 0,2X0,5M</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -35728,7 +35752,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -35737,19 +35761,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>28.89</v>
+        <v>102.22</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T18" s="9" t="inlineStr">
         <is>
@@ -35758,12 +35782,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -35775,24 +35799,24 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>4105060005</t>
+          <t>4604060001</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CARRETILLA OBRA METALICA AMARILLA</t>
+          <t>ARQUETA CIRCULAR 2 VALVULA</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -35811,7 +35835,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -35820,19 +35844,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>102.22</v>
+        <v>88.89</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T19" s="9" t="inlineStr">
         <is>
@@ -35841,12 +35865,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -35858,17 +35882,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>4605010014</t>
+          <t>4604050005</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>PROGRAMADOR RAIN BIRD WPX 9V</t>
+          <t>CODO ROSCA HEMBRA</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>25I3/4</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -35902,7 +35926,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -35911,16 +35935,16 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>17.78</v>
+        <v>28.89</v>
       </c>
       <c r="S20" s="5" t="n">
         <v>0</v>
@@ -35937,7 +35961,7 @@
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -35949,24 +35973,24 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>4602100001</t>
+          <t>4106010021</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>MANGUERA LATFLEX REFORZADO 19MM  X METRO</t>
+          <t>CEPILLO RAICES 5X10 (NO VENTA)</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
       <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -35985,7 +36009,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -35994,7 +36018,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
@@ -36015,7 +36039,7 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -36032,24 +36056,24 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>4301010009</t>
+          <t>4402010002</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR 0,6L ECLOZ</t>
+          <t>TERMOMETRO PARED BLANCO</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -36068,7 +36092,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -36077,7 +36101,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
@@ -36115,24 +36139,24 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>4101140003</t>
+          <t>4301020004</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>RASTRILLO JARDIN REGULABLE MARIPOSA CON MANGO</t>
+          <t>PULVERIZADOR MATABI EVOLUTION 12</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
       <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -36151,7 +36175,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -36160,19 +36184,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>102.22</v>
+        <v>88.89</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T23" s="9" t="inlineStr">
         <is>
@@ -36181,12 +36205,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -36198,24 +36222,24 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>4105040028</t>
+          <t>4603010004</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>ESPATULA SOLADOR 55CM (NO VENTA)</t>
+          <t>GOTERO REGULABLE SPECTRUM-R 0-80L/H C/ ESTACA 25UD</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
       <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -36234,7 +36258,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -36243,19 +36267,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>102.22</v>
+        <v>12.22</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T24" s="9" t="inlineStr">
         <is>
@@ -36264,12 +36288,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.83€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -36281,24 +36305,24 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>4403020010</t>
+          <t>4203010005</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>KIT SEMILLERO FIBRA CON TAPA+BANDEJA 24HUECOS 4X4</t>
+          <t>HUERTO ELEVADO PAPRIKA 80X40X87CM 50L</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
       <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -36317,7 +36341,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -36326,19 +36350,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>12.22</v>
+        <v>96.67</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T25" s="9" t="inlineStr">
         <is>
@@ -36347,12 +36371,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 05/03/2025</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -36364,24 +36388,24 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>4603050006</t>
+          <t>4301010009</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>PUNZON PERFORADOR 4MM</t>
+          <t>PULVERIZADOR 0,6L ECLOZ</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
       <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -36400,7 +36424,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -36409,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>92</v>
@@ -36447,24 +36471,16 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>4605010014</t>
+          <t>4605010001</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>PROGRAMADOR RAIN BIRD WPX 9V</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>T4</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PROGRAMADOR DE GRIFO AQUA CONTROL DISPLAY LCD</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr"/>
+      <c r="D27" s="3" t="inlineStr"/>
       <c r="E27" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -36506,13 +36522,13 @@
         <v>92</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>102.22</v>
+        <v>12.22</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T27" s="9" t="inlineStr">
         <is>
@@ -36521,12 +36537,12 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 82.28€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
@@ -36538,24 +36554,24 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>4604060001</t>
+          <t>4403040002</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>ARQUETA CIRCULAR 2 VALVULA</t>
+          <t>SET 15 MACETAS PP MARRON 9X6,8CM</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
       <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
@@ -36574,7 +36590,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -36583,19 +36599,19 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>88.89</v>
+        <v>12.22</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T28" s="9" t="inlineStr">
         <is>
@@ -36604,12 +36620,12 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
@@ -36621,24 +36637,32 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>4605010001</t>
+          <t>4301020003</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>PROGRAMADOR DE GRIFO AQUA CONTROL DISPLAY LCD</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr"/>
-      <c r="D29" s="3" t="inlineStr"/>
+          <t>PULVERIZADOR MATABI BERRY</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>3I5L</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
@@ -36657,7 +36681,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>0</v>
@@ -36666,19 +36690,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>12.22</v>
+        <v>88.89</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T29" s="9" t="inlineStr">
         <is>
@@ -36687,12 +36711,12 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
@@ -36704,32 +36728,24 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>4602160004</t>
+          <t>4201020006</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>PORTAMANGUERA AUTOMATICO ROLLUP</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CORTARRAMAS EASYCUT</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr"/>
+      <c r="D30" s="3" t="inlineStr"/>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
@@ -36748,7 +36764,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>0</v>
@@ -36757,7 +36773,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>92</v>
@@ -36795,32 +36811,24 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>4602090006</t>
+          <t>4503020001</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>MANGUERA TRICOTADO NO TORSION X METRO</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>19MM</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DELANTAL IMPERMEABLE RECOLECCION 76X43X44CM</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr"/>
+      <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION PERSONAL</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
@@ -36839,7 +36847,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>0</v>
@@ -36848,19 +36856,19 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>102.22</v>
+        <v>88.89</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T31" s="9" t="inlineStr">
         <is>
@@ -36869,12 +36877,12 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
@@ -36886,12 +36894,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>4602010001</t>
+          <t>4602180009</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>LANZA REGULABLE CON ACOPLE</t>
+          <t>DISTRIBUIDOR CUADRUPLE</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -36922,7 +36930,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>0</v>
@@ -36931,16 +36939,16 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>88.89</v>
+        <v>98.89</v>
       </c>
       <c r="S32" s="5" t="n">
         <v>10</v>
@@ -36957,7 +36965,7 @@
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -36969,24 +36977,24 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>4301020004</t>
+          <t>4105070001</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR MATABI EVOLUTION 12</t>
+          <t>CINTA PARA INJERTAR PLANTAS (3CM) 100M</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
       <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
@@ -37005,7 +37013,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>0</v>
@@ -37014,19 +37022,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>88.89</v>
+        <v>12.22</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T33" s="9" t="inlineStr">
         <is>
@@ -37035,12 +37043,12 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -37052,24 +37060,24 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>4201020006</t>
+          <t>4602100001</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>CORTARRAMAS EASYCUT</t>
+          <t>MANGUERA LATFLEX REFORZADO 19MM  X METRO</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
       <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
@@ -37088,7 +37096,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>0</v>
@@ -37097,19 +37105,19 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>98.89</v>
+        <v>102.22</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T34" s="9" t="inlineStr">
         <is>
@@ -37118,12 +37126,12 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -37135,12 +37143,12 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>4104010020</t>
+          <t>4105040029</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>ESCOBA CESPED JUNIOR</t>
+          <t>MANGO MADERA ESPATULA SOLADOR 1500X25MM (NO VENTA)</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -37171,7 +37179,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M35" s="5" t="n">
         <v>0</v>
@@ -37180,7 +37188,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>92</v>
@@ -37201,7 +37209,7 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.39€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
@@ -37218,32 +37226,24 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>4602090002</t>
+          <t>4106010010</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>MANGUERA CLASSIC 20M</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr">
-        <is>
-          <t>15MM</t>
-        </is>
-      </c>
-      <c r="D36" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CEPILLO BARRENDERO PP F PROEX SIN MANGO (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr"/>
+      <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -37262,7 +37262,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>0</v>
@@ -37271,19 +37271,19 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>98.89</v>
+        <v>102.22</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T36" s="9" t="inlineStr">
         <is>
@@ -37292,12 +37292,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 27.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -37309,12 +37309,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>4106010002</t>
+          <t>4105040028</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>CEPILLO BARRER DOMESTICO (NO VENTA)</t>
+          <t>ESPATULA SOLADOR 55CM (NO VENTA)</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -37345,7 +37345,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>0</v>
@@ -37354,19 +37354,19 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>68.89</v>
+        <v>102.22</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T37" s="9" t="inlineStr">
         <is>
@@ -37375,12 +37375,12 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.83€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
@@ -37392,24 +37392,32 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>4401060003</t>
+          <t>4602090002</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>TREEGUARD 0,2X0,5M</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr"/>
-      <c r="D38" s="3" t="inlineStr"/>
+          <t>MANGUERA CLASSIC 20M</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>15MM</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
@@ -37428,7 +37436,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>0</v>
@@ -37437,19 +37445,19 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>102.22</v>
+        <v>98.89</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T38" s="9" t="inlineStr">
         <is>
@@ -37458,12 +37466,12 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
@@ -37475,24 +37483,32 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>4602180009</t>
+          <t>4105060006</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>DISTRIBUIDOR CUADRUPLE</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr"/>
-      <c r="D39" s="3" t="inlineStr"/>
+          <t>CUBO JARDIN ANTRACITA</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>90L</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
@@ -37511,7 +37527,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0</v>
@@ -37520,19 +37536,19 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>98.89</v>
+        <v>58.89</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T39" s="9" t="inlineStr">
         <is>
@@ -37541,12 +37557,12 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
@@ -37558,32 +37574,24 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>4301020003</t>
+          <t>4603050006</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR MATABI BERRY</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t>3I5L</t>
-        </is>
-      </c>
-      <c r="D40" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PUNZON PERFORADOR 4MM</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr"/>
+      <c r="D40" s="3" t="inlineStr"/>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
@@ -37602,7 +37610,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0</v>
@@ -37611,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>92</v>
@@ -37649,24 +37657,24 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>4203010005</t>
+          <t>4402010004</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>HUERTO ELEVADO PAPRIKA 80X40X87CM 50L</t>
+          <t>TERMOMETRO PARED INTERIOR EXTERIOR CHAPA METALICA</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
       <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
@@ -37685,7 +37693,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M41" s="5" t="n">
         <v>0</v>
@@ -37694,16 +37702,16 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>96.67</v>
+        <v>88.89</v>
       </c>
       <c r="S41" s="5" t="n">
         <v>10</v>
@@ -37720,7 +37728,7 @@
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/03/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
@@ -37732,12 +37740,12 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>4604060004</t>
+          <t>4602130001</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>ARQUETA CUADRADA 1 VALVULA</t>
+          <t>SET DE MANGUERA FLEX 20M DIAMETRO 15MM</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
@@ -37768,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>0</v>
@@ -37777,19 +37785,19 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>12.22</v>
+        <v>98.89</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T42" s="9" t="inlineStr">
         <is>
@@ -37798,12 +37806,12 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -37815,24 +37823,32 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>4503020001</t>
+          <t>4603010008</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>DELANTAL IMPERMEABLE RECOLECCION 76X43X44CM</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr"/>
-      <c r="D43" s="3" t="inlineStr"/>
+          <t>GOTERO AUTOCOMPENSADO AUTO-MAT 2L/H</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>10UD</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION PERSONAL</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
@@ -37851,7 +37867,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M43" s="5" t="n">
         <v>0</v>
@@ -37860,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>92</v>
@@ -37898,16 +37914,24 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>4602180016</t>
+          <t>4602090004</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>MANGUITO RED 1X3/4" CONT</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr"/>
-      <c r="D44" s="3" t="inlineStr"/>
+          <t>MANGUERA FLEX 25M</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>15MM</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -37934,7 +37958,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="M44" s="5" t="n">
         <v>0</v>
@@ -37943,19 +37967,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>12.22</v>
+        <v>98.89</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T44" s="9" t="inlineStr">
         <is>
@@ -37964,12 +37988,12 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
@@ -37981,32 +38005,24 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>4604050005</t>
+          <t>4106010020</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>CODO ROSCA HEMBRA</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>25I3/4</t>
-        </is>
-      </c>
-      <c r="D45" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CEPILLO BARREND IND FIBRA RIG PP 50CM (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr"/>
+      <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
@@ -38025,7 +38041,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="M45" s="5" t="n">
         <v>0</v>
@@ -38034,19 +38050,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>28.89</v>
+        <v>102.22</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T45" s="9" t="inlineStr">
         <is>
@@ -38055,12 +38071,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -38072,17 +38088,17 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>4603010008</t>
+          <t>4605010014</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>GOTERO AUTOCOMPENSADO AUTO-MAT 2L/H</t>
+          <t>PROGRAMADOR RAIN BIRD WPX 9V</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>10UD</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -38116,7 +38132,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M46" s="5" t="n">
         <v>0</v>
@@ -38125,19 +38141,19 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>88.89</v>
+        <v>17.78</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T46" s="9" t="inlineStr">
         <is>
@@ -38146,12 +38162,12 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
@@ -38163,32 +38179,24 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>4301020003</t>
+          <t>4106010022</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR MATABI BERRY</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>5L</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>MANGO MADERA ROSCA 1150X22MM CEP RAICES (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr"/>
+      <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
@@ -38207,7 +38215,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M47" s="5" t="n">
         <v>0</v>
@@ -38216,19 +38224,19 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>66.67</v>
+        <v>102.22</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T47" s="9" t="inlineStr">
         <is>
@@ -38237,12 +38245,12 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
@@ -38254,32 +38262,24 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>4604050006</t>
+          <t>4104010020</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>CODO ROSCA MACHO</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>20I1/2</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ESCOBA CESPED JUNIOR</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr"/>
+      <c r="D48" s="3" t="inlineStr"/>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -38298,7 +38298,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="M48" s="5" t="n">
         <v>0</v>
@@ -38307,19 +38307,19 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>28.89</v>
+        <v>102.22</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T48" s="9" t="inlineStr">
         <is>
@@ -38328,12 +38328,12 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.39€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
@@ -38345,24 +38345,24 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>4106010020</t>
+          <t>4403020010</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>CEPILLO BARREND IND FIBRA RIG PP 50CM (NO VENTA)</t>
+          <t>KIT SEMILLERO FIBRA CON TAPA+BANDEJA 24HUECOS 4X4</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
       <c r="D49" s="3" t="inlineStr"/>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
@@ -38381,7 +38381,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M49" s="5" t="n">
         <v>0</v>
@@ -38390,19 +38390,19 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>102.22</v>
+        <v>12.22</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T49" s="9" t="inlineStr">
         <is>
@@ -38411,12 +38411,12 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
@@ -38428,24 +38428,24 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>4403040002</t>
+          <t>4106010002</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>SET 15 MACETAS PP MARRON 9X6,8CM</t>
+          <t>CEPILLO BARRER DOMESTICO (NO VENTA)</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
       <c r="D50" s="3" t="inlineStr"/>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G50" s="4" t="n">
@@ -38464,7 +38464,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="M50" s="5" t="n">
         <v>0</v>
@@ -38473,19 +38473,19 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>12.22</v>
+        <v>68.89</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T50" s="9" t="inlineStr">
         <is>
@@ -38494,12 +38494,12 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 30/03/2025</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_UTILES_JARDIN_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_UTILES_JARDIN_P2_2025.xlsx
@@ -3138,12 +3138,12 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>4601010005</t>
+          <t>4601010004</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>REGADERA MONDEGO VERDE SECO</t>
+          <t>REGADERA MONDEGO ANTRACITA</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -3194,7 +3194,7 @@
         <v>-7</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q31" s="4" t="n">
         <v>0</v>
@@ -3229,12 +3229,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>4601010004</t>
+          <t>4601010005</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>REGADERA MONDEGO ANTRACITA</t>
+          <t>REGADERA MONDEGO VERDE SECO</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -3285,7 +3285,7 @@
         <v>-7</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q32" s="4" t="n">
         <v>0</v>
@@ -3320,24 +3320,16 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>4602110002</t>
+          <t>4604020001</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>XPANSY HOSE MANGUERA EXTENSIBLE PRO + ACCESORIOS</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>15M</t>
-        </is>
-      </c>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ROLLO 25M TUBERIA PE 6AT/20MM</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr"/>
+      <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -3352,75 +3344,83 @@
         <v>90</v>
       </c>
       <c r="H33" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>67.98</v>
+        <v>59.97</v>
       </c>
       <c r="J33" s="4" t="n">
-        <v>28.28</v>
+        <v>21.66</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L33" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N33" s="5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O33" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N33" s="5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O33" s="4" t="n">
-        <v>-2</v>
-      </c>
       <c r="P33" s="4" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T33" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>4604020001</t>
+          <t>4602110002</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>ROLLO 25M TUBERIA PE 6AT/20MM</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr"/>
-      <c r="D34" s="3" t="inlineStr"/>
+          <t>XPANSY HOSE MANGUERA EXTENSIBLE PRO + ACCESORIOS</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>15M</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -3435,59 +3435,59 @@
         <v>90</v>
       </c>
       <c r="H34" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>59.97</v>
+        <v>67.98</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>21.66</v>
+        <v>28.28</v>
       </c>
       <c r="K34" s="4" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="N34" s="5" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="O34" s="4" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P34" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="P34" s="4" t="n">
-        <v>25</v>
-      </c>
       <c r="Q34" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T34" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T34" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -5135,166 +5135,166 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>4603050019</t>
+          <t>4106010012</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>PACK 6 CONOS RIEGO REGULABLES PARA BOTELLA</t>
+          <t>ESCOBA JARDIN PUAS PLANAS MANGO MADERA 1,2M</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
       <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>47.94</v>
+        <v>39</v>
       </c>
       <c r="J54" s="4" t="n">
-        <v>20.18</v>
+        <v>12.79</v>
       </c>
       <c r="K54" s="4" t="n">
-        <v>50</v>
+        <v>30.77</v>
       </c>
       <c r="L54" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="N54" s="5" t="n">
-        <v>8.800000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>88.89</v>
+        <v>102.22</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T54" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T54" s="7" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>4106010012</t>
+          <t>4603050019</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ESCOBA JARDIN PUAS PLANAS MANGO MADERA 1,2M</t>
+          <t>PACK 6 CONOS RIEGO REGULABLES PARA BOTELLA</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
       <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>39</v>
+        <v>47.94</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>12.79</v>
+        <v>20.18</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>30.77</v>
+        <v>50</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="N55" s="5" t="n">
-        <v>5.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>102.22</v>
+        <v>88.89</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T55" s="7" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T55" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -7638,24 +7638,16 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>4603040003</t>
+          <t>4602180007</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>ROLLO MICROTUBO NEGRO 4MM</t>
-        </is>
-      </c>
-      <c r="C83" s="3" t="inlineStr">
-        <is>
-          <t>15M</t>
-        </is>
-      </c>
-      <c r="D83" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DISTRIBUIDOR 4 VIAS 1"-3/4" CON ADAP DE GRIFO</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr"/>
+      <c r="D83" s="3" t="inlineStr"/>
       <c r="E83" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -7673,13 +7665,13 @@
         <v>3</v>
       </c>
       <c r="I83" s="4" t="n">
-        <v>33.32</v>
+        <v>31.5</v>
       </c>
       <c r="J83" s="4" t="n">
-        <v>12.69</v>
+        <v>11.18</v>
       </c>
       <c r="K83" s="4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L83" s="4" t="n">
         <v>0</v>
@@ -7691,16 +7683,16 @@
         <v>4.4</v>
       </c>
       <c r="O83" s="4" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="P83" s="4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q83" s="4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R83" s="4" t="n">
-        <v>12.22</v>
+        <v>0</v>
       </c>
       <c r="S83" s="5" t="n">
         <v>0</v>
@@ -7712,33 +7704,41 @@
       </c>
       <c r="U83" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 61 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V83" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W83" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>4602180007</t>
+          <t>4603040003</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>DISTRIBUIDOR 4 VIAS 1"-3/4" CON ADAP DE GRIFO</t>
-        </is>
-      </c>
-      <c r="C84" s="3" t="inlineStr"/>
-      <c r="D84" s="3" t="inlineStr"/>
+          <t>ROLLO MICROTUBO NEGRO 4MM</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="inlineStr">
+        <is>
+          <t>15M</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -7756,13 +7756,13 @@
         <v>3</v>
       </c>
       <c r="I84" s="4" t="n">
-        <v>31.5</v>
+        <v>33.32</v>
       </c>
       <c r="J84" s="4" t="n">
-        <v>11.18</v>
+        <v>12.69</v>
       </c>
       <c r="K84" s="4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L84" s="4" t="n">
         <v>0</v>
@@ -7774,16 +7774,16 @@
         <v>4.4</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="P84" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="Q84" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="R84" s="4" t="n">
-        <v>0</v>
+        <v>12.22</v>
       </c>
       <c r="S84" s="5" t="n">
         <v>0</v>
@@ -7795,17 +7795,17 @@
       </c>
       <c r="U84" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 61 días.</t>
         </is>
       </c>
       <c r="V84" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W84" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>T39</t>
+          <t>T41</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -10641,7 +10641,7 @@
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>T41</t>
+          <t>T39</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
@@ -14831,24 +14831,16 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>4101170006</t>
+          <t>4104010024</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>MANGO MADERA AZADA</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>1200X38</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>MINI RASTRILLO JUNIOR AMARILLO</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr"/>
+      <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="4" t="inlineStr">
         <is>
           <t>41</t>
@@ -14866,13 +14858,13 @@
         <v>2</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>14.98</v>
+        <v>13.9</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>5.1</v>
+        <v>4.21</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>0</v>
@@ -14884,54 +14876,62 @@
         <v>2.9</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>68.89</v>
+        <v>102.22</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T13" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T13" s="7" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>4104010024</t>
+          <t>4101170006</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>MINI RASTRILLO JUNIOR AMARILLO</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr"/>
-      <c r="D14" s="3" t="inlineStr"/>
+          <t>MANGO MADERA AZADA</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>1200X38</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
           <t>41</t>
@@ -14949,13 +14949,13 @@
         <v>2</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>13.9</v>
+        <v>14.98</v>
       </c>
       <c r="J14" s="4" t="n">
-        <v>4.21</v>
+        <v>5.1</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L14" s="4" t="n">
         <v>0</v>
@@ -14967,38 +14967,38 @@
         <v>2.9</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>102.22</v>
+        <v>68.89</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T14" s="7" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T14" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 30/03/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -15511,16 +15511,24 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>4603010030</t>
+          <t>4603020007</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>MICRO 3 VARI-JET 180°</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr"/>
-      <c r="D21" s="3" t="inlineStr"/>
+          <t>ADAPTADOR GRIFO ROSCA HEMBRA</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>3I4M1</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -15535,13 +15543,13 @@
         <v>90</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>16.35</v>
+        <v>16.14</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>6.61</v>
+        <v>6.44</v>
       </c>
       <c r="K21" s="4" t="n">
         <v>0</v>
@@ -15550,16 +15558,16 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>7.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>0</v>
@@ -15577,7 +15585,7 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -15594,24 +15602,16 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>4603020007</t>
+          <t>4603010030</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>ADAPTADOR GRIFO ROSCA HEMBRA</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>3I4M1</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>MICRO 3 VARI-JET 180°</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr"/>
+      <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -15626,13 +15626,13 @@
         <v>90</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>16.14</v>
+        <v>16.35</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>6.44</v>
+        <v>6.61</v>
       </c>
       <c r="K22" s="4" t="n">
         <v>0</v>
@@ -15641,16 +15641,16 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>8.800000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>0</v>
@@ -15668,7 +15668,7 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
@@ -15778,7 +15778,7 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>T6I8</t>
+          <t>T8I10</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -15824,7 +15824,7 @@
         <v>-3</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>0</v>
@@ -15869,7 +15869,7 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>T8I10</t>
+          <t>T6I8</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -15915,7 +15915,7 @@
         <v>-3</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>0</v>
@@ -16389,69 +16389,61 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>4603020021</t>
+          <t>4105090009</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>TE 16 MM</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>10UD</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>POWER GEL BL 3GR</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr"/>
+      <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H31" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>13.6</v>
+        <v>15.98</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>4.64</v>
+        <v>6.6</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N31" s="5" t="n">
-        <v>5.9</v>
+        <v>2.9</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>28.89</v>
+        <v>0</v>
       </c>
       <c r="S31" s="5" t="n">
         <v>0</v>
@@ -16463,34 +16455,34 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 138 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>4603030002</t>
+          <t>4603020021</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>TAPON 16MM</t>
+          <t>TE 16 MM</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>25UD</t>
+          <t>10UD</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -16512,31 +16504,31 @@
         <v>90</v>
       </c>
       <c r="H32" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>10.47</v>
+        <v>13.6</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>2.05</v>
+        <v>4.64</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N32" s="5" t="n">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="Q32" s="4" t="n">
         <v>26</v>
@@ -16554,7 +16546,7 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 214 días.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 138 días.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
@@ -16662,61 +16654,69 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>4105090009</t>
+          <t>4603030002</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>POWER GEL BL 3GR</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr"/>
-      <c r="D34" s="3" t="inlineStr"/>
+          <t>TAPON 16MM</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>25UD</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H34" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>15.98</v>
+        <v>10.47</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>6.6</v>
+        <v>2.05</v>
       </c>
       <c r="K34" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L34" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="N34" s="5" t="n">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>0</v>
+        <v>28.89</v>
       </c>
       <c r="S34" s="5" t="n">
         <v>0</v>
@@ -16728,17 +16728,17 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 214 días.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -17513,7 +17513,7 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>KIT SEMILLERO PLAST CON TAPA+ BANDEJA 24 HUECOS</t>
+          <t>KIT SEMILLERO PLAST CON TAPA+ BANDEJA 24HUECOS 4X4</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
@@ -17541,7 +17541,7 @@
         <v>5.04</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L44" s="4" t="n">
         <v>0</v>
@@ -17553,158 +17553,158 @@
         <v>1.5</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T44" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>4403020005</t>
+          <t>4602150004</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>KIT SEMILLERO PLAST CON TAPA+ BANDEJA 24HUECOS 4X4</t>
+          <t>COLGADOR MANGUERA VERDE MAX 10KG CARGA</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
       <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>5.04</v>
+        <v>5.45</v>
       </c>
       <c r="K45" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" s="5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="O45" s="4" t="n">
+        <v>-4</v>
+      </c>
+      <c r="P45" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="L45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N45" s="5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O45" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="P45" s="4" t="n">
-        <v>41</v>
-      </c>
       <c r="Q45" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T45" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T45" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>4602150004</t>
+          <t>4403020005</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>COLGADOR MANGUERA VERDE MAX 10KG CARGA</t>
+          <t>KIT SEMILLERO PLAST CON TAPA+ BANDEJA 24 HUECOS</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
       <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>5.45</v>
+        <v>5.04</v>
       </c>
       <c r="K46" s="4" t="n">
         <v>0</v>
@@ -17713,16 +17713,16 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="N46" s="5" t="n">
-        <v>5.9</v>
+        <v>1.5</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v>0</v>
@@ -17740,7 +17740,7 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
@@ -19323,17 +19323,17 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>4604050025</t>
+          <t>4602030010</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>VALVULA DE BOLA</t>
+          <t>ENLACE RAPIDO BIMATERIA STOP</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>1I2P</t>
+          <t>15MM</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -19355,13 +19355,13 @@
         <v>90</v>
       </c>
       <c r="H65" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65" s="4" t="n">
-        <v>11.97</v>
+        <v>10.47</v>
       </c>
       <c r="J65" s="4" t="n">
-        <v>4.95</v>
+        <v>3.7</v>
       </c>
       <c r="K65" s="4" t="n">
         <v>0</v>
@@ -19370,16 +19370,16 @@
         <v>0</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="N65" s="5" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="P65" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q65" s="4" t="n">
         <v>0</v>
@@ -19397,7 +19397,7 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
@@ -19414,17 +19414,17 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>4602030010</t>
+          <t>4604050025</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>ENLACE RAPIDO BIMATERIA STOP</t>
+          <t>VALVULA DE BOLA</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>15MM</t>
+          <t>1I2P</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -19446,13 +19446,13 @@
         <v>90</v>
       </c>
       <c r="H66" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>10.47</v>
+        <v>11.97</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>3.7</v>
+        <v>4.95</v>
       </c>
       <c r="K66" s="4" t="n">
         <v>0</v>
@@ -19461,16 +19461,16 @@
         <v>0</v>
       </c>
       <c r="M66" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N66" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="N66" s="5" t="n">
-        <v>4.4</v>
-      </c>
       <c r="O66" s="4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="P66" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q66" s="4" t="n">
         <v>0</v>
@@ -19488,7 +19488,7 @@
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
@@ -20626,7 +20626,7 @@
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T10</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -20672,7 +20672,7 @@
         <v>-2</v>
       </c>
       <c r="P80" s="4" t="n">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="Q80" s="4" t="n">
         <v>0</v>
@@ -20707,45 +20707,37 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>4501030001</t>
+          <t>4202010001</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>GUANTES JD PLANTACIONES</t>
-        </is>
-      </c>
-      <c r="C81" s="3" t="inlineStr">
-        <is>
-          <t>T10</t>
-        </is>
-      </c>
-      <c r="D81" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ARCO SIERRA CON HOJA TRONZ WOLFPACK</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr"/>
+      <c r="D81" s="3" t="inlineStr"/>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F81" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION PERSONAL</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G81" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H81" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" s="4" t="n">
-        <v>11.98</v>
+        <v>9.99</v>
       </c>
       <c r="J81" s="4" t="n">
-        <v>5.44</v>
+        <v>3.8</v>
       </c>
       <c r="K81" s="4" t="n">
         <v>0</v>
@@ -20754,16 +20746,16 @@
         <v>0</v>
       </c>
       <c r="M81" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N81" s="5" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P81" s="4" t="n">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="Q81" s="4" t="n">
         <v>0</v>
@@ -20781,7 +20773,7 @@
       </c>
       <c r="U81" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V81" s="4" t="inlineStr">
@@ -20798,55 +20790,63 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>4202010001</t>
+          <t>4501030001</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>ARCO SIERRA CON HOJA TRONZ WOLFPACK</t>
-        </is>
-      </c>
-      <c r="C82" s="3" t="inlineStr"/>
-      <c r="D82" s="3" t="inlineStr"/>
+          <t>GUANTES JD PLANTACIONES</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>T8</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>PROTECCION PERSONAL</t>
         </is>
       </c>
       <c r="G82" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H82" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I82" s="4" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="J82" s="4" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="K82" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I82" s="4" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="J82" s="4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K82" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N82" s="5" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P82" s="4" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="Q82" s="4" t="n">
         <v>0</v>
@@ -20864,7 +20864,7 @@
       </c>
       <c r="U82" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V82" s="4" t="inlineStr">
@@ -21834,12 +21834,12 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>4104010007</t>
+          <t>4104010008</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>ESCOBA METALICA KIDS GARDEN VERDE</t>
+          <t>ESCOBA METALICA KIDS GARDEN AZUL</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr"/>
@@ -21882,7 +21882,7 @@
         <v>-1</v>
       </c>
       <c r="P94" s="4" t="n">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="Q94" s="4" t="n">
         <v>0</v>
@@ -22000,12 +22000,12 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>4104010008</t>
+          <t>4104010007</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>ESCOBA METALICA KIDS GARDEN AZUL</t>
+          <t>ESCOBA METALICA KIDS GARDEN VERDE</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr"/>
@@ -22048,7 +22048,7 @@
         <v>-1</v>
       </c>
       <c r="P96" s="4" t="n">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="Q96" s="4" t="n">
         <v>0</v>
@@ -22174,24 +22174,16 @@
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>4603010011</t>
+          <t>4603020009</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>GOTERO REGULABLE SPIDER-R 0-60L/H</t>
-        </is>
-      </c>
-      <c r="C98" s="3" t="inlineStr">
-        <is>
-          <t>50UD</t>
-        </is>
-      </c>
-      <c r="D98" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ADAPTADOR HEMBRA 12-16 X1/2-3/4</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr"/>
+      <c r="D98" s="3" t="inlineStr"/>
       <c r="E98" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -22206,59 +22198,59 @@
         <v>90</v>
       </c>
       <c r="H98" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98" s="4" t="n">
-        <v>8.99</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="J98" s="4" t="n">
-        <v>3.68</v>
+        <v>3.17</v>
       </c>
       <c r="K98" s="4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L98" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M98" s="5" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="N98" s="5" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="O98" s="4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P98" s="4" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Q98" s="4" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="R98" s="4" t="n">
-        <v>88.89</v>
+        <v>28.89</v>
       </c>
       <c r="S98" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T98" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T98" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U98" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 214 días.</t>
         </is>
       </c>
       <c r="V98" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W98" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -22356,16 +22348,24 @@
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>4603020009</t>
+          <t>4603010011</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>ADAPTADOR HEMBRA 12-16 X1/2-3/4</t>
-        </is>
-      </c>
-      <c r="C100" s="3" t="inlineStr"/>
-      <c r="D100" s="3" t="inlineStr"/>
+          <t>GOTERO REGULABLE SPIDER-R 0-60L/H</t>
+        </is>
+      </c>
+      <c r="C100" s="3" t="inlineStr">
+        <is>
+          <t>50UD</t>
+        </is>
+      </c>
+      <c r="D100" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E100" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -22380,59 +22380,59 @@
         <v>90</v>
       </c>
       <c r="H100" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I100" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>8.99</v>
       </c>
       <c r="J100" s="4" t="n">
-        <v>3.17</v>
+        <v>3.68</v>
       </c>
       <c r="K100" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L100" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M100" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N100" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="N100" s="5" t="n">
-        <v>4.4</v>
-      </c>
       <c r="O100" s="4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P100" s="4" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q100" s="4" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="R100" s="4" t="n">
-        <v>28.89</v>
+        <v>88.89</v>
       </c>
       <c r="S100" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T100" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T100" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U100" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 214 días.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V100" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W100" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -22704,17 +22704,17 @@
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>4603020021</t>
+          <t>4604050016</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>TE 16 MM</t>
+          <t>TAPON FINAL</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>25UD</t>
+          <t>20MM</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
@@ -22736,37 +22736,37 @@
         <v>90</v>
       </c>
       <c r="H104" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I104" s="4" t="n">
-        <v>6.5</v>
+        <v>8.75</v>
       </c>
       <c r="J104" s="4" t="n">
-        <v>1.75</v>
+        <v>3.62</v>
       </c>
       <c r="K104" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L104" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M104" s="5" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="N104" s="5" t="n">
-        <v>1.5</v>
+        <v>7.3</v>
       </c>
       <c r="O104" s="4" t="n">
-        <v>9</v>
+        <v>-5</v>
       </c>
       <c r="P104" s="4" t="n">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="Q104" s="4" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R104" s="4" t="n">
-        <v>28.89</v>
+        <v>0</v>
       </c>
       <c r="S104" s="5" t="n">
         <v>0</v>
@@ -22778,17 +22778,17 @@
       </c>
       <c r="U104" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 828 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V104" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W104" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -22878,17 +22878,17 @@
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>4604050016</t>
+          <t>4603020021</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>TAPON FINAL</t>
+          <t>TE 16 MM</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>20MM</t>
+          <t>25UD</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
@@ -22910,37 +22910,37 @@
         <v>90</v>
       </c>
       <c r="H106" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I106" s="4" t="n">
-        <v>8.75</v>
+        <v>6.5</v>
       </c>
       <c r="J106" s="4" t="n">
-        <v>3.62</v>
+        <v>1.75</v>
       </c>
       <c r="K106" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L106" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M106" s="5" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="N106" s="5" t="n">
-        <v>7.3</v>
+        <v>1.5</v>
       </c>
       <c r="O106" s="4" t="n">
-        <v>-5</v>
+        <v>9</v>
       </c>
       <c r="P106" s="4" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="Q106" s="4" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R106" s="4" t="n">
-        <v>0</v>
+        <v>28.89</v>
       </c>
       <c r="S106" s="5" t="n">
         <v>0</v>
@@ -22952,17 +22952,17 @@
       </c>
       <c r="U106" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 828 días.</t>
         </is>
       </c>
       <c r="V106" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W106" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -24500,12 +24500,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>4603020012</t>
+          <t>4603010019</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>ADAPTADOR ROSCA MACHO 3/4</t>
+          <t>KIT GOTERO 4L/H 2 SALIDAS+2 MICROT</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -24524,13 +24524,13 @@
         <v>90</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.5</v>
+        <v>7.26</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>0</v>
@@ -24539,16 +24539,16 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>7.3</v>
+        <v>2.9</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>0</v>
@@ -24566,7 +24566,7 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -24583,107 +24583,107 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>4403040004</t>
+          <t>4603020012</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>MACETAS FIBRA DE MADERA REDONDAS 6CM 24UDS</t>
+          <t>ADAPTADOR ROSCA MACHO 3/4</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>6.94</v>
+        <v>7.5</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>2.64</v>
+        <v>3.1</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>2.9</v>
+        <v>7.3</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>18</v>
+        <v>-5</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T6" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T6" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>4603010019</t>
+          <t>4403040004</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>KIT GOTERO 4L/H 2 SALIDAS+2 MICROT</t>
+          <t>MACETAS FIBRA DE MADERA REDONDAS 6CM 24UDS</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -24693,13 +24693,13 @@
         <v>2</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>7.26</v>
+        <v>6.94</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>2.9</v>
+        <v>2.64</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0</v>
@@ -24711,38 +24711,38 @@
         <v>2.9</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T7" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -25097,12 +25097,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>4603010038</t>
+          <t>4603010005</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>KIT GOTERO 8L/H 4 SALIDAS+4 MICROT</t>
+          <t>GOTERO REGULABLE TORKE-R 0-6L/H 25UD</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -25124,13 +25124,13 @@
         <v>2</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>7.34</v>
+        <v>6.74</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>3.17</v>
+        <v>2.67</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L12" s="4" t="n">
         <v>0</v>
@@ -25142,50 +25142,50 @@
         <v>2.9</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T12" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>4603010005</t>
+          <t>4603010038</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>GOTERO REGULABLE TORKE-R 0-6L/H 25UD</t>
+          <t>KIT GOTERO 8L/H 4 SALIDAS+4 MICROT</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -25207,13 +25207,13 @@
         <v>2</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>6.74</v>
+        <v>7.34</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>2.67</v>
+        <v>3.17</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>0</v>
@@ -25225,38 +25225,38 @@
         <v>2.9</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T13" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T13" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -26647,63 +26647,55 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>4603010016</t>
+          <t>4404040003</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>GOTERO TURBULENTO 8 L/H</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>25UD</t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ETIQUETAS PICUDAS PLASTICO 12CM 25UDS</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr"/>
+      <c r="D30" s="3" t="inlineStr"/>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H30" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" s="4" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="J30" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I30" s="4" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="J30" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="K30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N30" s="5" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="Q30" s="4" t="n">
         <v>0</v>
@@ -26721,7 +26713,7 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
@@ -26738,37 +26730,45 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>4404040003</t>
+          <t>4603010016</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>ETIQUETAS PICUDAS PLASTICO 12CM 25UDS</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr"/>
-      <c r="D31" s="3" t="inlineStr"/>
+          <t>GOTERO TURBULENTO 8 L/H</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>25UD</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H31" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>5.98</v>
+        <v>5.37</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>2.54</v>
+        <v>2.04</v>
       </c>
       <c r="K31" s="4" t="n">
         <v>0</v>
@@ -26777,16 +26777,16 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N31" s="5" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="Q31" s="4" t="n">
         <v>0</v>
@@ -26804,7 +26804,7 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -27078,24 +27078,16 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>4403040001</t>
+          <t>4402040000</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>MACETA PP MARRON</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="D35" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PLUVIOMETRO (SOPORTE PLASTICO NO INCLUIDO)</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr"/>
+      <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="4" t="inlineStr">
         <is>
           <t>44</t>
@@ -27110,75 +27102,83 @@
         <v>90</v>
       </c>
       <c r="H35" s="4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>6.57</v>
+        <v>4.99</v>
       </c>
       <c r="J35" s="4" t="n">
-        <v>3.18</v>
+        <v>1.87</v>
       </c>
       <c r="K35" s="4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L35" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="N35" s="5" t="n">
-        <v>13.2</v>
+        <v>1.5</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T35" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -9 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>4402040000</t>
+          <t>4403040001</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>PLUVIOMETRO (SOPORTE PLASTICO NO INCLUIDO)</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr"/>
-      <c r="D36" s="3" t="inlineStr"/>
+          <t>MACETA PP MARRON</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
           <t>44</t>
@@ -27193,59 +27193,59 @@
         <v>90</v>
       </c>
       <c r="H36" s="4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>4.99</v>
+        <v>6.57</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>1.87</v>
+        <v>3.18</v>
       </c>
       <c r="K36" s="4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L36" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="N36" s="5" t="n">
-        <v>1.5</v>
+        <v>13.2</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>3</v>
+        <v>-9</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T36" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T36" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -9 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -27948,24 +27948,24 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>4301020002</t>
+          <t>4504010001</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR 2L JD</t>
+          <t>COJIN JARDINERO JD</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
       <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>PROTECCION PERSONAL</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
@@ -27996,7 +27996,7 @@
         <v>-1</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="Q45" s="4" t="n">
         <v>0</v>
@@ -28031,39 +28031,31 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>4604050023</t>
+          <t>4301020002</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>TERMINAL ROSCA MACHO</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr">
-        <is>
-          <t>25I3/4</t>
-        </is>
-      </c>
-      <c r="D46" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PULVERIZADOR 2L JD</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr"/>
+      <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46" s="4" t="n">
         <v>4.95</v>
@@ -28078,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N46" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="N46" s="5" t="n">
-        <v>4.4</v>
-      </c>
       <c r="O46" s="4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v>0</v>
@@ -28105,7 +28097,7 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
@@ -28296,31 +28288,39 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>4504010001</t>
+          <t>4604050023</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>COJIN JARDINERO JD</t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="inlineStr"/>
-      <c r="D49" s="3" t="inlineStr"/>
+          <t>TERMINAL ROSCA MACHO</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>25I3/4</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION PERSONAL</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I49" s="4" t="n">
         <v>4.95</v>
@@ -28335,16 +28335,16 @@
         <v>0</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="N49" s="5" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="Q49" s="4" t="n">
         <v>0</v>
@@ -28362,7 +28362,7 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
@@ -28826,17 +28826,17 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>4604060003</t>
+          <t>4603020017</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>RAIN BOBINA RECORTABLE PROLONGADOR</t>
+          <t>ENLACE 16MM</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>1I2P</t>
+          <t>25UD</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -28858,13 +28858,13 @@
         <v>90</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>4.69</v>
+        <v>3.99</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>1.99</v>
+        <v>1.41</v>
       </c>
       <c r="K55" s="4" t="n">
         <v>0</v>
@@ -28873,16 +28873,16 @@
         <v>0</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="N55" s="5" t="n">
-        <v>10.3</v>
+        <v>1.5</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Q55" s="4" t="n">
         <v>0</v>
@@ -28900,7 +28900,7 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -7 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
@@ -28917,17 +28917,17 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>4603020017</t>
+          <t>4604060003</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>ENLACE 16MM</t>
+          <t>RAIN BOBINA RECORTABLE PROLONGADOR</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>25UD</t>
+          <t>1I2P</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -28949,13 +28949,13 @@
         <v>90</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I56" s="4" t="n">
-        <v>3.99</v>
+        <v>4.69</v>
       </c>
       <c r="J56" s="4" t="n">
-        <v>1.41</v>
+        <v>1.99</v>
       </c>
       <c r="K56" s="4" t="n">
         <v>0</v>
@@ -28964,16 +28964,16 @@
         <v>0</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="N56" s="5" t="n">
-        <v>1.5</v>
+        <v>10.3</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="P56" s="4" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="Q56" s="4" t="n">
         <v>0</v>
@@ -28991,7 +28991,7 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -7 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
@@ -29356,32 +29356,24 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>4501030002</t>
+          <t>4602180012</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>GUANTES JD TRATAMIENTO TALLA 9</t>
-        </is>
-      </c>
-      <c r="C61" s="3" t="inlineStr">
-        <is>
-          <t>T8</t>
-        </is>
-      </c>
-      <c r="D61" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ENLACE RAPIDO BIMATERIA STOP MANGUERA HELIC</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr"/>
+      <c r="D61" s="3" t="inlineStr"/>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION PERSONAL</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G61" s="4" t="n">
@@ -29391,10 +29383,10 @@
         <v>1</v>
       </c>
       <c r="I61" s="4" t="n">
-        <v>3.99</v>
+        <v>3.49</v>
       </c>
       <c r="J61" s="4" t="n">
-        <v>1.65</v>
+        <v>1.23</v>
       </c>
       <c r="K61" s="4" t="n">
         <v>0</v>
@@ -29412,7 +29404,7 @@
         <v>-1</v>
       </c>
       <c r="P61" s="4" t="n">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="Q61" s="4" t="n">
         <v>0</v>
@@ -29447,12 +29439,12 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>4603010028</t>
+          <t>4602180012</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>MICRO 10 MAXI-JET 90°</t>
+          <t>ENLACE RAPIDO BIMATERIA STOP MANGUERA HELICOIDAL</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr"/>
@@ -29474,13 +29466,13 @@
         <v>1</v>
       </c>
       <c r="I62" s="4" t="n">
-        <v>3.99</v>
+        <v>3.49</v>
       </c>
       <c r="J62" s="4" t="n">
-        <v>1.65</v>
+        <v>1.23</v>
       </c>
       <c r="K62" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L62" s="4" t="n">
         <v>0</v>
@@ -29492,16 +29484,16 @@
         <v>1.5</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P62" s="4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R62" s="4" t="n">
-        <v>0</v>
+        <v>12.22</v>
       </c>
       <c r="S62" s="5" t="n">
         <v>0</v>
@@ -29513,29 +29505,29 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 828 días.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W62" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>4602180012</t>
+          <t>4603010028</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>ENLACE RAPIDO BIMATERIA STOP MANGUERA HELICOIDAL</t>
+          <t>MICRO 10 MAXI-JET 90°</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr"/>
@@ -29557,13 +29549,13 @@
         <v>1</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>3.49</v>
+        <v>3.99</v>
       </c>
       <c r="J63" s="4" t="n">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="K63" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L63" s="4" t="n">
         <v>0</v>
@@ -29575,16 +29567,16 @@
         <v>1.5</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P63" s="4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q63" s="4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R63" s="4" t="n">
-        <v>12.22</v>
+        <v>0</v>
       </c>
       <c r="S63" s="5" t="n">
         <v>0</v>
@@ -29596,41 +29588,49 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 828 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W63" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>4602180012</t>
+          <t>4501030002</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>ENLACE RAPIDO BIMATERIA STOP MANGUERA HELIC</t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="inlineStr"/>
-      <c r="D64" s="3" t="inlineStr"/>
+          <t>GUANTES JD TRATAMIENTO TALLA 9</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>T8</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION PERSONAL</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
@@ -29640,10 +29640,10 @@
         <v>1</v>
       </c>
       <c r="I64" s="4" t="n">
-        <v>3.49</v>
+        <v>3.99</v>
       </c>
       <c r="J64" s="4" t="n">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="K64" s="4" t="n">
         <v>0</v>
@@ -29661,7 +29661,7 @@
         <v>-1</v>
       </c>
       <c r="P64" s="4" t="n">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="Q64" s="4" t="n">
         <v>0</v>
@@ -31104,12 +31104,12 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>4603010013</t>
+          <t>4603010014</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>GOTERO REGULABLE INDUNDADOR 0-80L/H</t>
+          <t>GOTERO TURBULENTO 2L/H</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
@@ -31139,10 +31139,10 @@
         <v>1</v>
       </c>
       <c r="I81" s="4" t="n">
-        <v>3.23</v>
+        <v>3.19</v>
       </c>
       <c r="J81" s="4" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="K81" s="4" t="n">
         <v>0</v>
@@ -31160,7 +31160,7 @@
         <v>-1</v>
       </c>
       <c r="P81" s="4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Q81" s="4" t="n">
         <v>0</v>
@@ -31195,12 +31195,12 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>4603010014</t>
+          <t>4603010013</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>GOTERO TURBULENTO 2L/H</t>
+          <t>GOTERO REGULABLE INDUNDADOR 0-80L/H</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -31230,10 +31230,10 @@
         <v>1</v>
       </c>
       <c r="I82" s="4" t="n">
-        <v>3.19</v>
+        <v>3.23</v>
       </c>
       <c r="J82" s="4" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="K82" s="4" t="n">
         <v>0</v>
@@ -31251,7 +31251,7 @@
         <v>-1</v>
       </c>
       <c r="P82" s="4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q82" s="4" t="n">
         <v>0</v>
@@ -31460,24 +31460,16 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>4603010017</t>
+          <t>4603020001</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>GOTERO TURBULENTO BANDERA 4L/H</t>
-        </is>
-      </c>
-      <c r="C85" s="3" t="inlineStr">
-        <is>
-          <t>10UD</t>
-        </is>
-      </c>
-      <c r="D85" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>2 VALVULA 16MM</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr"/>
+      <c r="D85" s="3" t="inlineStr"/>
       <c r="E85" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -31516,7 +31508,7 @@
         <v>-1</v>
       </c>
       <c r="P85" s="4" t="n">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="Q85" s="4" t="n">
         <v>0</v>
@@ -31551,24 +31543,24 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>4603020001</t>
+          <t>4402010003</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>2 VALVULA 16MM</t>
+          <t>TERMOMETRO MADERA</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr"/>
       <c r="D86" s="3" t="inlineStr"/>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F86" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G86" s="4" t="n">
@@ -31578,13 +31570,13 @@
         <v>1</v>
       </c>
       <c r="I86" s="4" t="n">
-        <v>2.99</v>
+        <v>3.49</v>
       </c>
       <c r="J86" s="4" t="n">
-        <v>1.22</v>
+        <v>1.63</v>
       </c>
       <c r="K86" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L86" s="4" t="n">
         <v>0</v>
@@ -31596,62 +31588,70 @@
         <v>1.5</v>
       </c>
       <c r="O86" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P86" s="4" t="n">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="Q86" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R86" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S86" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T86" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T86" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U86" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V86" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W86" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>4402010003</t>
+          <t>4603010017</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>TERMOMETRO MADERA</t>
-        </is>
-      </c>
-      <c r="C87" s="3" t="inlineStr"/>
-      <c r="D87" s="3" t="inlineStr"/>
+          <t>GOTERO TURBULENTO BANDERA 4L/H</t>
+        </is>
+      </c>
+      <c r="C87" s="3" t="inlineStr">
+        <is>
+          <t>10UD</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F87" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G87" s="4" t="n">
@@ -31661,13 +31661,13 @@
         <v>1</v>
       </c>
       <c r="I87" s="4" t="n">
-        <v>3.49</v>
+        <v>2.99</v>
       </c>
       <c r="J87" s="4" t="n">
-        <v>1.63</v>
+        <v>1.22</v>
       </c>
       <c r="K87" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L87" s="4" t="n">
         <v>0</v>
@@ -31679,62 +31679,62 @@
         <v>1.5</v>
       </c>
       <c r="O87" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P87" s="4" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="Q87" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R87" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S87" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T87" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T87" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U87" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V87" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W87" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>4603030003</t>
+          <t>4103020001</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>TAPON FINAL AUTOMATICO 3/8 DRIP FRESH</t>
+          <t>HORCA AZUL JD</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr"/>
       <c r="D88" s="3" t="inlineStr"/>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G88" s="4" t="n">
@@ -31744,10 +31744,10 @@
         <v>1</v>
       </c>
       <c r="I88" s="4" t="n">
-        <v>4.75</v>
+        <v>2.95</v>
       </c>
       <c r="J88" s="4" t="n">
-        <v>2.71</v>
+        <v>1.22</v>
       </c>
       <c r="K88" s="4" t="n">
         <v>0</v>
@@ -31765,7 +31765,7 @@
         <v>-1</v>
       </c>
       <c r="P88" s="4" t="n">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="Q88" s="4" t="n">
         <v>0</v>
@@ -31800,166 +31800,166 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>4103020001</t>
+          <t>4403070000</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>HORCA AZUL JD</t>
+          <t>GRAPAS PARA TUTOR 15UD</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr"/>
       <c r="D89" s="3" t="inlineStr"/>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F89" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G89" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H89" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I89" s="4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J89" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K89" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="L89" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I89" s="4" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="J89" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="K89" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M89" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N89" s="5" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O89" s="4" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="P89" s="4" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q89" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R89" s="4" t="n">
-        <v>0</v>
+        <v>102.22</v>
       </c>
       <c r="S89" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T89" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T89" s="7" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U89" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V89" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W89" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>4403070000</t>
+          <t>4603030003</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>GRAPAS PARA TUTOR 15UD</t>
+          <t>TAPON FINAL AUTOMATICO 3/8 DRIP FRESH</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr"/>
       <c r="D90" s="3" t="inlineStr"/>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G90" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H90" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" s="4" t="n">
-        <v>3.9</v>
+        <v>4.75</v>
       </c>
       <c r="J90" s="4" t="n">
-        <v>2</v>
+        <v>2.71</v>
       </c>
       <c r="K90" s="4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L90" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M90" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N90" s="5" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O90" s="4" t="n">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="P90" s="4" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="Q90" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R90" s="4" t="n">
-        <v>102.22</v>
+        <v>0</v>
       </c>
       <c r="S90" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T90" s="7" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T90" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U90" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V90" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W90" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -34332,24 +34332,32 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>4301040003</t>
+          <t>4604050005</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR MATABI E1 ELECTRIC 1L</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr"/>
-      <c r="D2" s="3" t="inlineStr"/>
+          <t>CODO ROSCA HEMBRA</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>25I3/4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -34368,7 +34376,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -34377,19 +34385,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>88.89</v>
+        <v>28.89</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T2" s="9" t="inlineStr">
         <is>
@@ -34398,12 +34406,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -34415,24 +34423,32 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>4201060008</t>
+          <t>4604050006</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>CORTASETOS NATURECUT FSC 100%</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr"/>
+          <t>CODO ROSCA MACHO</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>20I1/2</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -34451,7 +34467,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -34460,19 +34476,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>98.89</v>
+        <v>28.89</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T3" s="9" t="inlineStr">
         <is>
@@ -34481,12 +34497,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -34498,32 +34514,24 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>4301020003</t>
+          <t>4602010001</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR MATABI BERRY</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>5L</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>LANZA REGULABLE CON ACOPLE</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -34542,7 +34550,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -34551,16 +34559,16 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>66.67</v>
+        <v>88.89</v>
       </c>
       <c r="S4" s="5" t="n">
         <v>10</v>
@@ -34577,7 +34585,7 @@
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -34589,24 +34597,24 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>4604060004</t>
+          <t>4105070001</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>ARQUETA CUADRADA 1 VALVULA</t>
+          <t>CINTA PARA INJERTAR PLANTAS (3CM) 100M</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -34625,7 +34633,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -34634,7 +34642,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
@@ -34672,24 +34680,16 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>4604050006</t>
+          <t>4603010004</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>CODO ROSCA MACHO</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>20I1/2</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>GOTERO REGULABLE SPECTRUM-R 0-80L/H C/ ESTACA 25UD</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr"/>
+      <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -34716,7 +34716,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -34725,16 +34725,16 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>28.89</v>
+        <v>12.22</v>
       </c>
       <c r="S6" s="5" t="n">
         <v>0</v>
@@ -34751,7 +34751,7 @@
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -34763,32 +34763,24 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>4602090006</t>
+          <t>4402010004</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>MANGUERA TRICOTADO NO TORSION X METRO</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>19MM</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERMOMETRO PARED INTERIOR EXTERIOR CHAPA METALICA</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -34807,7 +34799,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -34816,19 +34808,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>102.22</v>
+        <v>88.89</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T7" s="9" t="inlineStr">
         <is>
@@ -34837,12 +34829,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -34854,24 +34846,16 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>4603010024</t>
+          <t>4605010001</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>GOTERO AUTOCOMPENSADO AUTO-DRIP 4L/H</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>25UD</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PROGRAMADOR DE GRIFO AQUA CONTROL DISPLAY LCD</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -34898,7 +34882,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -34907,16 +34891,16 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>28.89</v>
+        <v>12.22</v>
       </c>
       <c r="S8" s="5" t="n">
         <v>0</v>
@@ -34933,7 +34917,7 @@
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -34945,24 +34929,16 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>4605010014</t>
+          <t>4602100001</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>PROGRAMADOR RAIN BIRD WPX 9V</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>T4</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>MANGUERA LATFLEX REFORZADO 19MM  X METRO</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr"/>
+      <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -34989,7 +34965,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -34998,7 +34974,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
@@ -35019,7 +34995,7 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 82.28€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
@@ -35036,24 +35012,24 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>4105060005</t>
+          <t>4602130001</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>CARRETILLA OBRA METALICA AMARILLA</t>
+          <t>SET DE MANGUERA FLEX 20M DIAMETRO 15MM</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -35072,7 +35048,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -35081,19 +35057,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>102.22</v>
+        <v>98.89</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T10" s="9" t="inlineStr">
         <is>
@@ -35102,12 +35078,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -35119,12 +35095,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>4101140003</t>
+          <t>4105040029</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>RASTRILLO JARDIN REGULABLE MARIPOSA CON MANGO</t>
+          <t>MANGO MADERA ESPATULA SOLADOR 1500X25MM (NO VENTA)</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -35155,7 +35131,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -35164,7 +35140,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
@@ -35185,7 +35161,7 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
@@ -35202,24 +35178,24 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>4602010001</t>
+          <t>4201020006</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>LANZA REGULABLE CON ACOPLE</t>
+          <t>CORTARRAMAS EASYCUT</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
       <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -35238,7 +35214,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -35247,16 +35223,16 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>88.89</v>
+        <v>98.89</v>
       </c>
       <c r="S12" s="5" t="n">
         <v>10</v>
@@ -35273,7 +35249,7 @@
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -35285,24 +35261,16 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>4602160004</t>
+          <t>4603020005</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>PORTAMANGUERA AUTOMATICO ROLLUP</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ENLACE 4UD 16-12MM</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr"/>
+      <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -35329,7 +35297,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -35338,19 +35306,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>98.89</v>
+        <v>28.89</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T13" s="9" t="inlineStr">
         <is>
@@ -35359,12 +35327,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -35376,16 +35344,24 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>4602180016</t>
+          <t>4602090002</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>MANGUITO RED 1X3/4" CONT</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr"/>
-      <c r="D14" s="3" t="inlineStr"/>
+          <t>MANGUERA CLASSIC 20M</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>15MM</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -35412,7 +35388,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -35421,19 +35397,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>12.22</v>
+        <v>98.89</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T14" s="9" t="inlineStr">
         <is>
@@ -35442,12 +35418,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -35459,24 +35435,24 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>4603020005</t>
+          <t>4301040003</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ENLACE 4UD 16-12MM</t>
+          <t>PULVERIZADOR MATABI E1 ELECTRIC 1L</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -35495,7 +35471,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -35504,19 +35480,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>28.89</v>
+        <v>88.89</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T15" s="9" t="inlineStr">
         <is>
@@ -35525,12 +35501,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -35542,24 +35518,32 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>4603010038</t>
+          <t>4105060006</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>KIT GOTERO 8L/H 4 SALIDAS+4 MICROT 50CM+4PIQUETAS</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr"/>
-      <c r="D16" s="3" t="inlineStr"/>
+          <t>CUBO JARDIN ANTRACITA</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>90L</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -35578,7 +35562,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -35587,16 +35571,16 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>12.22</v>
+        <v>58.89</v>
       </c>
       <c r="S16" s="5" t="n">
         <v>0</v>
@@ -35613,7 +35597,7 @@
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -35625,32 +35609,24 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>4101170006</t>
+          <t>4301010009</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>MANGO MADERA AZADA</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>900X32</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PULVERIZADOR 0,6L ECLOZ</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr"/>
+      <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -35669,7 +35645,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -35678,16 +35654,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>68.89</v>
+        <v>88.89</v>
       </c>
       <c r="S17" s="5" t="n">
         <v>10</v>
@@ -35704,7 +35680,7 @@
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/03/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -35716,24 +35692,32 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>4401060003</t>
+          <t>4602160004</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>TREEGUARD 0,2X0,5M</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr"/>
-      <c r="D18" s="3" t="inlineStr"/>
+          <t>PORTAMANGUERA AUTOMATICO ROLLUP</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -35752,7 +35736,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -35761,19 +35745,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>102.22</v>
+        <v>98.89</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T18" s="9" t="inlineStr">
         <is>
@@ -35782,12 +35766,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -35799,24 +35783,24 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>4604060001</t>
+          <t>4201060008</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ARQUETA CIRCULAR 2 VALVULA</t>
+          <t>CORTASETOS NATURECUT FSC 100%</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -35835,7 +35819,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -35844,16 +35828,16 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>88.89</v>
+        <v>98.89</v>
       </c>
       <c r="S19" s="5" t="n">
         <v>10</v>
@@ -35870,7 +35854,7 @@
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -35882,24 +35866,16 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>4604050005</t>
+          <t>4602180009</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>CODO ROSCA HEMBRA</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>25I3/4</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DISTRIBUIDOR CUADRUPLE</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr"/>
+      <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -35926,7 +35902,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -35935,19 +35911,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>28.89</v>
+        <v>98.89</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T20" s="9" t="inlineStr">
         <is>
@@ -35956,12 +35932,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -35973,24 +35949,24 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>4106010021</t>
+          <t>4403040002</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>CEPILLO RAICES 5X10 (NO VENTA)</t>
+          <t>SET 15 MACETAS PP MARRON 9X6,8CM</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
       <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -36009,7 +35985,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -36018,19 +35994,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>102.22</v>
+        <v>12.22</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T21" s="9" t="inlineStr">
         <is>
@@ -36039,12 +36015,12 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -36056,24 +36032,24 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>4402010002</t>
+          <t>4101140003</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>TERMOMETRO PARED BLANCO</t>
+          <t>RASTRILLO JARDIN REGULABLE MARIPOSA CON MANGO</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -36092,7 +36068,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -36101,19 +36077,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>88.89</v>
+        <v>102.22</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T22" s="9" t="inlineStr">
         <is>
@@ -36122,12 +36098,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -36139,24 +36115,24 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>4301020004</t>
+          <t>4104010020</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR MATABI EVOLUTION 12</t>
+          <t>ESCOBA CESPED JUNIOR</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
       <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -36175,7 +36151,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -36184,19 +36160,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>88.89</v>
+        <v>102.22</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T23" s="9" t="inlineStr">
         <is>
@@ -36205,12 +36181,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.39€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -36222,16 +36198,24 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>4603010004</t>
+          <t>4605010014</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>GOTERO REGULABLE SPECTRUM-R 0-80L/H C/ ESTACA 25UD</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr"/>
-      <c r="D24" s="3" t="inlineStr"/>
+          <t>PROGRAMADOR RAIN BIRD WPX 9V</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -36258,7 +36242,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -36267,19 +36251,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>12.22</v>
+        <v>102.22</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T24" s="9" t="inlineStr">
         <is>
@@ -36288,12 +36272,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 82.28€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -36305,24 +36289,32 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>4203010005</t>
+          <t>4301020003</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>HUERTO ELEVADO PAPRIKA 80X40X87CM 50L</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr"/>
-      <c r="D25" s="3" t="inlineStr"/>
+          <t>PULVERIZADOR MATABI BERRY</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>3I5L</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -36341,7 +36333,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -36350,16 +36342,16 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>96.67</v>
+        <v>88.89</v>
       </c>
       <c r="S25" s="5" t="n">
         <v>10</v>
@@ -36376,7 +36368,7 @@
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/03/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -36388,24 +36380,24 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>4301010009</t>
+          <t>4106010020</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR 0,6L ECLOZ</t>
+          <t>CEPILLO BARREND IND FIBRA RIG PP 50CM (NO VENTA)</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
       <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -36424,7 +36416,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -36433,19 +36425,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>88.89</v>
+        <v>102.22</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T26" s="9" t="inlineStr">
         <is>
@@ -36454,12 +36446,12 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -36471,12 +36463,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>4605010001</t>
+          <t>4603010038</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>PROGRAMADOR DE GRIFO AQUA CONTROL DISPLAY LCD</t>
+          <t>KIT GOTERO 8L/H 4 SALIDAS+4 MICROT 50CM+4PIQUETAS</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -36507,7 +36499,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -36516,7 +36508,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>92</v>
@@ -36554,24 +36546,24 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>4403040002</t>
+          <t>4604060001</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>SET 15 MACETAS PP MARRON 9X6,8CM</t>
+          <t>ARQUETA CIRCULAR 2 VALVULA</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
       <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
@@ -36590,7 +36582,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -36599,19 +36591,19 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>12.22</v>
+        <v>88.89</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T28" s="9" t="inlineStr">
         <is>
@@ -36620,12 +36612,12 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
@@ -36637,32 +36629,24 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>4301020003</t>
+          <t>4106010010</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR MATABI BERRY</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>3I5L</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CEPILLO BARRENDERO PP F PROEX SIN MANGO (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr"/>
+      <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
@@ -36681,7 +36665,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>0</v>
@@ -36690,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>88.89</v>
+        <v>102.22</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T29" s="9" t="inlineStr">
         <is>
@@ -36711,12 +36695,12 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 27.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
@@ -36728,24 +36712,32 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>4201020006</t>
+          <t>4301020003</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>CORTARRAMAS EASYCUT</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr"/>
-      <c r="D30" s="3" t="inlineStr"/>
+          <t>PULVERIZADOR MATABI BERRY</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>5L</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
@@ -36779,10 +36771,10 @@
         <v>92</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>98.89</v>
+        <v>66.67</v>
       </c>
       <c r="S30" s="5" t="n">
         <v>10</v>
@@ -36799,7 +36791,7 @@
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
@@ -36894,24 +36886,32 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>4602180009</t>
+          <t>4101170006</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>DISTRIBUIDOR CUADRUPLE</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr"/>
-      <c r="D32" s="3" t="inlineStr"/>
+          <t>MANGO MADERA AZADA</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>900X32</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
@@ -36930,7 +36930,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>0</v>
@@ -36939,16 +36939,16 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>98.89</v>
+        <v>68.89</v>
       </c>
       <c r="S32" s="5" t="n">
         <v>10</v>
@@ -36965,7 +36965,7 @@
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 30/03/2025</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -36977,24 +36977,24 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>4105070001</t>
+          <t>4401060003</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>CINTA PARA INJERTAR PLANTAS (3CM) 100M</t>
+          <t>TREEGUARD 0,2X0,5M</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
       <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
@@ -37013,7 +37013,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>0</v>
@@ -37022,19 +37022,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>12.22</v>
+        <v>102.22</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T33" s="9" t="inlineStr">
         <is>
@@ -37043,12 +37043,12 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -37060,12 +37060,12 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>4602100001</t>
+          <t>4602180016</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>MANGUERA LATFLEX REFORZADO 19MM  X METRO</t>
+          <t>MANGUITO RED 1X3/4" CONT</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -37096,7 +37096,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>0</v>
@@ -37105,19 +37105,19 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>102.22</v>
+        <v>12.22</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T34" s="9" t="inlineStr">
         <is>
@@ -37126,12 +37126,12 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -37143,12 +37143,12 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>4105040029</t>
+          <t>4105060005</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>MANGO MADERA ESPATULA SOLADOR 1500X25MM (NO VENTA)</t>
+          <t>CARRETILLA OBRA METALICA AMARILLA</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -37179,7 +37179,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M35" s="5" t="n">
         <v>0</v>
@@ -37188,7 +37188,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>92</v>
@@ -37209,7 +37209,7 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
@@ -37226,12 +37226,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>4106010010</t>
+          <t>4106010022</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>CEPILLO BARRENDERO PP F PROEX SIN MANGO (NO VENTA)</t>
+          <t>MANGO MADERA ROSCA 1150X22MM CEP RAICES (NO VENTA)</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -37292,7 +37292,7 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 27.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
@@ -37309,12 +37309,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>4105040028</t>
+          <t>4106010021</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>ESPATULA SOLADOR 55CM (NO VENTA)</t>
+          <t>CEPILLO RAICES 5X10 (NO VENTA)</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -37375,7 +37375,7 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.83€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
@@ -37392,17 +37392,17 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>4602090002</t>
+          <t>4602090006</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>MANGUERA CLASSIC 20M</t>
+          <t>MANGUERA TRICOTADO NO TORSION X METRO</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>15MM</t>
+          <t>19MM</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -37436,7 +37436,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>0</v>
@@ -37445,19 +37445,19 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>98.89</v>
+        <v>102.22</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T38" s="9" t="inlineStr">
         <is>
@@ -37466,12 +37466,12 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
@@ -37483,24 +37483,16 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>4105060006</t>
+          <t>4105040028</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>CUBO JARDIN ANTRACITA</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>90L</t>
-        </is>
-      </c>
-      <c r="D39" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ESPATULA SOLADOR 55CM (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr"/>
+      <c r="D39" s="3" t="inlineStr"/>
       <c r="E39" s="4" t="inlineStr">
         <is>
           <t>41</t>
@@ -37542,13 +37534,13 @@
         <v>92</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>58.89</v>
+        <v>102.22</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T39" s="9" t="inlineStr">
         <is>
@@ -37557,12 +37549,12 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.83€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
@@ -37657,24 +37649,32 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>4402010004</t>
+          <t>4602090004</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>TERMOMETRO PARED INTERIOR EXTERIOR CHAPA METALICA</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="inlineStr"/>
-      <c r="D41" s="3" t="inlineStr"/>
+          <t>MANGUERA FLEX 25M</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>15MM</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
@@ -37693,7 +37693,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M41" s="5" t="n">
         <v>0</v>
@@ -37702,16 +37702,16 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>88.89</v>
+        <v>98.89</v>
       </c>
       <c r="S41" s="5" t="n">
         <v>10</v>
@@ -37728,7 +37728,7 @@
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
@@ -37740,16 +37740,24 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>4602130001</t>
+          <t>4603010024</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>SET DE MANGUERA FLEX 20M DIAMETRO 15MM</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr"/>
-      <c r="D42" s="3" t="inlineStr"/>
+          <t>GOTERO AUTOCOMPENSADO AUTO-DRIP 4L/H</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>25UD</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -37776,7 +37784,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>0</v>
@@ -37785,19 +37793,19 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>98.89</v>
+        <v>28.89</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T42" s="9" t="inlineStr">
         <is>
@@ -37806,12 +37814,12 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -37823,32 +37831,24 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>4603010008</t>
+          <t>4402010002</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>GOTERO AUTOCOMPENSADO AUTO-MAT 2L/H</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>10UD</t>
-        </is>
-      </c>
-      <c r="D43" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERMOMETRO PARED BLANCO</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr"/>
+      <c r="D43" s="3" t="inlineStr"/>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
@@ -37914,17 +37914,17 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>4602090004</t>
+          <t>4605010014</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>MANGUERA FLEX 25M</t>
+          <t>PROGRAMADOR RAIN BIRD WPX 9V</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>15MM</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -37958,7 +37958,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M44" s="5" t="n">
         <v>0</v>
@@ -37967,19 +37967,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>98.89</v>
+        <v>17.78</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T44" s="9" t="inlineStr">
         <is>
@@ -37988,12 +37988,12 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
@@ -38005,24 +38005,32 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>4106010020</t>
+          <t>4603010008</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>CEPILLO BARREND IND FIBRA RIG PP 50CM (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr"/>
-      <c r="D45" s="3" t="inlineStr"/>
+          <t>GOTERO AUTOCOMPENSADO AUTO-MAT 2L/H</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>10UD</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
@@ -38041,7 +38049,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M45" s="5" t="n">
         <v>0</v>
@@ -38050,19 +38058,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>102.22</v>
+        <v>88.89</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T45" s="9" t="inlineStr">
         <is>
@@ -38071,12 +38079,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -38088,32 +38096,24 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>4605010014</t>
+          <t>4403020010</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>PROGRAMADOR RAIN BIRD WPX 9V</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="D46" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>KIT SEMILLERO FIBRA CON TAPA+BANDEJA 24HUECOS 4X4</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr"/>
+      <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
@@ -38132,7 +38132,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M46" s="5" t="n">
         <v>0</v>
@@ -38141,16 +38141,16 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>17.78</v>
+        <v>12.22</v>
       </c>
       <c r="S46" s="5" t="n">
         <v>0</v>
@@ -38167,7 +38167,7 @@
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
@@ -38179,24 +38179,24 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>4106010022</t>
+          <t>4203010005</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>MANGO MADERA ROSCA 1150X22MM CEP RAICES (NO VENTA)</t>
+          <t>HUERTO ELEVADO PAPRIKA 80X40X87CM 50L</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
       <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
@@ -38230,13 +38230,13 @@
         <v>92</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>102.22</v>
+        <v>96.67</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T47" s="9" t="inlineStr">
         <is>
@@ -38245,12 +38245,12 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 05/03/2025</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
@@ -38262,24 +38262,24 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>4104010020</t>
+          <t>4604060004</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>ESCOBA CESPED JUNIOR</t>
+          <t>ARQUETA CUADRADA 1 VALVULA</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
       <c r="D48" s="3" t="inlineStr"/>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -38298,7 +38298,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M48" s="5" t="n">
         <v>0</v>
@@ -38307,19 +38307,19 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>102.22</v>
+        <v>12.22</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T48" s="9" t="inlineStr">
         <is>
@@ -38328,12 +38328,12 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.39€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
@@ -38345,24 +38345,24 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>4403020010</t>
+          <t>4301020004</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>KIT SEMILLERO FIBRA CON TAPA+BANDEJA 24HUECOS 4X4</t>
+          <t>PULVERIZADOR MATABI EVOLUTION 12</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
       <c r="D49" s="3" t="inlineStr"/>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
@@ -38381,7 +38381,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M49" s="5" t="n">
         <v>0</v>
@@ -38390,19 +38390,19 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>12.22</v>
+        <v>88.89</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T49" s="9" t="inlineStr">
         <is>
@@ -38411,12 +38411,12 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_UTILES_JARDIN_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_UTILES_JARDIN_P2_2025.xlsx
@@ -3138,12 +3138,12 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>4601010004</t>
+          <t>4601010005</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>REGADERA MONDEGO ANTRACITA</t>
+          <t>REGADERA MONDEGO VERDE SECO</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -3194,7 +3194,7 @@
         <v>-7</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q31" s="4" t="n">
         <v>0</v>
@@ -3229,12 +3229,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>4601010005</t>
+          <t>4601010004</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>REGADERA MONDEGO VERDE SECO</t>
+          <t>REGADERA MONDEGO ANTRACITA</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -3285,7 +3285,7 @@
         <v>-7</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q32" s="4" t="n">
         <v>0</v>
@@ -5135,166 +5135,166 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>4106010012</t>
+          <t>4603050019</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>ESCOBA JARDIN PUAS PLANAS MANGO MADERA 1,2M</t>
+          <t>PACK 6 CONOS RIEGO REGULABLES PARA BOTELLA</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
       <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>39</v>
+        <v>47.94</v>
       </c>
       <c r="J54" s="4" t="n">
-        <v>12.79</v>
+        <v>20.18</v>
       </c>
       <c r="K54" s="4" t="n">
-        <v>30.77</v>
+        <v>50</v>
       </c>
       <c r="L54" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="N54" s="5" t="n">
-        <v>5.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>102.22</v>
+        <v>88.89</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T54" s="7" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T54" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>4603050019</t>
+          <t>4106010012</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>PACK 6 CONOS RIEGO REGULABLES PARA BOTELLA</t>
+          <t>ESCOBA JARDIN PUAS PLANAS MANGO MADERA 1,2M</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
       <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>47.94</v>
+        <v>39</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>20.18</v>
+        <v>12.79</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>50</v>
+        <v>30.77</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="N55" s="5" t="n">
-        <v>8.800000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>88.89</v>
+        <v>102.22</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T55" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T55" s="7" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6246,12 +6246,12 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>4101140006</t>
+          <t>4101090010</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>RASTRILLO RECTO 14 DIENTES</t>
+          <t>AZADA NANTERRE 14CM MANGO MADERA IV</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr"/>
@@ -6294,7 +6294,7 @@
         <v>-2</v>
       </c>
       <c r="P67" s="4" t="n">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="Q67" s="4" t="n">
         <v>0</v>
@@ -6329,12 +6329,12 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>4101090010</t>
+          <t>4101140006</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>AZADA NANTERRE 14CM MANGO MADERA IV</t>
+          <t>RASTRILLO RECTO 14 DIENTES</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr"/>
@@ -6377,7 +6377,7 @@
         <v>-2</v>
       </c>
       <c r="P68" s="4" t="n">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q68" s="4" t="n">
         <v>0</v>
@@ -9263,166 +9263,166 @@
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>4301010008</t>
+          <t>4403020010</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR ROJO 1L ECLOZ</t>
+          <t>KIT SEMILLERO TUBA CON TAPA+ BANDEJA 24 HUECOS</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr"/>
       <c r="D102" s="3" t="inlineStr"/>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F102" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G102" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H102" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I102" s="4" t="n">
-        <v>29.95</v>
+        <v>47.8</v>
       </c>
       <c r="J102" s="4" t="n">
-        <v>12.55</v>
+        <v>27.3</v>
       </c>
       <c r="K102" s="4" t="n">
-        <v>20.83</v>
+        <v>0</v>
       </c>
       <c r="L102" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M102" s="5" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="N102" s="5" t="n">
-        <v>7.3</v>
+        <v>5.9</v>
       </c>
       <c r="O102" s="4" t="n">
-        <v>19</v>
+        <v>-4</v>
       </c>
       <c r="P102" s="4" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="Q102" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R102" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S102" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T102" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T102" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U102" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V102" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W102" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>4403020010</t>
+          <t>4301010008</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>KIT SEMILLERO TUBA CON TAPA+ BANDEJA 24 HUECOS</t>
+          <t>PULVERIZADOR ROJO 1L ECLOZ</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr"/>
       <c r="D103" s="3" t="inlineStr"/>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F103" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G103" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H103" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I103" s="4" t="n">
-        <v>47.8</v>
+        <v>29.95</v>
       </c>
       <c r="J103" s="4" t="n">
-        <v>27.3</v>
+        <v>12.55</v>
       </c>
       <c r="K103" s="4" t="n">
-        <v>0</v>
+        <v>20.83</v>
       </c>
       <c r="L103" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M103" s="5" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N103" s="5" t="n">
-        <v>5.9</v>
+        <v>7.3</v>
       </c>
       <c r="O103" s="4" t="n">
-        <v>-4</v>
+        <v>19</v>
       </c>
       <c r="P103" s="4" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="Q103" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R103" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S103" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T103" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T103" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U103" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V103" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W103" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -9512,24 +9512,32 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>4201010010</t>
+          <t>4401060001</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>TIJERA VENDIMIA 1 MANO RECTA P10/18CM</t>
-        </is>
-      </c>
-      <c r="C105" s="3" t="inlineStr"/>
-      <c r="D105" s="3" t="inlineStr"/>
+          <t>BIRDNET</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr">
+        <is>
+          <t>2X5</t>
+        </is>
+      </c>
+      <c r="D105" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F105" s="4" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G105" s="4" t="n">
@@ -9539,13 +9547,13 @@
         <v>4</v>
       </c>
       <c r="I105" s="4" t="n">
-        <v>27.8</v>
+        <v>27.48</v>
       </c>
       <c r="J105" s="4" t="n">
-        <v>11.06</v>
+        <v>10.79</v>
       </c>
       <c r="K105" s="4" t="n">
-        <v>0</v>
+        <v>22.22</v>
       </c>
       <c r="L105" s="4" t="n">
         <v>0</v>
@@ -9557,70 +9565,62 @@
         <v>5.9</v>
       </c>
       <c r="O105" s="4" t="n">
-        <v>-4</v>
+        <v>14</v>
       </c>
       <c r="P105" s="4" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q105" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R105" s="4" t="n">
-        <v>0</v>
+        <v>102.22</v>
       </c>
       <c r="S105" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T105" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T105" s="7" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U105" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V105" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W105" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>4401060001</t>
+          <t>4201010010</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>BIRDNET</t>
-        </is>
-      </c>
-      <c r="C106" s="3" t="inlineStr">
-        <is>
-          <t>2X5</t>
-        </is>
-      </c>
-      <c r="D106" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TIJERA VENDIMIA 1 MANO RECTA P10/18CM</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr"/>
+      <c r="D106" s="3" t="inlineStr"/>
       <c r="E106" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F106" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G106" s="4" t="n">
@@ -9630,13 +9630,13 @@
         <v>4</v>
       </c>
       <c r="I106" s="4" t="n">
-        <v>27.48</v>
+        <v>27.8</v>
       </c>
       <c r="J106" s="4" t="n">
-        <v>10.79</v>
+        <v>11.06</v>
       </c>
       <c r="K106" s="4" t="n">
-        <v>22.22</v>
+        <v>0</v>
       </c>
       <c r="L106" s="4" t="n">
         <v>0</v>
@@ -9648,69 +9648,69 @@
         <v>5.9</v>
       </c>
       <c r="O106" s="4" t="n">
-        <v>14</v>
+        <v>-4</v>
       </c>
       <c r="P106" s="4" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q106" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R106" s="4" t="n">
-        <v>102.22</v>
+        <v>0</v>
       </c>
       <c r="S106" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T106" s="7" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T106" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U106" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V106" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W106" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>4301010006</t>
+          <t>4105040031</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR 7 JD 5L</t>
+          <t>ESPATULA SOLADOR 55CM + MANGO 1500X25MM (*)</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr"/>
       <c r="D107" s="3" t="inlineStr"/>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F107" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G107" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H107" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" s="4" t="n">
         <v>27.9</v>
@@ -9725,16 +9725,16 @@
         <v>0</v>
       </c>
       <c r="M107" s="5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N107" s="5" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O107" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P107" s="4" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Q107" s="4" t="n">
         <v>0</v>
@@ -9752,7 +9752,7 @@
       </c>
       <c r="U107" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V107" s="4" t="inlineStr">
@@ -9769,31 +9769,31 @@
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>4105040031</t>
+          <t>4301010006</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>ESPATULA SOLADOR 55CM + MANGO 1500X25MM (*)</t>
+          <t>PULVERIZADOR 7 JD 5L</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr"/>
       <c r="D108" s="3" t="inlineStr"/>
       <c r="E108" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F108" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G108" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H108" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" s="4" t="n">
         <v>27.9</v>
@@ -9808,17 +9808,17 @@
         <v>0</v>
       </c>
       <c r="M108" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N108" s="5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O108" s="4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P108" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N108" s="5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O108" s="4" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P108" s="4" t="n">
-        <v>16</v>
-      </c>
       <c r="Q108" s="4" t="n">
         <v>0</v>
       </c>
@@ -9835,7 +9835,7 @@
       </c>
       <c r="U108" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V108" s="4" t="inlineStr">
@@ -10550,7 +10550,7 @@
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>T43</t>
+          <t>T39</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -10596,7 +10596,7 @@
         <v>-1</v>
       </c>
       <c r="P117" s="4" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q117" s="4" t="n">
         <v>0</v>
@@ -10641,7 +10641,7 @@
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>T39</t>
+          <t>T43</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
@@ -10687,7 +10687,7 @@
         <v>-1</v>
       </c>
       <c r="P118" s="4" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q118" s="4" t="n">
         <v>0</v>
@@ -13953,55 +13953,63 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>4105090006</t>
+          <t>4501020001</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>PINCEL BL 5GR</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr"/>
+          <t>GUANTES JD BALCONES Y TERRAZAS</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>T8</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PROTECCION PERSONAL</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H3" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I3" s="4" t="n">
-        <v>18.98</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N3" s="5" t="n">
-        <v>2.9</v>
+        <v>5.9</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>0</v>
@@ -14019,7 +14027,7 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
@@ -14036,45 +14044,37 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>4501020001</t>
+          <t>4105090006</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>GUANTES JD BALCONES Y TERRAZAS</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>T8</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PINCEL BL 5GR</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION PERSONAL</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>15.46</v>
+        <v>18.98</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.94</v>
+        <v>7.84</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>0</v>
@@ -14083,16 +14083,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>5.9</v>
+        <v>2.9</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>0</v>
@@ -14110,7 +14110,7 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
@@ -15511,24 +15511,16 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>4603020007</t>
+          <t>4603010030</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>ADAPTADOR GRIFO ROSCA HEMBRA</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>3I4M1</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>MICRO 3 VARI-JET 180°</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
+      <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -15543,13 +15535,13 @@
         <v>90</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>16.14</v>
+        <v>16.35</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>6.44</v>
+        <v>6.61</v>
       </c>
       <c r="K21" s="4" t="n">
         <v>0</v>
@@ -15558,16 +15550,16 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>8.800000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>0</v>
@@ -15585,7 +15577,7 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -15602,16 +15594,24 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>4603010030</t>
+          <t>4603020007</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>MICRO 3 VARI-JET 180°</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr"/>
-      <c r="D22" s="3" t="inlineStr"/>
+          <t>ADAPTADOR GRIFO ROSCA HEMBRA</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>3I4M1</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -15626,13 +15626,13 @@
         <v>90</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>16.35</v>
+        <v>16.14</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>6.61</v>
+        <v>6.44</v>
       </c>
       <c r="K22" s="4" t="n">
         <v>0</v>
@@ -15641,16 +15641,16 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>7.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>0</v>
@@ -15668,7 +15668,7 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
@@ -15778,7 +15778,7 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>T8I10</t>
+          <t>T6I8</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -15824,7 +15824,7 @@
         <v>-3</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>0</v>
@@ -15869,7 +15869,7 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>T6I8</t>
+          <t>T8I10</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -15915,7 +15915,7 @@
         <v>-3</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>0</v>
@@ -16033,61 +16033,69 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>4201010004</t>
+          <t>4105080012</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>TIJERA DE CORTE DE HOJA CLASIC</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr"/>
-      <c r="D27" s="3" t="inlineStr"/>
+          <t>PLATO RECTANGULAR BONSAI COLORES</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>20CM</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H27" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" s="4" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="J27" s="4" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="K27" s="4" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="L27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I27" s="4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J27" s="4" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="K27" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N27" s="5" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>0</v>
+        <v>44.44</v>
       </c>
       <c r="S27" s="5" t="n">
         <v>0</v>
@@ -16099,86 +16107,78 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 184 días.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 21/04/2025</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>4105080012</t>
+          <t>4201010004</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>PLATO RECTANGULAR BONSAI COLORES</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>20CM</t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TIJERA DE CORTE DE HOJA CLASIC</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr"/>
+      <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>13.98</v>
+        <v>16.5</v>
       </c>
       <c r="J28" s="4" t="n">
-        <v>4.73</v>
+        <v>6.82</v>
       </c>
       <c r="K28" s="4" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="P28" s="4" t="n">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>44.44</v>
+        <v>0</v>
       </c>
       <c r="S28" s="5" t="n">
         <v>0</v>
@@ -16190,17 +16190,17 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 184 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Compra 21/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -16472,17 +16472,17 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>4603020021</t>
+          <t>4603030002</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>TE 16 MM</t>
+          <t>TAPON 16MM</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>10UD</t>
+          <t>25UD</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -16504,31 +16504,31 @@
         <v>90</v>
       </c>
       <c r="H32" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>13.6</v>
+        <v>10.47</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>4.64</v>
+        <v>2.05</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N32" s="5" t="n">
-        <v>5.9</v>
+        <v>4.4</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q32" s="4" t="n">
         <v>26</v>
@@ -16546,7 +16546,7 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 138 días.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 214 días.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
@@ -16563,17 +16563,17 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>4105080002</t>
+          <t>4603020021</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>HILO DE ALUMINIO 100 GR</t>
+          <t>TE 16 MM</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>3I5MM</t>
+          <t>10UD</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -16583,49 +16583,49 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H33" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I33" s="4" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="J33" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K33" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="L33" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I33" s="4" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J33" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="K33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N33" s="5" t="n">
-        <v>2.9</v>
+        <v>5.9</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>0</v>
+        <v>28.89</v>
       </c>
       <c r="S33" s="5" t="n">
         <v>0</v>
@@ -16637,34 +16637,34 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 138 días.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>4603030002</t>
+          <t>4105080002</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>TAPON 16MM</t>
+          <t>HILO DE ALUMINIO 100 GR</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>25UD</t>
+          <t>3I5MM</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -16674,49 +16674,49 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H34" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>10.47</v>
+        <v>13.9</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>2.05</v>
+        <v>4.89</v>
       </c>
       <c r="K34" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="N34" s="5" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>28.89</v>
+        <v>0</v>
       </c>
       <c r="S34" s="5" t="n">
         <v>0</v>
@@ -16728,17 +16728,17 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 214 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -17160,24 +17160,24 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>4401070001</t>
+          <t>4105060002</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>ANTIHIERBAS 105GR 125X10</t>
+          <t>STANDBAG 272L  67X75CM</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
       <c r="D40" s="3" t="inlineStr"/>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
@@ -17187,10 +17187,10 @@
         <v>1</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>14.5</v>
+        <v>14.95</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>5.8</v>
+        <v>6.18</v>
       </c>
       <c r="K40" s="4" t="n">
         <v>0</v>
@@ -17208,7 +17208,7 @@
         <v>-1</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>0</v>
@@ -17243,24 +17243,24 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>4105060002</t>
+          <t>4401070001</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>STANDBAG 272L  67X75CM</t>
+          <t>ANTIHIERBAS 105GR 125X10</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
       <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
@@ -17270,10 +17270,10 @@
         <v>1</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>14.95</v>
+        <v>14.5</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>6.18</v>
+        <v>5.8</v>
       </c>
       <c r="K41" s="4" t="n">
         <v>0</v>
@@ -17291,7 +17291,7 @@
         <v>-1</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>0</v>
@@ -17591,37 +17591,37 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>4602150004</t>
+          <t>4403020005</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>COLGADOR MANGUERA VERDE MAX 10KG CARGA</t>
+          <t>KIT SEMILLERO PLAST CON TAPA+ BANDEJA 24 HUECOS</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
       <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>5.45</v>
+        <v>5.04</v>
       </c>
       <c r="K45" s="4" t="n">
         <v>0</v>
@@ -17630,16 +17630,16 @@
         <v>0</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="N45" s="5" t="n">
-        <v>5.9</v>
+        <v>1.5</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="Q45" s="4" t="n">
         <v>0</v>
@@ -17657,7 +17657,7 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
@@ -17674,37 +17674,37 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>4403020005</t>
+          <t>4602150004</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>KIT SEMILLERO PLAST CON TAPA+ BANDEJA 24 HUECOS</t>
+          <t>COLGADOR MANGUERA VERDE MAX 10KG CARGA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
       <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>5.04</v>
+        <v>5.45</v>
       </c>
       <c r="K46" s="4" t="n">
         <v>0</v>
@@ -17713,16 +17713,16 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="N46" s="5" t="n">
-        <v>1.5</v>
+        <v>5.9</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v>0</v>
@@ -17740,7 +17740,7 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
@@ -18702,39 +18702,31 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>4403040001</t>
+          <t>4103070005</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>MACETA PP MARRON</t>
-        </is>
-      </c>
-      <c r="C58" s="3" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="D58" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>LANZA Y HORQUILLA CON MANGO 35CM</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr"/>
+      <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H58" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I58" s="4" t="n">
         <v>12.5</v>
@@ -18749,16 +18741,16 @@
         <v>0</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>4.9</v>
+        <v>0.5</v>
       </c>
       <c r="N58" s="5" t="n">
-        <v>14.7</v>
+        <v>1.5</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="P58" s="4" t="n">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="Q58" s="4" t="n">
         <v>0</v>
@@ -18776,7 +18768,7 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -10 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
@@ -18793,31 +18785,39 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>4103070005</t>
+          <t>4403040001</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>LANZA Y HORQUILLA CON MANGO 35CM</t>
-        </is>
-      </c>
-      <c r="C59" s="3" t="inlineStr"/>
-      <c r="D59" s="3" t="inlineStr"/>
+          <t>MACETA PP MARRON</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H59" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I59" s="4" t="n">
         <v>12.5</v>
@@ -18832,16 +18832,16 @@
         <v>0</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>0.5</v>
+        <v>4.9</v>
       </c>
       <c r="N59" s="5" t="n">
-        <v>1.5</v>
+        <v>14.7</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="P59" s="4" t="n">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="Q59" s="4" t="n">
         <v>0</v>
@@ -18859,7 +18859,7 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -10 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
@@ -19240,16 +19240,24 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>4602050001</t>
+          <t>4604050025</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>ASPERSOR CIRCULAR CON BASE 3 BRAZOS</t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="inlineStr"/>
-      <c r="D64" s="3" t="inlineStr"/>
+          <t>VALVULA DE BOLA</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>1I2P</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -19267,10 +19275,10 @@
         <v>1</v>
       </c>
       <c r="I64" s="4" t="n">
-        <v>10.5</v>
+        <v>11.97</v>
       </c>
       <c r="J64" s="4" t="n">
-        <v>3.73</v>
+        <v>4.95</v>
       </c>
       <c r="K64" s="4" t="n">
         <v>0</v>
@@ -19323,24 +19331,16 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>4602030010</t>
+          <t>4602050001</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>ENLACE RAPIDO BIMATERIA STOP</t>
-        </is>
-      </c>
-      <c r="C65" s="3" t="inlineStr">
-        <is>
-          <t>15MM</t>
-        </is>
-      </c>
-      <c r="D65" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ASPERSOR CIRCULAR CON BASE 3 BRAZOS</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr"/>
+      <c r="D65" s="3" t="inlineStr"/>
       <c r="E65" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -19355,13 +19355,13 @@
         <v>90</v>
       </c>
       <c r="H65" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I65" s="4" t="n">
-        <v>10.47</v>
+        <v>10.5</v>
       </c>
       <c r="J65" s="4" t="n">
-        <v>3.7</v>
+        <v>3.73</v>
       </c>
       <c r="K65" s="4" t="n">
         <v>0</v>
@@ -19370,16 +19370,16 @@
         <v>0</v>
       </c>
       <c r="M65" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N65" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="N65" s="5" t="n">
-        <v>4.4</v>
-      </c>
       <c r="O65" s="4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="P65" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q65" s="4" t="n">
         <v>0</v>
@@ -19397,7 +19397,7 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
@@ -19414,17 +19414,17 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>4604050025</t>
+          <t>4602030010</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>VALVULA DE BOLA</t>
+          <t>ENLACE RAPIDO BIMATERIA STOP</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>1I2P</t>
+          <t>15MM</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -19446,13 +19446,13 @@
         <v>90</v>
       </c>
       <c r="H66" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>11.97</v>
+        <v>10.47</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>4.95</v>
+        <v>3.7</v>
       </c>
       <c r="K66" s="4" t="n">
         <v>0</v>
@@ -19461,16 +19461,16 @@
         <v>0</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="N66" s="5" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="P66" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q66" s="4" t="n">
         <v>0</v>
@@ -19488,7 +19488,7 @@
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
@@ -19505,12 +19505,12 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>4403020014</t>
+          <t>4403020017</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>KIT MACETA DE TERRACOTA 8CM - MIMOSA SENSITIVA</t>
+          <t>MINI KIT CERAMICA - ELEFANTE/LEON</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr"/>
@@ -19553,7 +19553,7 @@
         <v>-2</v>
       </c>
       <c r="P67" s="4" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q67" s="4" t="n">
         <v>0</v>
@@ -19588,12 +19588,12 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>4403020017</t>
+          <t>4403020014</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>MINI KIT CERAMICA - ELEFANTE/LEON</t>
+          <t>KIT MACETA DE TERRACOTA 8CM - MIMOSA SENSITIVA</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr"/>
@@ -19636,7 +19636,7 @@
         <v>-2</v>
       </c>
       <c r="P68" s="4" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q68" s="4" t="n">
         <v>0</v>
@@ -20707,55 +20707,63 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>4202010001</t>
+          <t>4501030001</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>ARCO SIERRA CON HOJA TRONZ WOLFPACK</t>
-        </is>
-      </c>
-      <c r="C81" s="3" t="inlineStr"/>
-      <c r="D81" s="3" t="inlineStr"/>
+          <t>GUANTES JD PLANTACIONES</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>T8</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F81" s="4" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>PROTECCION PERSONAL</t>
         </is>
       </c>
       <c r="G81" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H81" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I81" s="4" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="J81" s="4" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="K81" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I81" s="4" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="J81" s="4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K81" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M81" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N81" s="5" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P81" s="4" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="Q81" s="4" t="n">
         <v>0</v>
@@ -20773,7 +20781,7 @@
       </c>
       <c r="U81" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V81" s="4" t="inlineStr">
@@ -20790,45 +20798,37 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>4501030001</t>
+          <t>4202010001</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>GUANTES JD PLANTACIONES</t>
-        </is>
-      </c>
-      <c r="C82" s="3" t="inlineStr">
-        <is>
-          <t>T8</t>
-        </is>
-      </c>
-      <c r="D82" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ARCO SIERRA CON HOJA TRONZ WOLFPACK</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr"/>
+      <c r="D82" s="3" t="inlineStr"/>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION PERSONAL</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G82" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H82" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" s="4" t="n">
-        <v>11.98</v>
+        <v>9.99</v>
       </c>
       <c r="J82" s="4" t="n">
-        <v>5.44</v>
+        <v>3.8</v>
       </c>
       <c r="K82" s="4" t="n">
         <v>0</v>
@@ -20837,16 +20837,16 @@
         <v>0</v>
       </c>
       <c r="M82" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N82" s="5" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P82" s="4" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Q82" s="4" t="n">
         <v>0</v>
@@ -20864,7 +20864,7 @@
       </c>
       <c r="U82" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V82" s="4" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -21542,7 +21542,7 @@
         <v>-1</v>
       </c>
       <c r="P90" s="4" t="n">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="Q90" s="4" t="n">
         <v>0</v>
@@ -21587,7 +21587,7 @@
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -21633,7 +21633,7 @@
         <v>-1</v>
       </c>
       <c r="P91" s="4" t="n">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="Q91" s="4" t="n">
         <v>0</v>
@@ -21834,12 +21834,12 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>4104010008</t>
+          <t>4104010007</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>ESCOBA METALICA KIDS GARDEN AZUL</t>
+          <t>ESCOBA METALICA KIDS GARDEN VERDE</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr"/>
@@ -21882,7 +21882,7 @@
         <v>-1</v>
       </c>
       <c r="P94" s="4" t="n">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="Q94" s="4" t="n">
         <v>0</v>
@@ -21917,12 +21917,12 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>4104010000</t>
+          <t>4104010008</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>PALA KIDS GARDEN ROSA</t>
+          <t>ESCOBA METALICA KIDS GARDEN AZUL</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr"/>
@@ -21965,7 +21965,7 @@
         <v>-1</v>
       </c>
       <c r="P95" s="4" t="n">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="Q95" s="4" t="n">
         <v>0</v>
@@ -22000,12 +22000,12 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>4104010007</t>
+          <t>4104010000</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>ESCOBA METALICA KIDS GARDEN VERDE</t>
+          <t>PALA KIDS GARDEN ROSA</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr"/>
@@ -22048,7 +22048,7 @@
         <v>-1</v>
       </c>
       <c r="P96" s="4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q96" s="4" t="n">
         <v>0</v>
@@ -22174,16 +22174,24 @@
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>4603020009</t>
+          <t>4603010011</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>ADAPTADOR HEMBRA 12-16 X1/2-3/4</t>
-        </is>
-      </c>
-      <c r="C98" s="3" t="inlineStr"/>
-      <c r="D98" s="3" t="inlineStr"/>
+          <t>GOTERO REGULABLE SPIDER-R 0-60L/H</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>50UD</t>
+        </is>
+      </c>
+      <c r="D98" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E98" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -22198,83 +22206,75 @@
         <v>90</v>
       </c>
       <c r="H98" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I98" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>8.99</v>
       </c>
       <c r="J98" s="4" t="n">
-        <v>3.17</v>
+        <v>3.68</v>
       </c>
       <c r="K98" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L98" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M98" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N98" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="N98" s="5" t="n">
-        <v>4.4</v>
-      </c>
       <c r="O98" s="4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P98" s="4" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q98" s="4" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="R98" s="4" t="n">
-        <v>28.89</v>
+        <v>88.89</v>
       </c>
       <c r="S98" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T98" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T98" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U98" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 214 días.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V98" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W98" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>4603010011</t>
+          <t>4603020009</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>GOTERO REGULABLE SPIDER-R 0-60L/H</t>
-        </is>
-      </c>
-      <c r="C99" s="3" t="inlineStr">
-        <is>
-          <t>10UD</t>
-        </is>
-      </c>
-      <c r="D99" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ADAPTADOR HEMBRA 12-16 X1/2-3/4</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="inlineStr"/>
+      <c r="D99" s="3" t="inlineStr"/>
       <c r="E99" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -22292,10 +22292,10 @@
         <v>3</v>
       </c>
       <c r="I99" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="J99" s="4" t="n">
-        <v>3.66</v>
+        <v>3.17</v>
       </c>
       <c r="K99" s="4" t="n">
         <v>30</v>
@@ -22313,35 +22313,35 @@
         <v>7</v>
       </c>
       <c r="P99" s="4" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q99" s="4" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="R99" s="4" t="n">
-        <v>88.89</v>
+        <v>28.89</v>
       </c>
       <c r="S99" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T99" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T99" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U99" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 214 días.</t>
         </is>
       </c>
       <c r="V99" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W99" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -22358,7 +22358,7 @@
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>50UD</t>
+          <t>10UD</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
@@ -22380,31 +22380,31 @@
         <v>90</v>
       </c>
       <c r="H100" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I100" s="4" t="n">
-        <v>8.99</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="J100" s="4" t="n">
-        <v>3.68</v>
+        <v>3.66</v>
       </c>
       <c r="K100" s="4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L100" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M100" s="5" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="N100" s="5" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="O100" s="4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P100" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q100" s="4" t="n">
         <v>80</v>
@@ -22704,39 +22704,31 @@
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>4604050016</t>
+          <t>4403020008</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>TAPON FINAL</t>
-        </is>
-      </c>
-      <c r="C104" s="3" t="inlineStr">
-        <is>
-          <t>20MM</t>
-        </is>
-      </c>
-      <c r="D104" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PACK 20 PASTILLAS COCO 50MM</t>
+        </is>
+      </c>
+      <c r="C104" s="3" t="inlineStr"/>
+      <c r="D104" s="3" t="inlineStr"/>
       <c r="E104" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F104" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G104" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H104" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I104" s="4" t="n">
         <v>8.75</v>
@@ -22751,16 +22743,16 @@
         <v>0</v>
       </c>
       <c r="M104" s="5" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="N104" s="5" t="n">
-        <v>7.3</v>
+        <v>1.5</v>
       </c>
       <c r="O104" s="4" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="P104" s="4" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="Q104" s="4" t="n">
         <v>0</v>
@@ -22778,7 +22770,7 @@
       </c>
       <c r="U104" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V104" s="4" t="inlineStr">
@@ -22795,31 +22787,39 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>4403020008</t>
+          <t>4604050016</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>PACK 20 PASTILLAS COCO 50MM</t>
-        </is>
-      </c>
-      <c r="C105" s="3" t="inlineStr"/>
-      <c r="D105" s="3" t="inlineStr"/>
+          <t>TAPON FINAL</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr">
+        <is>
+          <t>20MM</t>
+        </is>
+      </c>
+      <c r="D105" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F105" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G105" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H105" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I105" s="4" t="n">
         <v>8.75</v>
@@ -22834,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="M105" s="5" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="N105" s="5" t="n">
-        <v>1.5</v>
+        <v>7.3</v>
       </c>
       <c r="O105" s="4" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="P105" s="4" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q105" s="4" t="n">
         <v>0</v>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="U105" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V105" s="4" t="inlineStr">
@@ -23226,16 +23226,24 @@
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>4603010001</t>
+          <t>4603030002</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>GOTERO INTERLINEA BARREL 4L/H ROJO 10UD</t>
-        </is>
-      </c>
-      <c r="C110" s="3" t="inlineStr"/>
-      <c r="D110" s="3" t="inlineStr"/>
+          <t>TAPON 16MM</t>
+        </is>
+      </c>
+      <c r="C110" s="3" t="inlineStr">
+        <is>
+          <t>4UD</t>
+        </is>
+      </c>
+      <c r="D110" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E110" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -23250,31 +23258,31 @@
         <v>90</v>
       </c>
       <c r="H110" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I110" s="4" t="n">
-        <v>7.98</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="J110" s="4" t="n">
-        <v>3.1</v>
+        <v>3.62</v>
       </c>
       <c r="K110" s="4" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="L110" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M110" s="5" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="N110" s="5" t="n">
-        <v>2.9</v>
+        <v>10.3</v>
       </c>
       <c r="O110" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P110" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q110" s="4" t="n">
         <v>80</v>
@@ -23292,7 +23300,7 @@
       </c>
       <c r="U110" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V110" s="4" t="inlineStr">
@@ -23302,31 +23310,23 @@
       </c>
       <c r="W110" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>4603030002</t>
+          <t>4603010001</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>TAPON 16MM</t>
-        </is>
-      </c>
-      <c r="C111" s="3" t="inlineStr">
-        <is>
-          <t>4UD</t>
-        </is>
-      </c>
-      <c r="D111" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>GOTERO INTERLINEA BARREL 4L/H ROJO 10UD</t>
+        </is>
+      </c>
+      <c r="C111" s="3" t="inlineStr"/>
+      <c r="D111" s="3" t="inlineStr"/>
       <c r="E111" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -23341,31 +23341,31 @@
         <v>90</v>
       </c>
       <c r="H111" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I111" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>7.98</v>
       </c>
       <c r="J111" s="4" t="n">
-        <v>3.62</v>
+        <v>3.1</v>
       </c>
       <c r="K111" s="4" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="L111" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M111" s="5" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="N111" s="5" t="n">
-        <v>10.3</v>
+        <v>2.9</v>
       </c>
       <c r="O111" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P111" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q111" s="4" t="n">
         <v>80</v>
@@ -23383,7 +23383,7 @@
       </c>
       <c r="U111" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V111" s="4" t="inlineStr">
@@ -23393,7 +23393,7 @@
       </c>
       <c r="W111" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -24500,12 +24500,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>4603010019</t>
+          <t>4603020012</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>KIT GOTERO 4L/H 2 SALIDAS+2 MICROT</t>
+          <t>ADAPTADOR ROSCA MACHO 3/4</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -24524,13 +24524,13 @@
         <v>90</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.26</v>
+        <v>7.5</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>0</v>
@@ -24539,16 +24539,16 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>2.9</v>
+        <v>7.3</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>0</v>
@@ -24566,7 +24566,7 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -24583,12 +24583,12 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>4603020012</t>
+          <t>4603010019</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>ADAPTADOR ROSCA MACHO 3/4</t>
+          <t>KIT GOTERO 4L/H 2 SALIDAS+2 MICROT</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -24607,13 +24607,13 @@
         <v>90</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>7.5</v>
+        <v>7.26</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="K6" s="4" t="n">
         <v>0</v>
@@ -24622,16 +24622,16 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>7.3</v>
+        <v>2.9</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q6" s="4" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -25097,12 +25097,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>4603010005</t>
+          <t>4603010038</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>GOTERO REGULABLE TORKE-R 0-6L/H 25UD</t>
+          <t>KIT GOTERO 8L/H 4 SALIDAS+4 MICROT</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -25124,13 +25124,13 @@
         <v>2</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>6.74</v>
+        <v>7.34</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>2.67</v>
+        <v>3.17</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
         <v>0</v>
@@ -25142,50 +25142,50 @@
         <v>2.9</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T12" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T12" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>4603010038</t>
+          <t>4603010005</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>KIT GOTERO 8L/H 4 SALIDAS+4 MICROT</t>
+          <t>GOTERO REGULABLE TORKE-R 0-6L/H 25UD</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -25207,13 +25207,13 @@
         <v>2</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>7.34</v>
+        <v>6.74</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>3.17</v>
+        <v>2.67</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>0</v>
@@ -25225,38 +25225,38 @@
         <v>2.9</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T13" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -26647,37 +26647,45 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>4404040003</t>
+          <t>4603010016</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>ETIQUETAS PICUDAS PLASTICO 12CM 25UDS</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr"/>
-      <c r="D30" s="3" t="inlineStr"/>
+          <t>GOTERO TURBULENTO 8 L/H</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>25UD</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>5.98</v>
+        <v>5.37</v>
       </c>
       <c r="J30" s="4" t="n">
-        <v>2.54</v>
+        <v>2.04</v>
       </c>
       <c r="K30" s="4" t="n">
         <v>0</v>
@@ -26686,16 +26694,16 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="Q30" s="4" t="n">
         <v>0</v>
@@ -26713,7 +26721,7 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
@@ -26730,63 +26738,55 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>4603010016</t>
+          <t>4404040003</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>GOTERO TURBULENTO 8 L/H</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>25UD</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ETIQUETAS PICUDAS PLASTICO 12CM 25UDS</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr"/>
+      <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H31" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" s="4" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="J31" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K31" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I31" s="4" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="J31" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="K31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N31" s="5" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="Q31" s="4" t="n">
         <v>0</v>
@@ -26804,7 +26804,7 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -27948,31 +27948,39 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>4504010001</t>
+          <t>4604050017</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>COJIN JARDINERO JD</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr"/>
-      <c r="D45" s="3" t="inlineStr"/>
+          <t>TAPON ROSCA HEMBRA</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>3I4P</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION PERSONAL</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I45" s="4" t="n">
         <v>4.95</v>
@@ -27987,16 +27995,16 @@
         <v>0</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="N45" s="5" t="n">
-        <v>1.5</v>
+        <v>7.3</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q45" s="4" t="n">
         <v>0</v>
@@ -28014,7 +28022,7 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
@@ -28031,24 +28039,24 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>4301020002</t>
+          <t>4504010001</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR 2L JD</t>
+          <t>COJIN JARDINERO JD</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
       <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>PROTECCION PERSONAL</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
@@ -28079,7 +28087,7 @@
         <v>-1</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v>0</v>
@@ -28114,16 +28122,24 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>4603010024</t>
+          <t>4604050023</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>GOTERO AUTOCOMPENSADO AUTO-DRIP 4L/H 10UD</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr"/>
-      <c r="D47" s="3" t="inlineStr"/>
+          <t>TERMINAL ROSCA MACHO</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>25I3/4</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -28138,7 +28154,7 @@
         <v>90</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I47" s="4" t="n">
         <v>4.95</v>
@@ -28147,74 +28163,66 @@
         <v>2.05</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="N47" s="5" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>9</v>
+        <v>-3</v>
       </c>
       <c r="P47" s="4" t="n">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T47" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T47" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>4604050017</t>
+          <t>4603010024</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>TAPON ROSCA HEMBRA</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>3I4P</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>GOTERO AUTOCOMPENSADO AUTO-DRIP 4L/H 10UD</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr"/>
+      <c r="D48" s="3" t="inlineStr"/>
       <c r="E48" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -28229,7 +28237,7 @@
         <v>90</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I48" s="4" t="n">
         <v>4.95</v>
@@ -28238,89 +28246,81 @@
         <v>2.05</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L48" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="N48" s="5" t="n">
-        <v>7.3</v>
+        <v>1.5</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>-5</v>
+        <v>9</v>
       </c>
       <c r="P48" s="4" t="n">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T48" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>4604050023</t>
+          <t>4301020002</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>TERMINAL ROSCA MACHO</t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="inlineStr">
-        <is>
-          <t>25I3/4</t>
-        </is>
-      </c>
-      <c r="D49" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PULVERIZADOR 2L JD</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr"/>
+      <c r="D49" s="3" t="inlineStr"/>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I49" s="4" t="n">
         <v>4.95</v>
@@ -28335,16 +28335,16 @@
         <v>0</v>
       </c>
       <c r="M49" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N49" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="N49" s="5" t="n">
-        <v>4.4</v>
-      </c>
       <c r="O49" s="4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="Q49" s="4" t="n">
         <v>0</v>
@@ -28362,7 +28362,7 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
@@ -28826,17 +28826,17 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>4603020017</t>
+          <t>4604060003</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ENLACE 16MM</t>
+          <t>RAIN BOBINA RECORTABLE PROLONGADOR</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>25UD</t>
+          <t>1I2P</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -28858,13 +28858,13 @@
         <v>90</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>3.99</v>
+        <v>4.69</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>1.41</v>
+        <v>1.99</v>
       </c>
       <c r="K55" s="4" t="n">
         <v>0</v>
@@ -28873,16 +28873,16 @@
         <v>0</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="N55" s="5" t="n">
-        <v>1.5</v>
+        <v>10.3</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="Q55" s="4" t="n">
         <v>0</v>
@@ -28900,7 +28900,7 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -7 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
@@ -28917,17 +28917,17 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>4604060003</t>
+          <t>4603020017</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>RAIN BOBINA RECORTABLE PROLONGADOR</t>
+          <t>ENLACE 16MM</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>1I2P</t>
+          <t>25UD</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -28949,13 +28949,13 @@
         <v>90</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I56" s="4" t="n">
-        <v>4.69</v>
+        <v>3.99</v>
       </c>
       <c r="J56" s="4" t="n">
-        <v>1.99</v>
+        <v>1.41</v>
       </c>
       <c r="K56" s="4" t="n">
         <v>0</v>
@@ -28964,16 +28964,16 @@
         <v>0</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="N56" s="5" t="n">
-        <v>10.3</v>
+        <v>1.5</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="P56" s="4" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Q56" s="4" t="n">
         <v>0</v>
@@ -28991,7 +28991,7 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -7 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
@@ -29361,7 +29361,7 @@
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>ENLACE RAPIDO BIMATERIA STOP MANGUERA HELIC</t>
+          <t>ENLACE RAPIDO BIMATERIA STOP MANGUERA HELICOIDAL</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr"/>
@@ -29389,7 +29389,7 @@
         <v>1.23</v>
       </c>
       <c r="K61" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L61" s="4" t="n">
         <v>0</v>
@@ -29401,16 +29401,16 @@
         <v>1.5</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P61" s="4" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q61" s="4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R61" s="4" t="n">
-        <v>0</v>
+        <v>12.22</v>
       </c>
       <c r="S61" s="5" t="n">
         <v>0</v>
@@ -29422,41 +29422,49 @@
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 828 días.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W61" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>4602180012</t>
+          <t>4501030002</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>ENLACE RAPIDO BIMATERIA STOP MANGUERA HELICOIDAL</t>
-        </is>
-      </c>
-      <c r="C62" s="3" t="inlineStr"/>
-      <c r="D62" s="3" t="inlineStr"/>
+          <t>GUANTES JD TRATAMIENTO TALLA 9</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>T8</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION PERSONAL</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
@@ -29466,13 +29474,13 @@
         <v>1</v>
       </c>
       <c r="I62" s="4" t="n">
-        <v>3.49</v>
+        <v>3.99</v>
       </c>
       <c r="J62" s="4" t="n">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="K62" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L62" s="4" t="n">
         <v>0</v>
@@ -29484,16 +29492,16 @@
         <v>1.5</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P62" s="4" t="n">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R62" s="4" t="n">
-        <v>12.22</v>
+        <v>0</v>
       </c>
       <c r="S62" s="5" t="n">
         <v>0</v>
@@ -29505,29 +29513,29 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 828 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W62" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>4603010028</t>
+          <t>4602180012</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>MICRO 10 MAXI-JET 90°</t>
+          <t>ENLACE RAPIDO BIMATERIA STOP MANGUERA HELIC</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr"/>
@@ -29549,10 +29557,10 @@
         <v>1</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>3.99</v>
+        <v>3.49</v>
       </c>
       <c r="J63" s="4" t="n">
-        <v>1.65</v>
+        <v>1.23</v>
       </c>
       <c r="K63" s="4" t="n">
         <v>0</v>
@@ -29570,7 +29578,7 @@
         <v>-1</v>
       </c>
       <c r="P63" s="4" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="Q63" s="4" t="n">
         <v>0</v>
@@ -29605,32 +29613,24 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>4501030002</t>
+          <t>4603010028</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>GUANTES JD TRATAMIENTO TALLA 9</t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="inlineStr">
-        <is>
-          <t>T8</t>
-        </is>
-      </c>
-      <c r="D64" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>MICRO 10 MAXI-JET 90°</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr"/>
+      <c r="D64" s="3" t="inlineStr"/>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION PERSONAL</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
@@ -29661,7 +29661,7 @@
         <v>-1</v>
       </c>
       <c r="P64" s="4" t="n">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="Q64" s="4" t="n">
         <v>0</v>
@@ -29961,17 +29961,17 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>4603020007</t>
+          <t>4603010007</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>ADAPTADOR GRIFO ROSCA HEMBRA</t>
+          <t>GOTERO AUTOCOMP ANTIDRENANTE 8L/H</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>1I2P</t>
+          <t>10UD</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -29996,13 +29996,13 @@
         <v>1</v>
       </c>
       <c r="I68" s="4" t="n">
-        <v>3.99</v>
+        <v>3.83</v>
       </c>
       <c r="J68" s="4" t="n">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="K68" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L68" s="4" t="n">
         <v>0</v>
@@ -30014,55 +30014,55 @@
         <v>1.5</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P68" s="4" t="n">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="Q68" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R68" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T68" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T68" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U68" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V68" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W68" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>4603010007</t>
+          <t>4603020007</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>GOTERO AUTOCOMP ANTIDRENANTE 8L/H</t>
+          <t>ADAPTADOR GRIFO ROSCA HEMBRA</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>10UD</t>
+          <t>1I2P</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -30087,13 +30087,13 @@
         <v>1</v>
       </c>
       <c r="I69" s="4" t="n">
-        <v>3.83</v>
+        <v>3.99</v>
       </c>
       <c r="J69" s="4" t="n">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="K69" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L69" s="4" t="n">
         <v>0</v>
@@ -30105,38 +30105,38 @@
         <v>1.5</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P69" s="4" t="n">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="Q69" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R69" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T69" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T69" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W69" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -31104,12 +31104,12 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>4603010014</t>
+          <t>4603010013</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>GOTERO TURBULENTO 2L/H</t>
+          <t>GOTERO REGULABLE INDUNDADOR 0-80L/H</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
@@ -31139,10 +31139,10 @@
         <v>1</v>
       </c>
       <c r="I81" s="4" t="n">
-        <v>3.19</v>
+        <v>3.23</v>
       </c>
       <c r="J81" s="4" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="K81" s="4" t="n">
         <v>0</v>
@@ -31160,7 +31160,7 @@
         <v>-1</v>
       </c>
       <c r="P81" s="4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q81" s="4" t="n">
         <v>0</v>
@@ -31195,12 +31195,12 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>4603010013</t>
+          <t>4603010014</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>GOTERO REGULABLE INDUNDADOR 0-80L/H</t>
+          <t>GOTERO TURBULENTO 2L/H</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -31230,10 +31230,10 @@
         <v>1</v>
       </c>
       <c r="I82" s="4" t="n">
-        <v>3.23</v>
+        <v>3.19</v>
       </c>
       <c r="J82" s="4" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="K82" s="4" t="n">
         <v>0</v>
@@ -31251,7 +31251,7 @@
         <v>-1</v>
       </c>
       <c r="P82" s="4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Q82" s="4" t="n">
         <v>0</v>
@@ -31460,24 +31460,24 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>4603020001</t>
+          <t>4402010003</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>2 VALVULA 16MM</t>
+          <t>TERMOMETRO MADERA</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr"/>
       <c r="D85" s="3" t="inlineStr"/>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F85" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G85" s="4" t="n">
@@ -31487,13 +31487,13 @@
         <v>1</v>
       </c>
       <c r="I85" s="4" t="n">
-        <v>2.99</v>
+        <v>3.49</v>
       </c>
       <c r="J85" s="4" t="n">
-        <v>1.22</v>
+        <v>1.63</v>
       </c>
       <c r="K85" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L85" s="4" t="n">
         <v>0</v>
@@ -31505,62 +31505,62 @@
         <v>1.5</v>
       </c>
       <c r="O85" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P85" s="4" t="n">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="Q85" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R85" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T85" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T85" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U85" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V85" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W85" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>4402010003</t>
+          <t>4603020001</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>TERMOMETRO MADERA</t>
+          <t>2 VALVULA 16MM</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr"/>
       <c r="D86" s="3" t="inlineStr"/>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F86" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G86" s="4" t="n">
@@ -31570,13 +31570,13 @@
         <v>1</v>
       </c>
       <c r="I86" s="4" t="n">
-        <v>3.49</v>
+        <v>2.99</v>
       </c>
       <c r="J86" s="4" t="n">
-        <v>1.63</v>
+        <v>1.22</v>
       </c>
       <c r="K86" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L86" s="4" t="n">
         <v>0</v>
@@ -31588,38 +31588,38 @@
         <v>1.5</v>
       </c>
       <c r="O86" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P86" s="4" t="n">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="Q86" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R86" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S86" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T86" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T86" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U86" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V86" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W86" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -31717,166 +31717,166 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>4103020001</t>
+          <t>4403070000</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>HORCA AZUL JD</t>
+          <t>GRAPAS PARA TUTOR 15UD</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr"/>
       <c r="D88" s="3" t="inlineStr"/>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G88" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H88" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I88" s="4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J88" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K88" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="L88" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I88" s="4" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="J88" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="K88" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L88" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M88" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N88" s="5" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O88" s="4" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="P88" s="4" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q88" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R88" s="4" t="n">
-        <v>0</v>
+        <v>102.22</v>
       </c>
       <c r="S88" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T88" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T88" s="7" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U88" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V88" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W88" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>4403070000</t>
+          <t>4103020001</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>GRAPAS PARA TUTOR 15UD</t>
+          <t>HORCA AZUL JD</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr"/>
       <c r="D89" s="3" t="inlineStr"/>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F89" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G89" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H89" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" s="4" t="n">
-        <v>3.9</v>
+        <v>2.95</v>
       </c>
       <c r="J89" s="4" t="n">
-        <v>2</v>
+        <v>1.22</v>
       </c>
       <c r="K89" s="4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L89" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M89" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N89" s="5" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O89" s="4" t="n">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="P89" s="4" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q89" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R89" s="4" t="n">
-        <v>102.22</v>
+        <v>0</v>
       </c>
       <c r="S89" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T89" s="7" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T89" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U89" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V89" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W89" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -34332,32 +34332,24 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>4604050005</t>
+          <t>4503020001</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>CODO ROSCA HEMBRA</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>25I3/4</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DELANTAL IMPERMEABLE RECOLECCION 76X43X44CM</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr"/>
+      <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION PERSONAL</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -34376,7 +34368,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -34385,19 +34377,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>28.89</v>
+        <v>88.89</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T2" s="9" t="inlineStr">
         <is>
@@ -34406,12 +34398,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -34423,32 +34415,24 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>4604050006</t>
+          <t>4105040029</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>CODO ROSCA MACHO</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>20I1/2</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>MANGO MADERA ESPATULA SOLADOR 1500X25MM (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -34467,7 +34451,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -34476,19 +34460,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>28.89</v>
+        <v>102.22</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T3" s="9" t="inlineStr">
         <is>
@@ -34497,12 +34481,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -34514,16 +34498,24 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>4602010001</t>
+          <t>4602090004</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>LANZA REGULABLE CON ACOPLE</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
+          <t>MANGUERA FLEX 25M</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>15MM</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -34550,7 +34542,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -34559,16 +34551,16 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>88.89</v>
+        <v>98.89</v>
       </c>
       <c r="S4" s="5" t="n">
         <v>10</v>
@@ -34585,7 +34577,7 @@
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -34597,12 +34589,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>4105070001</t>
+          <t>4101140003</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>CINTA PARA INJERTAR PLANTAS (3CM) 100M</t>
+          <t>RASTRILLO JARDIN REGULABLE MARIPOSA CON MANGO</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -34633,7 +34625,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -34642,19 +34634,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>12.22</v>
+        <v>102.22</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T5" s="9" t="inlineStr">
         <is>
@@ -34663,12 +34655,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -34680,24 +34672,32 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>4603010004</t>
+          <t>4105060006</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>GOTERO REGULABLE SPECTRUM-R 0-80L/H C/ ESTACA 25UD</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr"/>
-      <c r="D6" s="3" t="inlineStr"/>
+          <t>CUBO JARDIN ANTRACITA</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>90L</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -34716,7 +34716,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -34725,16 +34725,16 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>12.22</v>
+        <v>58.89</v>
       </c>
       <c r="S6" s="5" t="n">
         <v>0</v>
@@ -34751,7 +34751,7 @@
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -34763,24 +34763,24 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>4402010004</t>
+          <t>4203010005</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>TERMOMETRO PARED INTERIOR EXTERIOR CHAPA METALICA</t>
+          <t>HUERTO ELEVADO PAPRIKA 80X40X87CM 50L</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -34799,7 +34799,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -34808,16 +34808,16 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>88.89</v>
+        <v>96.67</v>
       </c>
       <c r="S7" s="5" t="n">
         <v>10</v>
@@ -34834,7 +34834,7 @@
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 05/03/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -34846,24 +34846,24 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>4605010001</t>
+          <t>4301020004</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>PROGRAMADOR DE GRIFO AQUA CONTROL DISPLAY LCD</t>
+          <t>PULVERIZADOR MATABI EVOLUTION 12</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -34882,7 +34882,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -34891,19 +34891,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>12.22</v>
+        <v>88.89</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T8" s="9" t="inlineStr">
         <is>
@@ -34912,12 +34912,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -34929,24 +34929,24 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>4602100001</t>
+          <t>4402010002</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>MANGUERA LATFLEX REFORZADO 19MM  X METRO</t>
+          <t>TERMOMETRO PARED BLANCO</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
       <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -34965,7 +34965,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -34974,19 +34974,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>102.22</v>
+        <v>88.89</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T9" s="9" t="inlineStr">
         <is>
@@ -34995,12 +34995,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -35012,24 +35012,32 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>4602130001</t>
+          <t>4301020003</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>SET DE MANGUERA FLEX 20M DIAMETRO 15MM</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr"/>
-      <c r="D10" s="3" t="inlineStr"/>
+          <t>PULVERIZADOR MATABI BERRY</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>5L</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -35048,7 +35056,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -35057,16 +35065,16 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>98.89</v>
+        <v>66.67</v>
       </c>
       <c r="S10" s="5" t="n">
         <v>10</v>
@@ -35083,7 +35091,7 @@
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -35095,24 +35103,32 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>4105040029</t>
+          <t>4604050005</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>MANGO MADERA ESPATULA SOLADOR 1500X25MM (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr"/>
-      <c r="D11" s="3" t="inlineStr"/>
+          <t>CODO ROSCA HEMBRA</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>25I3/4</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -35131,7 +35147,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -35140,19 +35156,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>102.22</v>
+        <v>28.89</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T11" s="9" t="inlineStr">
         <is>
@@ -35161,12 +35177,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -35178,24 +35194,24 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>4201020006</t>
+          <t>4602010001</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>CORTARRAMAS EASYCUT</t>
+          <t>LANZA REGULABLE CON ACOPLE</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
       <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -35214,7 +35230,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -35223,16 +35239,16 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>98.89</v>
+        <v>88.89</v>
       </c>
       <c r="S12" s="5" t="n">
         <v>10</v>
@@ -35249,7 +35265,7 @@
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -35261,16 +35277,24 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>4603020005</t>
+          <t>4602090002</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>ENLACE 4UD 16-12MM</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr"/>
-      <c r="D13" s="3" t="inlineStr"/>
+          <t>MANGUERA CLASSIC 20M</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>15MM</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -35297,7 +35321,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -35306,19 +35330,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>28.89</v>
+        <v>98.89</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T13" s="9" t="inlineStr">
         <is>
@@ -35327,12 +35351,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -35344,32 +35368,24 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>4602090002</t>
+          <t>4105040028</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>MANGUERA CLASSIC 20M</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>15MM</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ESPATULA SOLADOR 55CM (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr"/>
+      <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -35388,7 +35404,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -35397,19 +35413,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>98.89</v>
+        <v>102.22</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T14" s="9" t="inlineStr">
         <is>
@@ -35418,12 +35434,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.83€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -35435,24 +35451,24 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>4301040003</t>
+          <t>4602100001</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR MATABI E1 ELECTRIC 1L</t>
+          <t>MANGUERA LATFLEX REFORZADO 19MM  X METRO</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -35471,7 +35487,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -35480,19 +35496,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>88.89</v>
+        <v>102.22</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T15" s="9" t="inlineStr">
         <is>
@@ -35501,12 +35517,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -35518,32 +35534,24 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>4105060006</t>
+          <t>4603020005</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>CUBO JARDIN ANTRACITA</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>90L</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ENLACE 4UD 16-12MM</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -35562,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -35571,16 +35579,16 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>58.89</v>
+        <v>28.89</v>
       </c>
       <c r="S16" s="5" t="n">
         <v>0</v>
@@ -35597,7 +35605,7 @@
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -35609,24 +35617,32 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>4301010009</t>
+          <t>4101170006</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR 0,6L ECLOZ</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr"/>
-      <c r="D17" s="3" t="inlineStr"/>
+          <t>MANGO MADERA AZADA</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>900X32</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -35645,7 +35661,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -35654,16 +35670,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>88.89</v>
+        <v>68.89</v>
       </c>
       <c r="S17" s="5" t="n">
         <v>10</v>
@@ -35680,7 +35696,7 @@
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 30/03/2025</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -35692,17 +35708,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>4602160004</t>
+          <t>4604050006</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>PORTAMANGUERA AUTOMATICO ROLLUP</t>
+          <t>CODO ROSCA MACHO</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>20I1/2</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -35736,7 +35752,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -35745,19 +35761,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>98.89</v>
+        <v>28.89</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T18" s="9" t="inlineStr">
         <is>
@@ -35766,12 +35782,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -35783,24 +35799,24 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>4201060008</t>
+          <t>4602130001</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CORTASETOS NATURECUT FSC 100%</t>
+          <t>SET DE MANGUERA FLEX 20M DIAMETRO 15MM</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -35819,7 +35835,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -35828,7 +35844,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>92</v>
@@ -35866,12 +35882,12 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>4602180009</t>
+          <t>4603010038</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>DISTRIBUIDOR CUADRUPLE</t>
+          <t>KIT GOTERO 8L/H 4 SALIDAS+4 MICROT 50CM+4PIQUETAS</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -35902,7 +35918,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -35911,19 +35927,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>98.89</v>
+        <v>12.22</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T20" s="9" t="inlineStr">
         <is>
@@ -35932,12 +35948,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -35949,12 +35965,12 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>4403040002</t>
+          <t>4403020010</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>SET 15 MACETAS PP MARRON 9X6,8CM</t>
+          <t>KIT SEMILLERO FIBRA CON TAPA+BANDEJA 24HUECOS 4X4</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
@@ -35985,7 +36001,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -35994,7 +36010,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
@@ -36032,24 +36048,24 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>4101140003</t>
+          <t>4402010004</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>RASTRILLO JARDIN REGULABLE MARIPOSA CON MANGO</t>
+          <t>TERMOMETRO PARED INTERIOR EXTERIOR CHAPA METALICA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -36068,7 +36084,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -36077,19 +36093,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>102.22</v>
+        <v>88.89</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T22" s="9" t="inlineStr">
         <is>
@@ -36098,12 +36114,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -36115,24 +36131,32 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>4104010020</t>
+          <t>4301020003</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ESCOBA CESPED JUNIOR</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr"/>
-      <c r="D23" s="3" t="inlineStr"/>
+          <t>PULVERIZADOR MATABI BERRY</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>3I5L</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -36151,7 +36175,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -36160,19 +36184,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>102.22</v>
+        <v>88.89</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T23" s="9" t="inlineStr">
         <is>
@@ -36181,12 +36205,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.39€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -36198,32 +36222,24 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>4605010014</t>
+          <t>4403040002</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>PROGRAMADOR RAIN BIRD WPX 9V</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>T4</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>SET 15 MACETAS PP MARRON 9X6,8CM</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr"/>
+      <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -36242,7 +36258,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -36251,19 +36267,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>102.22</v>
+        <v>12.22</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T24" s="9" t="inlineStr">
         <is>
@@ -36272,12 +36288,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 82.28€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -36289,24 +36305,16 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>4301020003</t>
+          <t>4301040003</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR MATABI BERRY</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>3I5L</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PULVERIZADOR MATABI E1 ELECTRIC 1L</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr"/>
+      <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="4" t="inlineStr">
         <is>
           <t>43</t>
@@ -36333,7 +36341,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -36342,7 +36350,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
@@ -36380,24 +36388,24 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>4106010020</t>
+          <t>4401060003</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>CEPILLO BARREND IND FIBRA RIG PP 50CM (NO VENTA)</t>
+          <t>TREEGUARD 0,2X0,5M</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
       <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -36416,7 +36424,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -36425,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>92</v>
@@ -36446,7 +36454,7 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
@@ -36463,24 +36471,24 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>4603010038</t>
+          <t>4104010020</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>KIT GOTERO 8L/H 4 SALIDAS+4 MICROT 50CM+4PIQUETAS</t>
+          <t>ESCOBA CESPED JUNIOR</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
       <c r="D27" s="3" t="inlineStr"/>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
@@ -36499,7 +36507,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -36508,19 +36516,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>12.22</v>
+        <v>102.22</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T27" s="9" t="inlineStr">
         <is>
@@ -36529,12 +36537,12 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.39€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
@@ -36546,16 +36554,24 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>4604060001</t>
+          <t>4602160004</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>ARQUETA CIRCULAR 2 VALVULA</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr"/>
-      <c r="D28" s="3" t="inlineStr"/>
+          <t>PORTAMANGUERA AUTOMATICO ROLLUP</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -36582,7 +36598,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -36591,16 +36607,16 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>88.89</v>
+        <v>98.89</v>
       </c>
       <c r="S28" s="5" t="n">
         <v>10</v>
@@ -36617,7 +36633,7 @@
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
@@ -36629,24 +36645,24 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>4106010010</t>
+          <t>4602180009</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>CEPILLO BARRENDERO PP F PROEX SIN MANGO (NO VENTA)</t>
+          <t>DISTRIBUIDOR CUADRUPLE</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
       <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
@@ -36665,7 +36681,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>0</v>
@@ -36674,19 +36690,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>102.22</v>
+        <v>98.89</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T29" s="9" t="inlineStr">
         <is>
@@ -36695,12 +36711,12 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 27.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
@@ -36712,17 +36728,17 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>4301020003</t>
+          <t>4603010008</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR MATABI BERRY</t>
+          <t>GOTERO AUTOCOMPENSADO AUTO-MAT 2L/H</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>5L</t>
+          <t>10UD</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -36732,12 +36748,12 @@
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
@@ -36756,7 +36772,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>0</v>
@@ -36765,16 +36781,16 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>66.67</v>
+        <v>88.89</v>
       </c>
       <c r="S30" s="5" t="n">
         <v>10</v>
@@ -36791,7 +36807,7 @@
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
@@ -36803,24 +36819,24 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>4503020001</t>
+          <t>4301010009</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>DELANTAL IMPERMEABLE RECOLECCION 76X43X44CM</t>
+          <t>PULVERIZADOR 0,6L ECLOZ</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
       <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION PERSONAL</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
@@ -36839,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>0</v>
@@ -36848,7 +36864,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>92</v>
@@ -36886,24 +36902,16 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>4101170006</t>
+          <t>4106010022</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>MANGO MADERA AZADA</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>900X32</t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>MANGO MADERA ROSCA 1150X22MM CEP RAICES (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr"/>
+      <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="4" t="inlineStr">
         <is>
           <t>41</t>
@@ -36930,7 +36938,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>0</v>
@@ -36939,19 +36947,19 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>68.89</v>
+        <v>102.22</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T32" s="9" t="inlineStr">
         <is>
@@ -36960,12 +36968,12 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -36977,24 +36985,24 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>4401060003</t>
+          <t>4106010002</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>TREEGUARD 0,2X0,5M</t>
+          <t>CEPILLO BARRER DOMESTICO (NO VENTA)</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
       <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
@@ -37013,7 +37021,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>0</v>
@@ -37022,19 +37030,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>102.22</v>
+        <v>68.89</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T33" s="9" t="inlineStr">
         <is>
@@ -37043,12 +37051,12 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 30/03/2025</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -37060,16 +37068,24 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>4602180016</t>
+          <t>4602090006</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>MANGUITO RED 1X3/4" CONT</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr"/>
-      <c r="D34" s="3" t="inlineStr"/>
+          <t>MANGUERA TRICOTADO NO TORSION X METRO</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>19MM</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -37111,13 +37127,13 @@
         <v>92</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>12.22</v>
+        <v>102.22</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T34" s="9" t="inlineStr">
         <is>
@@ -37126,12 +37142,12 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -37226,24 +37242,32 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>4106010022</t>
+          <t>4603010024</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>MANGO MADERA ROSCA 1150X22MM CEP RAICES (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr"/>
-      <c r="D36" s="3" t="inlineStr"/>
+          <t>GOTERO AUTOCOMPENSADO AUTO-DRIP 4L/H</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>25UD</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -37262,7 +37286,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>0</v>
@@ -37271,19 +37295,19 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>102.22</v>
+        <v>28.89</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T36" s="9" t="inlineStr">
         <is>
@@ -37292,12 +37316,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -37309,24 +37333,24 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>4106010021</t>
+          <t>4604060001</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>CEPILLO RAICES 5X10 (NO VENTA)</t>
+          <t>ARQUETA CIRCULAR 2 VALVULA</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
       <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
@@ -37345,7 +37369,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>0</v>
@@ -37354,19 +37378,19 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>102.22</v>
+        <v>88.89</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T37" s="9" t="inlineStr">
         <is>
@@ -37375,12 +37399,12 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
@@ -37392,24 +37416,16 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>4602090006</t>
+          <t>4605010001</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>MANGUERA TRICOTADO NO TORSION X METRO</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr">
-        <is>
-          <t>19MM</t>
-        </is>
-      </c>
-      <c r="D38" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PROGRAMADOR DE GRIFO AQUA CONTROL DISPLAY LCD</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr"/>
+      <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -37436,7 +37452,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>0</v>
@@ -37445,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>102.22</v>
+        <v>12.22</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T38" s="9" t="inlineStr">
         <is>
@@ -37466,12 +37482,12 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
@@ -37483,12 +37499,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>4105040028</t>
+          <t>4106010020</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>ESPATULA SOLADOR 55CM (NO VENTA)</t>
+          <t>CEPILLO BARREND IND FIBRA RIG PP 50CM (NO VENTA)</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -37549,7 +37565,7 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.83€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
@@ -37566,24 +37582,24 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>4603050006</t>
+          <t>4201020006</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>PUNZON PERFORADOR 4MM</t>
+          <t>CORTARRAMAS EASYCUT</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
       <c r="D40" s="3" t="inlineStr"/>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
@@ -37602,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0</v>
@@ -37611,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>88.89</v>
+        <v>98.89</v>
       </c>
       <c r="S40" s="5" t="n">
         <v>10</v>
@@ -37637,7 +37653,7 @@
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
@@ -37649,17 +37665,17 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>4602090004</t>
+          <t>4605010014</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>MANGUERA FLEX 25M</t>
+          <t>PROGRAMADOR RAIN BIRD WPX 9V</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>15MM</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -37693,7 +37709,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M41" s="5" t="n">
         <v>0</v>
@@ -37702,19 +37718,19 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>98.89</v>
+        <v>17.78</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T41" s="9" t="inlineStr">
         <is>
@@ -37723,12 +37739,12 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
@@ -37740,32 +37756,24 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>4603010024</t>
+          <t>4105070001</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>GOTERO AUTOCOMPENSADO AUTO-DRIP 4L/H</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr">
-        <is>
-          <t>25UD</t>
-        </is>
-      </c>
-      <c r="D42" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CINTA PARA INJERTAR PLANTAS (3CM) 100M</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr"/>
+      <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -37799,10 +37807,10 @@
         <v>92</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>28.89</v>
+        <v>12.22</v>
       </c>
       <c r="S42" s="5" t="n">
         <v>0</v>
@@ -37819,7 +37827,7 @@
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -37831,24 +37839,24 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>4402010002</t>
+          <t>4603050006</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>TERMOMETRO PARED BLANCO</t>
+          <t>PUNZON PERFORADOR 4MM</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
       <c r="D43" s="3" t="inlineStr"/>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
@@ -37914,32 +37922,24 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>4605010014</t>
+          <t>4106010021</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>PROGRAMADOR RAIN BIRD WPX 9V</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CEPILLO RAICES 5X10 (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr"/>
+      <c r="D44" s="3" t="inlineStr"/>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
@@ -37958,7 +37958,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M44" s="5" t="n">
         <v>0</v>
@@ -37967,19 +37967,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>17.78</v>
+        <v>102.22</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T44" s="9" t="inlineStr">
         <is>
@@ -37988,12 +37988,12 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
@@ -38005,17 +38005,17 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>4603010008</t>
+          <t>4605010014</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>GOTERO AUTOCOMPENSADO AUTO-MAT 2L/H</t>
+          <t>PROGRAMADOR RAIN BIRD WPX 9V</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>10UD</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -38049,7 +38049,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M45" s="5" t="n">
         <v>0</v>
@@ -38058,19 +38058,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>88.89</v>
+        <v>102.22</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T45" s="9" t="inlineStr">
         <is>
@@ -38079,12 +38079,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 82.28€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -38096,24 +38096,24 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>4403020010</t>
+          <t>4603010004</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>KIT SEMILLERO FIBRA CON TAPA+BANDEJA 24HUECOS 4X4</t>
+          <t>GOTERO REGULABLE SPECTRUM-R 0-80L/H C/ ESTACA 25UD</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
       <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
@@ -38179,24 +38179,24 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>4203010005</t>
+          <t>4604060004</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>HUERTO ELEVADO PAPRIKA 80X40X87CM 50L</t>
+          <t>ARQUETA CUADRADA 1 VALVULA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
       <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
@@ -38215,7 +38215,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M47" s="5" t="n">
         <v>0</v>
@@ -38224,19 +38224,19 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>96.67</v>
+        <v>12.22</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T47" s="9" t="inlineStr">
         <is>
@@ -38245,12 +38245,12 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/03/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
@@ -38262,12 +38262,12 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>4604060004</t>
+          <t>4602180016</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>ARQUETA CUADRADA 1 VALVULA</t>
+          <t>MANGUITO RED 1X3/4" CONT</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -38298,7 +38298,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M48" s="5" t="n">
         <v>0</v>
@@ -38307,7 +38307,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>92</v>
@@ -38345,24 +38345,24 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>4301020004</t>
+          <t>4201060008</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR MATABI EVOLUTION 12</t>
+          <t>CORTASETOS NATURECUT FSC 100%</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
       <c r="D49" s="3" t="inlineStr"/>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
@@ -38381,7 +38381,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M49" s="5" t="n">
         <v>0</v>
@@ -38390,16 +38390,16 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>88.89</v>
+        <v>98.89</v>
       </c>
       <c r="S49" s="5" t="n">
         <v>10</v>
@@ -38416,7 +38416,7 @@
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
@@ -38428,12 +38428,12 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>4106010002</t>
+          <t>4106010010</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>CEPILLO BARRER DOMESTICO (NO VENTA)</t>
+          <t>CEPILLO BARRENDERO PP F PROEX SIN MANGO (NO VENTA)</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
@@ -38464,7 +38464,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M50" s="5" t="n">
         <v>0</v>
@@ -38473,19 +38473,19 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>68.89</v>
+        <v>102.22</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T50" s="9" t="inlineStr">
         <is>
@@ -38494,12 +38494,12 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 27.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_UTILES_JARDIN_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_UTILES_JARDIN_P2_2025.xlsx
@@ -3132,12 +3132,12 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>4601010004</t>
+          <t>4601010005</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>REGADERA MONDEGO ANTRACITA</t>
+          <t>REGADERA MONDEGO VERDE SECO</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -3188,7 +3188,7 @@
         <v>-7</v>
       </c>
       <c r="P31" s="3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q31" s="3" t="n">
         <v>0</v>
@@ -3223,12 +3223,12 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>4601010005</t>
+          <t>4601010004</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>REGADERA MONDEGO VERDE SECO</t>
+          <t>REGADERA MONDEGO ANTRACITA</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -3279,7 +3279,7 @@
         <v>-7</v>
       </c>
       <c r="P32" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q32" s="3" t="n">
         <v>0</v>
@@ -3314,24 +3314,16 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>4602110002</t>
+          <t>4604020001</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>XPANSY HOSE MANGUERA EXTENSIBLE PRO + ACCESORIOS</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>15M</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ROLLO 25M TUBERIA PE 6AT/20MM</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="3" t="inlineStr">
         <is>
           <t>46</t>
@@ -3346,75 +3338,83 @@
         <v>90</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>67.98</v>
+        <v>59.97</v>
       </c>
       <c r="J33" s="3" t="n">
-        <v>28.28</v>
+        <v>21.66</v>
       </c>
       <c r="K33" s="3" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L33" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M33" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N33" s="4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O33" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="N33" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O33" s="3" t="n">
-        <v>-2</v>
-      </c>
       <c r="P33" s="3" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R33" s="3" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" s="5" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T33" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V33" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W33" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>4604020001</t>
+          <t>4602110002</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>ROLLO 25M TUBERIA PE 6AT/20MM</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr"/>
-      <c r="D34" s="2" t="inlineStr"/>
+          <t>XPANSY HOSE MANGUERA EXTENSIBLE PRO + ACCESORIOS</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>15M</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
           <t>46</t>
@@ -3429,59 +3429,59 @@
         <v>90</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>59.97</v>
+        <v>67.98</v>
       </c>
       <c r="J34" s="3" t="n">
-        <v>21.66</v>
+        <v>28.28</v>
       </c>
       <c r="K34" s="3" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L34" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M34" s="4" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="N34" s="4" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="O34" s="3" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P34" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="P34" s="3" t="n">
-        <v>25</v>
-      </c>
       <c r="Q34" s="3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R34" s="3" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S34" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T34" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T34" s="5" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V34" s="3" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W34" s="3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -7632,24 +7632,16 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>4603040003</t>
+          <t>4602180007</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>ROLLO MICROTUBO NEGRO 4MM</t>
-        </is>
-      </c>
-      <c r="C83" s="2" t="inlineStr">
-        <is>
-          <t>15M</t>
-        </is>
-      </c>
-      <c r="D83" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DISTRIBUIDOR 4 VIAS 1"-3/4" CON ADAP DE GRIFO</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr"/>
+      <c r="D83" s="2" t="inlineStr"/>
       <c r="E83" s="3" t="inlineStr">
         <is>
           <t>46</t>
@@ -7667,13 +7659,13 @@
         <v>3</v>
       </c>
       <c r="I83" s="3" t="n">
-        <v>33.32</v>
+        <v>31.5</v>
       </c>
       <c r="J83" s="3" t="n">
-        <v>12.69</v>
+        <v>11.18</v>
       </c>
       <c r="K83" s="3" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="n">
         <v>0</v>
@@ -7685,16 +7677,16 @@
         <v>4.4</v>
       </c>
       <c r="O83" s="3" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="P83" s="3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q83" s="3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="n">
-        <v>12.22</v>
+        <v>0</v>
       </c>
       <c r="S83" s="4" t="n">
         <v>0</v>
@@ -7706,33 +7698,41 @@
       </c>
       <c r="U83" s="2" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 61 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V83" s="3" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W83" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>4602180007</t>
+          <t>4603040003</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>DISTRIBUIDOR 4 VIAS 1"-3/4" CON ADAP DE GRIFO</t>
-        </is>
-      </c>
-      <c r="C84" s="2" t="inlineStr"/>
-      <c r="D84" s="2" t="inlineStr"/>
+          <t>ROLLO MICROTUBO NEGRO 4MM</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>15M</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
           <t>46</t>
@@ -7750,13 +7750,13 @@
         <v>3</v>
       </c>
       <c r="I84" s="3" t="n">
-        <v>31.5</v>
+        <v>33.32</v>
       </c>
       <c r="J84" s="3" t="n">
-        <v>11.18</v>
+        <v>12.69</v>
       </c>
       <c r="K84" s="3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L84" s="3" t="n">
         <v>0</v>
@@ -7768,16 +7768,16 @@
         <v>4.4</v>
       </c>
       <c r="O84" s="3" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="P84" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="Q84" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="R84" s="3" t="n">
-        <v>0</v>
+        <v>12.22</v>
       </c>
       <c r="S84" s="4" t="n">
         <v>0</v>
@@ -7789,17 +7789,17 @@
       </c>
       <c r="U84" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 61 días.</t>
         </is>
       </c>
       <c r="V84" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W84" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -9257,166 +9257,166 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>4403020010</t>
+          <t>4301010008</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>KIT SEMILLERO TUBA CON TAPA+ BANDEJA 24 HUECOS</t>
+          <t>PULVERIZADOR ROJO 1L ECLOZ</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr"/>
       <c r="D102" s="2" t="inlineStr"/>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F102" s="3" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G102" s="3" t="n">
         <v>90</v>
       </c>
       <c r="H102" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I102" s="3" t="n">
-        <v>47.8</v>
+        <v>29.95</v>
       </c>
       <c r="J102" s="3" t="n">
-        <v>27.3</v>
+        <v>12.55</v>
       </c>
       <c r="K102" s="3" t="n">
-        <v>0</v>
+        <v>20.83</v>
       </c>
       <c r="L102" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M102" s="4" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N102" s="4" t="n">
-        <v>5.9</v>
+        <v>7.3</v>
       </c>
       <c r="O102" s="3" t="n">
-        <v>-4</v>
+        <v>19</v>
       </c>
       <c r="P102" s="3" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="Q102" s="3" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R102" s="3" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S102" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T102" s="5" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T102" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U102" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V102" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W102" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>4301010008</t>
+          <t>4403020010</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>PULVERIZADOR ROJO 1L ECLOZ</t>
+          <t>KIT SEMILLERO TUBA CON TAPA+ BANDEJA 24 HUECOS</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr"/>
       <c r="D103" s="2" t="inlineStr"/>
       <c r="E103" s="3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F103" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G103" s="3" t="n">
         <v>90</v>
       </c>
       <c r="H103" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I103" s="3" t="n">
-        <v>29.95</v>
+        <v>47.8</v>
       </c>
       <c r="J103" s="3" t="n">
-        <v>12.55</v>
+        <v>27.3</v>
       </c>
       <c r="K103" s="3" t="n">
-        <v>20.83</v>
+        <v>0</v>
       </c>
       <c r="L103" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M103" s="4" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="N103" s="4" t="n">
-        <v>7.3</v>
+        <v>5.9</v>
       </c>
       <c r="O103" s="3" t="n">
-        <v>19</v>
+        <v>-4</v>
       </c>
       <c r="P103" s="3" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="Q103" s="3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R103" s="3" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S103" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T103" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T103" s="5" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U103" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V103" s="3" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W103" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -9680,31 +9680,31 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>4105040031</t>
+          <t>4301010006</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>ESPATULA SOLADOR 55CM + MANGO 1500X25MM (*)</t>
+          <t>PULVERIZADOR 7 JD 5L</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr"/>
       <c r="D107" s="2" t="inlineStr"/>
       <c r="E107" s="3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F107" s="3" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G107" s="3" t="n">
         <v>90</v>
       </c>
       <c r="H107" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" s="3" t="n">
         <v>27.9</v>
@@ -9719,17 +9719,17 @@
         <v>0</v>
       </c>
       <c r="M107" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N107" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O107" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P107" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="N107" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O107" s="3" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P107" s="3" t="n">
-        <v>16</v>
-      </c>
       <c r="Q107" s="3" t="n">
         <v>0</v>
       </c>
@@ -9746,7 +9746,7 @@
       </c>
       <c r="U107" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V107" s="3" t="inlineStr">
@@ -9763,31 +9763,31 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>4301010006</t>
+          <t>4105040031</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>PULVERIZADOR 7 JD 5L</t>
+          <t>ESPATULA SOLADOR 55CM + MANGO 1500X25MM (*)</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr"/>
       <c r="D108" s="2" t="inlineStr"/>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F108" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G108" s="3" t="n">
         <v>90</v>
       </c>
       <c r="H108" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" s="3" t="n">
         <v>27.9</v>
@@ -9802,16 +9802,16 @@
         <v>0</v>
       </c>
       <c r="M108" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N108" s="4" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O108" s="3" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P108" s="3" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Q108" s="3" t="n">
         <v>0</v>
@@ -9829,7 +9829,7 @@
       </c>
       <c r="U108" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V108" s="3" t="inlineStr">
@@ -12001,12 +12001,12 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>4103070008</t>
+          <t>4103070007</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>AZADA LANZA FORJADA CON MANGO 40CM</t>
+          <t>AZADA HORQUILLA FORJADA CON MANGO 40CM</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr"/>
@@ -12049,7 +12049,7 @@
         <v>-1</v>
       </c>
       <c r="P134" s="3" t="n">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="Q134" s="3" t="n">
         <v>0</v>
@@ -12084,12 +12084,12 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>4103070007</t>
+          <t>4103070008</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>AZADA HORQUILLA FORJADA CON MANGO 40CM</t>
+          <t>AZADA LANZA FORJADA CON MANGO 40CM</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr"/>
@@ -12132,7 +12132,7 @@
         <v>-1</v>
       </c>
       <c r="P135" s="3" t="n">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="Q135" s="3" t="n">
         <v>0</v>
@@ -14651,32 +14651,24 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>4501020006</t>
+          <t>4604040004</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>GUANTES JD ESPECIAL ROSALES VERDE</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>T7</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DIFUSOR LARGO C/TOB UNISPRAY 415</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>PROTECCION PERSONAL</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G11" s="3" t="n">
@@ -14686,10 +14678,10 @@
         <v>3</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>17.85</v>
+        <v>26.97</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>7.38</v>
+        <v>14.91</v>
       </c>
       <c r="K11" s="3" t="n">
         <v>0</v>
@@ -14742,24 +14734,32 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>4604040004</t>
+          <t>4501020006</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>DIFUSOR LARGO C/TOB UNISPRAY 415</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr"/>
-      <c r="D12" s="2" t="inlineStr"/>
+          <t>GUANTES JD ESPECIAL ROSALES VERDE</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>T7</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION PERSONAL</t>
         </is>
       </c>
       <c r="G12" s="3" t="n">
@@ -14769,10 +14769,10 @@
         <v>3</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>26.97</v>
+        <v>17.85</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>14.91</v>
+        <v>7.38</v>
       </c>
       <c r="K12" s="3" t="n">
         <v>0</v>
@@ -15772,7 +15772,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>T6I8</t>
+          <t>T8I10</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -15818,7 +15818,7 @@
         <v>-3</v>
       </c>
       <c r="P24" s="3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q24" s="3" t="n">
         <v>0</v>
@@ -15863,7 +15863,7 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>T8I10</t>
+          <t>T6I8</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -15909,7 +15909,7 @@
         <v>-3</v>
       </c>
       <c r="P25" s="3" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Q25" s="3" t="n">
         <v>0</v>
@@ -16027,61 +16027,69 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>4201010004</t>
+          <t>4105080012</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>TIJERA DE CORTE DE HOJA CLASIC</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr"/>
-      <c r="D27" s="2" t="inlineStr"/>
+          <t>PLATO RECTANGULAR BONSAI COLORES</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>20CM</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G27" s="3" t="n">
         <v>90</v>
       </c>
       <c r="H27" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="J27" s="3" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="K27" s="3" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="L27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="I27" s="3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J27" s="3" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="K27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="4" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N27" s="4" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="P27" s="3" t="n">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R27" s="3" t="n">
-        <v>0</v>
+        <v>44.44</v>
       </c>
       <c r="S27" s="4" t="n">
         <v>0</v>
@@ -16093,86 +16101,78 @@
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 184 días.</t>
         </is>
       </c>
       <c r="V27" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 21/04/2025</t>
         </is>
       </c>
       <c r="W27" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>4105080012</t>
+          <t>4201010004</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>PLATO RECTANGULAR BONSAI COLORES</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>20CM</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TIJERA DE CORTE DE HOJA CLASIC</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr"/>
+      <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G28" s="3" t="n">
         <v>90</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>13.98</v>
+        <v>16.5</v>
       </c>
       <c r="J28" s="3" t="n">
-        <v>4.73</v>
+        <v>6.82</v>
       </c>
       <c r="K28" s="3" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="L28" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M28" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N28" s="4" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="P28" s="3" t="n">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R28" s="3" t="n">
-        <v>44.44</v>
+        <v>0</v>
       </c>
       <c r="S28" s="4" t="n">
         <v>0</v>
@@ -16184,17 +16184,17 @@
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 184 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V28" s="3" t="inlineStr">
         <is>
-          <t>Compra 21/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W28" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -16383,61 +16383,69 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>4105090009</t>
+          <t>4603030002</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>POWER GEL BL 3GR</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr"/>
-      <c r="D31" s="2" t="inlineStr"/>
+          <t>TAPON 16MM</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>25UD</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G31" s="3" t="n">
         <v>90</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>15.98</v>
+        <v>10.47</v>
       </c>
       <c r="J31" s="3" t="n">
-        <v>6.6</v>
+        <v>2.05</v>
       </c>
       <c r="K31" s="3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L31" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M31" s="4" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="N31" s="4" t="n">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="P31" s="3" t="n">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R31" s="3" t="n">
-        <v>0</v>
+        <v>28.89</v>
       </c>
       <c r="S31" s="4" t="n">
         <v>0</v>
@@ -16449,86 +16457,78 @@
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 214 días.</t>
         </is>
       </c>
       <c r="V31" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W31" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>4603020021</t>
+          <t>4105090009</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>TE 16 MM</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>10UD</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>POWER GEL BL 3GR</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr"/>
+      <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G32" s="3" t="n">
         <v>90</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I32" s="3" t="n">
-        <v>13.6</v>
+        <v>15.98</v>
       </c>
       <c r="J32" s="3" t="n">
-        <v>4.64</v>
+        <v>6.6</v>
       </c>
       <c r="K32" s="3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M32" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N32" s="4" t="n">
-        <v>5.9</v>
+        <v>2.9</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="P32" s="3" t="n">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="n">
-        <v>28.89</v>
+        <v>0</v>
       </c>
       <c r="S32" s="4" t="n">
         <v>0</v>
@@ -16540,34 +16540,34 @@
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 138 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V32" s="3" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W32" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>4603030002</t>
+          <t>4603020021</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>TAPON 16MM</t>
+          <t>TE 16 MM</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>25UD</t>
+          <t>10UD</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
@@ -16589,31 +16589,31 @@
         <v>90</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>10.47</v>
+        <v>13.6</v>
       </c>
       <c r="J33" s="3" t="n">
-        <v>2.05</v>
+        <v>4.64</v>
       </c>
       <c r="K33" s="3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L33" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M33" s="4" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N33" s="4" t="n">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P33" s="3" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="Q33" s="3" t="n">
         <v>26</v>
@@ -16631,7 +16631,7 @@
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 214 días.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 138 días.</t>
         </is>
       </c>
       <c r="V33" s="3" t="inlineStr">
@@ -17502,37 +17502,37 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>4602150004</t>
+          <t>4403020005</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>COLGADOR MANGUERA VERDE MAX 10KG CARGA</t>
+          <t>KIT SEMILLERO PLAST CON TAPA+ BANDEJA 24 HUECOS</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr"/>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G44" s="3" t="n">
         <v>90</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I44" s="3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J44" s="3" t="n">
-        <v>5.45</v>
+        <v>5.04</v>
       </c>
       <c r="K44" s="3" t="n">
         <v>0</v>
@@ -17541,16 +17541,16 @@
         <v>0</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>5.9</v>
+        <v>1.5</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="P44" s="3" t="n">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="Q44" s="3" t="n">
         <v>0</v>
@@ -17568,7 +17568,7 @@
       </c>
       <c r="U44" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V44" s="3" t="inlineStr">
@@ -17668,37 +17668,37 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>4403020005</t>
+          <t>4602150004</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>KIT SEMILLERO PLAST CON TAPA+ BANDEJA 24 HUECOS</t>
+          <t>COLGADOR MANGUERA VERDE MAX 10KG CARGA</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr"/>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G46" s="3" t="n">
         <v>90</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I46" s="3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="J46" s="3" t="n">
-        <v>5.04</v>
+        <v>5.45</v>
       </c>
       <c r="K46" s="3" t="n">
         <v>0</v>
@@ -17707,16 +17707,16 @@
         <v>0</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>1.5</v>
+        <v>5.9</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="P46" s="3" t="n">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="Q46" s="3" t="n">
         <v>0</v>
@@ -17734,7 +17734,7 @@
       </c>
       <c r="U46" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V46" s="3" t="inlineStr">
@@ -19499,12 +19499,12 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>4403020016</t>
+          <t>4403020014</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>KIT MACETA DE TERRACOTA 8CM - PLANTA BRILLANTE</t>
+          <t>KIT MACETA DE TERRACOTA 8CM - MIMOSA SENSITIVA</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr"/>
@@ -19547,7 +19547,7 @@
         <v>-2</v>
       </c>
       <c r="P67" s="3" t="n">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="Q67" s="3" t="n">
         <v>0</v>
@@ -19665,12 +19665,12 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>4403020014</t>
+          <t>4403020016</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>KIT MACETA DE TERRACOTA 8CM - MIMOSA SENSITIVA</t>
+          <t>KIT MACETA DE TERRACOTA 8CM - PLANTA BRILLANTE</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr"/>
@@ -19713,7 +19713,7 @@
         <v>-2</v>
       </c>
       <c r="P69" s="3" t="n">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="Q69" s="3" t="n">
         <v>0</v>
@@ -20620,7 +20620,7 @@
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
@@ -20666,7 +20666,7 @@
         <v>-2</v>
       </c>
       <c r="P80" s="3" t="n">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="Q80" s="3" t="n">
         <v>0</v>
@@ -20701,45 +20701,37 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>4501030001</t>
+          <t>4202010001</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>GUANTES JD PLANTACIONES</t>
-        </is>
-      </c>
-      <c r="C81" s="2" t="inlineStr">
-        <is>
-          <t>T8</t>
-        </is>
-      </c>
-      <c r="D81" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ARCO SIERRA CON HOJA TRONZ WOLFPACK</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr"/>
+      <c r="D81" s="2" t="inlineStr"/>
       <c r="E81" s="3" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F81" s="3" t="inlineStr">
         <is>
-          <t>PROTECCION PERSONAL</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G81" s="3" t="n">
         <v>90</v>
       </c>
       <c r="H81" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" s="3" t="n">
-        <v>11.98</v>
+        <v>9.99</v>
       </c>
       <c r="J81" s="3" t="n">
-        <v>5.44</v>
+        <v>3.8</v>
       </c>
       <c r="K81" s="3" t="n">
         <v>0</v>
@@ -20748,16 +20740,16 @@
         <v>0</v>
       </c>
       <c r="M81" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N81" s="4" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O81" s="3" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P81" s="3" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Q81" s="3" t="n">
         <v>0</v>
@@ -20775,7 +20767,7 @@
       </c>
       <c r="U81" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V81" s="3" t="inlineStr">
@@ -20792,55 +20784,63 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>4202010001</t>
+          <t>4501030001</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>ARCO SIERRA CON HOJA TRONZ WOLFPACK</t>
-        </is>
-      </c>
-      <c r="C82" s="2" t="inlineStr"/>
-      <c r="D82" s="2" t="inlineStr"/>
+          <t>GUANTES JD PLANTACIONES</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>T10</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F82" s="3" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>PROTECCION PERSONAL</t>
         </is>
       </c>
       <c r="G82" s="3" t="n">
         <v>90</v>
       </c>
       <c r="H82" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I82" s="3" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="J82" s="3" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="K82" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="I82" s="3" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="J82" s="3" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K82" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" s="4" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N82" s="4" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O82" s="3" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P82" s="3" t="n">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="Q82" s="3" t="n">
         <v>0</v>
@@ -20858,7 +20858,7 @@
       </c>
       <c r="U82" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V82" s="3" t="inlineStr">
@@ -21314,12 +21314,12 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>4104010010</t>
+          <t>4104010011</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>RASTRILLO 7 DIENTES KIDS GARDEN VERDE</t>
+          <t>RASTRILLO 7 DIENTES KIDS GARDEN AZUL</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr"/>
@@ -21362,7 +21362,7 @@
         <v>-1</v>
       </c>
       <c r="P88" s="3" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="Q88" s="3" t="n">
         <v>0</v>
@@ -21397,12 +21397,12 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>4104010011</t>
+          <t>4104010010</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>RASTRILLO 7 DIENTES KIDS GARDEN AZUL</t>
+          <t>RASTRILLO 7 DIENTES KIDS GARDEN VERDE</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr"/>
@@ -21445,7 +21445,7 @@
         <v>-1</v>
       </c>
       <c r="P89" s="3" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="Q89" s="3" t="n">
         <v>0</v>
@@ -21490,7 +21490,7 @@
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
@@ -21536,7 +21536,7 @@
         <v>-1</v>
       </c>
       <c r="P90" s="3" t="n">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="Q90" s="3" t="n">
         <v>0</v>
@@ -21581,7 +21581,7 @@
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
@@ -21627,7 +21627,7 @@
         <v>-1</v>
       </c>
       <c r="P91" s="3" t="n">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="Q91" s="3" t="n">
         <v>0</v>
@@ -21828,12 +21828,12 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>4104010007</t>
+          <t>4104010000</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>ESCOBA METALICA KIDS GARDEN VERDE</t>
+          <t>PALA KIDS GARDEN ROSA</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr"/>
@@ -21876,7 +21876,7 @@
         <v>-1</v>
       </c>
       <c r="P94" s="3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q94" s="3" t="n">
         <v>0</v>
@@ -21994,12 +21994,12 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>4104010000</t>
+          <t>4104010007</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>PALA KIDS GARDEN ROSA</t>
+          <t>ESCOBA METALICA KIDS GARDEN VERDE</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr"/>
@@ -22042,7 +22042,7 @@
         <v>-1</v>
       </c>
       <c r="P96" s="3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q96" s="3" t="n">
         <v>0</v>
@@ -22168,16 +22168,24 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>4603020009</t>
+          <t>4603010011</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>ADAPTADOR HEMBRA 12-16 X1/2-3/4</t>
-        </is>
-      </c>
-      <c r="C98" s="2" t="inlineStr"/>
-      <c r="D98" s="2" t="inlineStr"/>
+          <t>GOTERO REGULABLE SPIDER-R 0-60L/H</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>10UD</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
           <t>46</t>
@@ -22195,10 +22203,10 @@
         <v>3</v>
       </c>
       <c r="I98" s="3" t="n">
-        <v>8.369999999999999</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="J98" s="3" t="n">
-        <v>3.17</v>
+        <v>3.66</v>
       </c>
       <c r="K98" s="3" t="n">
         <v>30</v>
@@ -22216,35 +22224,35 @@
         <v>7</v>
       </c>
       <c r="P98" s="3" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Q98" s="3" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="R98" s="3" t="n">
-        <v>28.89</v>
+        <v>88.89</v>
       </c>
       <c r="S98" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T98" s="5" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T98" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U98" s="2" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 214 días.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V98" s="3" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W98" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -22261,7 +22269,7 @@
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>10UD</t>
+          <t>50UD</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr">
@@ -22283,31 +22291,31 @@
         <v>90</v>
       </c>
       <c r="H99" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I99" s="3" t="n">
-        <v>8.970000000000001</v>
+        <v>8.99</v>
       </c>
       <c r="J99" s="3" t="n">
-        <v>3.66</v>
+        <v>3.68</v>
       </c>
       <c r="K99" s="3" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L99" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M99" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N99" s="4" t="n">
         <v>1.5</v>
       </c>
-      <c r="N99" s="4" t="n">
-        <v>4.4</v>
-      </c>
       <c r="O99" s="3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P99" s="3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q99" s="3" t="n">
         <v>80</v>
@@ -22342,24 +22350,16 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>4603010011</t>
+          <t>4603020009</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>GOTERO REGULABLE SPIDER-R 0-60L/H</t>
-        </is>
-      </c>
-      <c r="C100" s="2" t="inlineStr">
-        <is>
-          <t>50UD</t>
-        </is>
-      </c>
-      <c r="D100" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ADAPTADOR HEMBRA 12-16 X1/2-3/4</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr"/>
+      <c r="D100" s="2" t="inlineStr"/>
       <c r="E100" s="3" t="inlineStr">
         <is>
           <t>46</t>
@@ -22374,59 +22374,59 @@
         <v>90</v>
       </c>
       <c r="H100" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I100" s="3" t="n">
-        <v>8.99</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="J100" s="3" t="n">
-        <v>3.68</v>
+        <v>3.17</v>
       </c>
       <c r="K100" s="3" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L100" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M100" s="4" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="N100" s="4" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="O100" s="3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P100" s="3" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Q100" s="3" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="R100" s="3" t="n">
-        <v>88.89</v>
+        <v>28.89</v>
       </c>
       <c r="S100" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T100" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T100" s="5" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U100" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 214 días.</t>
         </is>
       </c>
       <c r="V100" s="3" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W100" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -22698,32 +22698,24 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>4603020021</t>
+          <t>4403020008</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>TE 16 MM</t>
-        </is>
-      </c>
-      <c r="C104" s="2" t="inlineStr">
-        <is>
-          <t>25UD</t>
-        </is>
-      </c>
-      <c r="D104" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PACK 20 PASTILLAS COCO 50MM</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr"/>
+      <c r="D104" s="2" t="inlineStr"/>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F104" s="3" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G104" s="3" t="n">
@@ -22733,13 +22725,13 @@
         <v>1</v>
       </c>
       <c r="I104" s="3" t="n">
-        <v>6.5</v>
+        <v>8.75</v>
       </c>
       <c r="J104" s="3" t="n">
-        <v>1.75</v>
+        <v>3.62</v>
       </c>
       <c r="K104" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L104" s="3" t="n">
         <v>0</v>
@@ -22751,16 +22743,16 @@
         <v>1.5</v>
       </c>
       <c r="O104" s="3" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P104" s="3" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="Q104" s="3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R104" s="3" t="n">
-        <v>28.89</v>
+        <v>0</v>
       </c>
       <c r="S104" s="4" t="n">
         <v>0</v>
@@ -22772,17 +22764,17 @@
       </c>
       <c r="U104" s="2" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 828 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V104" s="3" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W104" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -22880,24 +22872,32 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>4403020008</t>
+          <t>4603020021</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>PACK 20 PASTILLAS COCO 50MM</t>
-        </is>
-      </c>
-      <c r="C106" s="2" t="inlineStr"/>
-      <c r="D106" s="2" t="inlineStr"/>
+          <t>TE 16 MM</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>25UD</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F106" s="3" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G106" s="3" t="n">
@@ -22907,13 +22907,13 @@
         <v>1</v>
       </c>
       <c r="I106" s="3" t="n">
-        <v>8.75</v>
+        <v>6.5</v>
       </c>
       <c r="J106" s="3" t="n">
-        <v>3.62</v>
+        <v>1.75</v>
       </c>
       <c r="K106" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L106" s="3" t="n">
         <v>0</v>
@@ -22925,16 +22925,16 @@
         <v>1.5</v>
       </c>
       <c r="O106" s="3" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P106" s="3" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="Q106" s="3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R106" s="3" t="n">
-        <v>0</v>
+        <v>28.89</v>
       </c>
       <c r="S106" s="4" t="n">
         <v>0</v>
@@ -22946,17 +22946,17 @@
       </c>
       <c r="U106" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 828 días.</t>
         </is>
       </c>
       <c r="V106" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W106" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -23220,24 +23220,16 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>4603030002</t>
+          <t>4603010001</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>TAPON 16MM</t>
-        </is>
-      </c>
-      <c r="C110" s="2" t="inlineStr">
-        <is>
-          <t>4UD</t>
-        </is>
-      </c>
-      <c r="D110" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>GOTERO INTERLINEA BARREL 4L/H ROJO 10UD</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr"/>
+      <c r="D110" s="2" t="inlineStr"/>
       <c r="E110" s="3" t="inlineStr">
         <is>
           <t>46</t>
@@ -23252,31 +23244,31 @@
         <v>90</v>
       </c>
       <c r="H110" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I110" s="3" t="n">
-        <v>8.609999999999999</v>
+        <v>7.98</v>
       </c>
       <c r="J110" s="3" t="n">
-        <v>3.62</v>
+        <v>3.1</v>
       </c>
       <c r="K110" s="3" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="L110" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M110" s="4" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="N110" s="4" t="n">
-        <v>10.3</v>
+        <v>2.9</v>
       </c>
       <c r="O110" s="3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P110" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q110" s="3" t="n">
         <v>80</v>
@@ -23294,7 +23286,7 @@
       </c>
       <c r="U110" s="2" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V110" s="3" t="inlineStr">
@@ -23304,23 +23296,31 @@
       </c>
       <c r="W110" s="3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>4603010001</t>
+          <t>4603030002</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>GOTERO INTERLINEA BARREL 4L/H ROJO 10UD</t>
-        </is>
-      </c>
-      <c r="C111" s="2" t="inlineStr"/>
-      <c r="D111" s="2" t="inlineStr"/>
+          <t>TAPON 16MM</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>4UD</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E111" s="3" t="inlineStr">
         <is>
           <t>46</t>
@@ -23335,31 +23335,31 @@
         <v>90</v>
       </c>
       <c r="H111" s="3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I111" s="3" t="n">
-        <v>7.98</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="J111" s="3" t="n">
-        <v>3.1</v>
+        <v>3.62</v>
       </c>
       <c r="K111" s="3" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="L111" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M111" s="4" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="N111" s="4" t="n">
-        <v>2.9</v>
+        <v>10.3</v>
       </c>
       <c r="O111" s="3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P111" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q111" s="3" t="n">
         <v>80</v>
@@ -23377,7 +23377,7 @@
       </c>
       <c r="U111" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V111" s="3" t="inlineStr">
@@ -23387,7 +23387,7 @@
       </c>
       <c r="W111" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -26641,37 +26641,45 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>4404040003</t>
+          <t>4603010016</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>ETIQUETAS PICUDAS PLASTICO 12CM 25UDS</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr"/>
-      <c r="D30" s="2" t="inlineStr"/>
+          <t>GOTERO TURBULENTO 8 L/H</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>25UD</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G30" s="3" t="n">
         <v>90</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>5.98</v>
+        <v>5.37</v>
       </c>
       <c r="J30" s="3" t="n">
-        <v>2.54</v>
+        <v>2.04</v>
       </c>
       <c r="K30" s="3" t="n">
         <v>0</v>
@@ -26680,16 +26688,16 @@
         <v>0</v>
       </c>
       <c r="M30" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N30" s="4" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P30" s="3" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="Q30" s="3" t="n">
         <v>0</v>
@@ -26707,7 +26715,7 @@
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V30" s="3" t="inlineStr">
@@ -26724,63 +26732,55 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>4603010016</t>
+          <t>4404040003</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>GOTERO TURBULENTO 8 L/H</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>25UD</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ETIQUETAS PICUDAS PLASTICO 12CM 25UDS</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr"/>
+      <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G31" s="3" t="n">
         <v>90</v>
       </c>
       <c r="H31" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="J31" s="3" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="I31" s="3" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="J31" s="3" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="K31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="4" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N31" s="4" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P31" s="3" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="Q31" s="3" t="n">
         <v>0</v>
@@ -26798,7 +26798,7 @@
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V31" s="3" t="inlineStr">
@@ -28025,39 +28025,31 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>4604050017</t>
+          <t>4504010001</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>TAPON ROSCA HEMBRA</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>3I4P</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>COJIN JARDINERO JD</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr"/>
+      <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION PERSONAL</t>
         </is>
       </c>
       <c r="G46" s="3" t="n">
         <v>90</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I46" s="3" t="n">
         <v>4.95</v>
@@ -28072,16 +28064,16 @@
         <v>0</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>7.3</v>
+        <v>1.5</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="P46" s="3" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="Q46" s="3" t="n">
         <v>0</v>
@@ -28099,7 +28091,7 @@
       </c>
       <c r="U46" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V46" s="3" t="inlineStr">
@@ -28116,16 +28108,24 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>4603010024</t>
+          <t>4604050023</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>GOTERO AUTOCOMPENSADO AUTO-DRIP 4L/H 10UD</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr"/>
-      <c r="D47" s="2" t="inlineStr"/>
+          <t>TERMINAL ROSCA MACHO</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>25I3/4</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
           <t>46</t>
@@ -28140,7 +28140,7 @@
         <v>90</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I47" s="3" t="n">
         <v>4.95</v>
@@ -28149,67 +28149,67 @@
         <v>2.05</v>
       </c>
       <c r="K47" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>9</v>
+        <v>-3</v>
       </c>
       <c r="P47" s="3" t="n">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="Q47" s="3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R47" s="3" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S47" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T47" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T47" s="5" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V47" s="3" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W47" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>4604050023</t>
+          <t>4604050017</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>TERMINAL ROSCA MACHO</t>
+          <t>TAPON ROSCA HEMBRA</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>25I3/4</t>
+          <t>3I4P</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
@@ -28231,7 +28231,7 @@
         <v>90</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I48" s="3" t="n">
         <v>4.95</v>
@@ -28246,16 +28246,16 @@
         <v>0</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>4.4</v>
+        <v>7.3</v>
       </c>
       <c r="O48" s="3" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="P48" s="3" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="Q48" s="3" t="n">
         <v>0</v>
@@ -28273,7 +28273,7 @@
       </c>
       <c r="U48" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V48" s="3" t="inlineStr">
@@ -28290,24 +28290,24 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>4504010001</t>
+          <t>4603010024</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>COJIN JARDINERO JD</t>
+          <t>GOTERO AUTOCOMPENSADO AUTO-DRIP 4L/H 10UD</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr"/>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>PROTECCION PERSONAL</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G49" s="3" t="n">
@@ -28323,7 +28323,7 @@
         <v>2.05</v>
       </c>
       <c r="K49" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L49" s="3" t="n">
         <v>0</v>
@@ -28335,38 +28335,38 @@
         <v>1.5</v>
       </c>
       <c r="O49" s="3" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P49" s="3" t="n">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="Q49" s="3" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R49" s="3" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S49" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" s="5" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T49" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U49" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V49" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W49" s="3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -28820,17 +28820,17 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>4604060003</t>
+          <t>4603020017</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>RAIN BOBINA RECORTABLE PROLONGADOR</t>
+          <t>ENLACE 16MM</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>1I2P</t>
+          <t>25UD</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
@@ -28852,13 +28852,13 @@
         <v>90</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I55" s="3" t="n">
-        <v>4.69</v>
+        <v>3.99</v>
       </c>
       <c r="J55" s="3" t="n">
-        <v>1.99</v>
+        <v>1.41</v>
       </c>
       <c r="K55" s="3" t="n">
         <v>0</v>
@@ -28867,16 +28867,16 @@
         <v>0</v>
       </c>
       <c r="M55" s="4" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="N55" s="4" t="n">
-        <v>10.3</v>
+        <v>1.5</v>
       </c>
       <c r="O55" s="3" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="P55" s="3" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Q55" s="3" t="n">
         <v>0</v>
@@ -28894,7 +28894,7 @@
       </c>
       <c r="U55" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -7 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V55" s="3" t="inlineStr">
@@ -28911,17 +28911,17 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>4603020017</t>
+          <t>4604060003</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>ENLACE 16MM</t>
+          <t>RAIN BOBINA RECORTABLE PROLONGADOR</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>25UD</t>
+          <t>1I2P</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
@@ -28943,13 +28943,13 @@
         <v>90</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I56" s="3" t="n">
-        <v>3.99</v>
+        <v>4.69</v>
       </c>
       <c r="J56" s="3" t="n">
-        <v>1.41</v>
+        <v>1.99</v>
       </c>
       <c r="K56" s="3" t="n">
         <v>0</v>
@@ -28958,16 +28958,16 @@
         <v>0</v>
       </c>
       <c r="M56" s="4" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="N56" s="4" t="n">
-        <v>1.5</v>
+        <v>10.3</v>
       </c>
       <c r="O56" s="3" t="n">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="P56" s="3" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="Q56" s="3" t="n">
         <v>0</v>
@@ -28985,7 +28985,7 @@
       </c>
       <c r="U56" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -7 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V56" s="3" t="inlineStr">
@@ -29433,32 +29433,24 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>4501030002</t>
+          <t>4602180012</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>GUANTES JD TRATAMIENTO TALLA 9</t>
-        </is>
-      </c>
-      <c r="C62" s="2" t="inlineStr">
-        <is>
-          <t>T8</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ENLACE RAPIDO BIMATERIA STOP MANGUERA HELICOIDAL</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr"/>
+      <c r="D62" s="2" t="inlineStr"/>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F62" s="3" t="inlineStr">
         <is>
-          <t>PROTECCION PERSONAL</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G62" s="3" t="n">
@@ -29468,13 +29460,13 @@
         <v>1</v>
       </c>
       <c r="I62" s="3" t="n">
-        <v>3.99</v>
+        <v>3.49</v>
       </c>
       <c r="J62" s="3" t="n">
-        <v>1.65</v>
+        <v>1.23</v>
       </c>
       <c r="K62" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L62" s="3" t="n">
         <v>0</v>
@@ -29486,16 +29478,16 @@
         <v>1.5</v>
       </c>
       <c r="O62" s="3" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P62" s="3" t="n">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="Q62" s="3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R62" s="3" t="n">
-        <v>0</v>
+        <v>12.22</v>
       </c>
       <c r="S62" s="4" t="n">
         <v>0</v>
@@ -29507,29 +29499,29 @@
       </c>
       <c r="U62" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 828 días.</t>
         </is>
       </c>
       <c r="V62" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W62" s="3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>4602180012</t>
+          <t>4603010028</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>ENLACE RAPIDO BIMATERIA STOP MANGUERA HELICOIDAL</t>
+          <t>MICRO 10 MAXI-JET 90°</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr"/>
@@ -29551,13 +29543,13 @@
         <v>1</v>
       </c>
       <c r="I63" s="3" t="n">
-        <v>3.49</v>
+        <v>3.99</v>
       </c>
       <c r="J63" s="3" t="n">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="K63" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L63" s="3" t="n">
         <v>0</v>
@@ -29569,16 +29561,16 @@
         <v>1.5</v>
       </c>
       <c r="O63" s="3" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P63" s="3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q63" s="3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R63" s="3" t="n">
-        <v>12.22</v>
+        <v>0</v>
       </c>
       <c r="S63" s="4" t="n">
         <v>0</v>
@@ -29590,41 +29582,49 @@
       </c>
       <c r="U63" s="2" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 828 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V63" s="3" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W63" s="3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>4603010028</t>
+          <t>4501030002</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>MICRO 10 MAXI-JET 90°</t>
-        </is>
-      </c>
-      <c r="C64" s="2" t="inlineStr"/>
-      <c r="D64" s="2" t="inlineStr"/>
+          <t>GUANTES JD TRATAMIENTO TALLA 9</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>T8</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F64" s="3" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION PERSONAL</t>
         </is>
       </c>
       <c r="G64" s="3" t="n">
@@ -29655,7 +29655,7 @@
         <v>-1</v>
       </c>
       <c r="P64" s="3" t="n">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="Q64" s="3" t="n">
         <v>0</v>
@@ -31098,12 +31098,12 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>4603010013</t>
+          <t>4603010014</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>GOTERO REGULABLE INDUNDADOR 0-80L/H</t>
+          <t>GOTERO TURBULENTO 2L/H</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
@@ -31133,10 +31133,10 @@
         <v>1</v>
       </c>
       <c r="I81" s="3" t="n">
-        <v>3.23</v>
+        <v>3.19</v>
       </c>
       <c r="J81" s="3" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="K81" s="3" t="n">
         <v>0</v>
@@ -31154,7 +31154,7 @@
         <v>-1</v>
       </c>
       <c r="P81" s="3" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Q81" s="3" t="n">
         <v>0</v>
@@ -31189,12 +31189,12 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>4603010014</t>
+          <t>4603010013</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>GOTERO TURBULENTO 2L/H</t>
+          <t>GOTERO REGULABLE INDUNDADOR 0-80L/H</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
@@ -31224,10 +31224,10 @@
         <v>1</v>
       </c>
       <c r="I82" s="3" t="n">
-        <v>3.19</v>
+        <v>3.23</v>
       </c>
       <c r="J82" s="3" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="K82" s="3" t="n">
         <v>0</v>
@@ -31245,7 +31245,7 @@
         <v>-1</v>
       </c>
       <c r="P82" s="3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q82" s="3" t="n">
         <v>0</v>
@@ -31537,24 +31537,16 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>4603010017</t>
+          <t>4603020001</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>GOTERO TURBULENTO BANDERA 4L/H</t>
-        </is>
-      </c>
-      <c r="C86" s="2" t="inlineStr">
-        <is>
-          <t>10UD</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>2 VALVULA 16MM</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr"/>
+      <c r="D86" s="2" t="inlineStr"/>
       <c r="E86" s="3" t="inlineStr">
         <is>
           <t>46</t>
@@ -31593,7 +31585,7 @@
         <v>-1</v>
       </c>
       <c r="P86" s="3" t="n">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="Q86" s="3" t="n">
         <v>0</v>
@@ -31628,16 +31620,24 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>4603020001</t>
+          <t>4603010017</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>2 VALVULA 16MM</t>
-        </is>
-      </c>
-      <c r="C87" s="2" t="inlineStr"/>
-      <c r="D87" s="2" t="inlineStr"/>
+          <t>GOTERO TURBULENTO BANDERA 4L/H</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>10UD</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E87" s="3" t="inlineStr">
         <is>
           <t>46</t>
@@ -31676,7 +31676,7 @@
         <v>-1</v>
       </c>
       <c r="P87" s="3" t="n">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="Q87" s="3" t="n">
         <v>0</v>
@@ -31711,83 +31711,83 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>4603030003</t>
+          <t>4403070000</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>TAPON FINAL AUTOMATICO 3/8 DRIP FRESH</t>
+          <t>GRAPAS PARA TUTOR 15UD</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr"/>
       <c r="D88" s="2" t="inlineStr"/>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F88" s="3" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G88" s="3" t="n">
         <v>90</v>
       </c>
       <c r="H88" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I88" s="3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J88" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K88" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="L88" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="I88" s="3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J88" s="3" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="K88" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L88" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M88" s="4" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N88" s="4" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O88" s="3" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="P88" s="3" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="Q88" s="3" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R88" s="3" t="n">
-        <v>0</v>
+        <v>102.22</v>
       </c>
       <c r="S88" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T88" s="5" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T88" s="6" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U88" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V88" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W88" s="3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -31877,83 +31877,83 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>4403070000</t>
+          <t>4603030003</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>GRAPAS PARA TUTOR 15UD</t>
+          <t>TAPON FINAL AUTOMATICO 3/8 DRIP FRESH</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr"/>
       <c r="D90" s="2" t="inlineStr"/>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F90" s="3" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G90" s="3" t="n">
         <v>90</v>
       </c>
       <c r="H90" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" s="3" t="n">
-        <v>3.9</v>
+        <v>4.75</v>
       </c>
       <c r="J90" s="3" t="n">
-        <v>2</v>
+        <v>2.71</v>
       </c>
       <c r="K90" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L90" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M90" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N90" s="4" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O90" s="3" t="n">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="P90" s="3" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="Q90" s="3" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R90" s="3" t="n">
-        <v>102.22</v>
+        <v>0</v>
       </c>
       <c r="S90" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T90" s="6" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T90" s="5" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U90" s="2" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V90" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W90" s="3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -32830,17 +32830,17 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>4105040012</t>
+          <t>4603030002</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>BOLSA 50 BRIDAS BLANCAS</t>
+          <t>TAPON 16MM</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>14CM</t>
+          <t>10UD</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr">
@@ -32850,12 +32850,12 @@
       </c>
       <c r="E101" s="3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F101" s="3" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G101" s="3" t="n">
@@ -32865,13 +32865,13 @@
         <v>1</v>
       </c>
       <c r="I101" s="3" t="n">
-        <v>1.99</v>
+        <v>2.49</v>
       </c>
       <c r="J101" s="3" t="n">
-        <v>0.64</v>
+        <v>1.06</v>
       </c>
       <c r="K101" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L101" s="3" t="n">
         <v>0</v>
@@ -32883,55 +32883,55 @@
         <v>1.5</v>
       </c>
       <c r="O101" s="3" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P101" s="3" t="n">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="Q101" s="3" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R101" s="3" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S101" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T101" s="5" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T101" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U101" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V101" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W101" s="3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>4603030002</t>
+          <t>4105040012</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>TAPON 16MM</t>
+          <t>BOLSA 50 BRIDAS BLANCAS</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>10UD</t>
+          <t>14CM</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
@@ -32941,12 +32941,12 @@
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F102" s="3" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G102" s="3" t="n">
@@ -32956,13 +32956,13 @@
         <v>1</v>
       </c>
       <c r="I102" s="3" t="n">
-        <v>2.49</v>
+        <v>1.99</v>
       </c>
       <c r="J102" s="3" t="n">
-        <v>1.06</v>
+        <v>0.64</v>
       </c>
       <c r="K102" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="n">
         <v>0</v>
@@ -32974,38 +32974,38 @@
         <v>1.5</v>
       </c>
       <c r="O102" s="3" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P102" s="3" t="n">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="Q102" s="3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S102" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T102" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T102" s="5" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U102" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V102" s="3" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W102" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -34326,24 +34326,32 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>4503020001</t>
+          <t>4603010024</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>DELANTAL IMPERMEABLE RECOLECCION 76X43X44CM</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr"/>
-      <c r="D2" s="2" t="inlineStr"/>
+          <t>GOTERO AUTOCOMPENSADO AUTO-DRIP 4L/H</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>25UD</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>PROTECCION PERSONAL</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G2" s="3" t="n">
@@ -34362,7 +34370,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>0</v>
@@ -34371,19 +34379,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P2" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>88.89</v>
+        <v>28.89</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T2" s="8" t="inlineStr">
         <is>
@@ -34392,12 +34400,12 @@
       </c>
       <c r="U2" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="3" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W2" s="3" t="inlineStr">
@@ -34409,24 +34417,24 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>4105060005</t>
+          <t>4603050006</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>CARRETILLA OBRA METALICA AMARILLA</t>
+          <t>PUNZON PERFORADOR 4MM</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr"/>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G3" s="3" t="n">
@@ -34445,7 +34453,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>0</v>
@@ -34454,19 +34462,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P3" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>102.22</v>
+        <v>88.89</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
@@ -34475,12 +34483,12 @@
       </c>
       <c r="U3" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W3" s="3" t="inlineStr">
@@ -34492,24 +34500,24 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>4403020010</t>
+          <t>4603020005</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>KIT SEMILLERO FIBRA CON TAPA+BANDEJA 24HUECOS 4X4</t>
+          <t>ENLACE 4UD 16-12MM</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr"/>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G4" s="3" t="n">
@@ -34528,7 +34536,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>0</v>
@@ -34537,16 +34545,16 @@
         <v>0</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P4" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>12.22</v>
+        <v>28.89</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0</v>
@@ -34563,7 +34571,7 @@
       </c>
       <c r="V4" s="3" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W4" s="3" t="inlineStr">
@@ -34575,24 +34583,24 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>4402010002</t>
+          <t>4106010021</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>TERMOMETRO PARED BLANCO</t>
+          <t>CEPILLO RAICES 5X10 (NO VENTA)</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr"/>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G5" s="3" t="n">
@@ -34611,7 +34619,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>0</v>
@@ -34620,19 +34628,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P5" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="R5" s="3" t="n">
-        <v>88.89</v>
+        <v>102.22</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T5" s="8" t="inlineStr">
         <is>
@@ -34641,12 +34649,12 @@
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="3" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W5" s="3" t="inlineStr">
@@ -34658,24 +34666,32 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>4401060003</t>
+          <t>4604050005</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>TREEGUARD 0,2X0,5M</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
+          <t>CODO ROSCA HEMBRA</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>25I3/4</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G6" s="3" t="n">
@@ -34694,7 +34710,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="4" t="n">
         <v>0</v>
@@ -34703,19 +34719,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="R6" s="3" t="n">
-        <v>102.22</v>
+        <v>28.89</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T6" s="8" t="inlineStr">
         <is>
@@ -34724,12 +34740,12 @@
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W6" s="3" t="inlineStr">
@@ -34741,12 +34757,12 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>4402010004</t>
+          <t>4403020010</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>TERMOMETRO PARED INTERIOR EXTERIOR CHAPA METALICA</t>
+          <t>KIT SEMILLERO FIBRA CON TAPA+BANDEJA 24HUECOS 4X4</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr"/>
@@ -34792,13 +34808,13 @@
         <v>92</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>88.89</v>
+        <v>12.22</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T7" s="8" t="inlineStr">
         <is>
@@ -34807,12 +34823,12 @@
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="3" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W7" s="3" t="inlineStr">
@@ -34824,17 +34840,17 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>4605010014</t>
+          <t>4101170006</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>PROGRAMADOR RAIN BIRD WPX 9V</t>
+          <t>MANGO MADERA AZADA</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>900X32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -34844,12 +34860,12 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G8" s="3" t="n">
@@ -34868,7 +34884,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M8" s="4" t="n">
         <v>0</v>
@@ -34877,19 +34893,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P8" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="R8" s="3" t="n">
-        <v>102.22</v>
+        <v>68.89</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T8" s="8" t="inlineStr">
         <is>
@@ -34898,12 +34914,12 @@
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 82.28€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 30/03/2025</t>
         </is>
       </c>
       <c r="W8" s="3" t="inlineStr">
@@ -34915,32 +34931,24 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>4301020003</t>
+          <t>4101140003</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>PULVERIZADOR MATABI BERRY</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>5L</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>RASTRILLO JARDIN REGULABLE MARIPOSA CON MANGO</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr"/>
+      <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G9" s="3" t="n">
@@ -34959,7 +34967,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M9" s="4" t="n">
         <v>0</v>
@@ -34968,19 +34976,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P9" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>66.67</v>
+        <v>102.22</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T9" s="8" t="inlineStr">
         <is>
@@ -34989,12 +34997,12 @@
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="3" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W9" s="3" t="inlineStr">
@@ -35006,17 +35014,17 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>4105060006</t>
+          <t>4602090002</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>CUBO JARDIN ANTRACITA</t>
+          <t>MANGUERA CLASSIC 20M</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>15MM</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -35026,12 +35034,12 @@
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G10" s="3" t="n">
@@ -35050,7 +35058,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M10" s="4" t="n">
         <v>0</v>
@@ -35059,19 +35067,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P10" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>58.89</v>
+        <v>98.89</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T10" s="8" t="inlineStr">
         <is>
@@ -35080,12 +35088,12 @@
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W10" s="3" t="inlineStr">
@@ -35097,24 +35105,24 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>4605010001</t>
+          <t>4104010020</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>PROGRAMADOR DE GRIFO AQUA CONTROL DISPLAY LCD</t>
+          <t>ESCOBA CESPED JUNIOR</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr"/>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G11" s="3" t="n">
@@ -35133,7 +35141,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M11" s="4" t="n">
         <v>0</v>
@@ -35142,19 +35150,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P11" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="R11" s="3" t="n">
-        <v>12.22</v>
+        <v>102.22</v>
       </c>
       <c r="S11" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
@@ -35163,12 +35171,12 @@
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.39€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="3" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W11" s="3" t="inlineStr">
@@ -35180,17 +35188,17 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>4604050006</t>
+          <t>4301020003</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>CODO ROSCA MACHO</t>
+          <t>PULVERIZADOR MATABI BERRY</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>20I1/2</t>
+          <t>5L</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -35200,12 +35208,12 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G12" s="3" t="n">
@@ -35224,7 +35232,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="M12" s="4" t="n">
         <v>0</v>
@@ -35233,19 +35241,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="P12" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="R12" s="3" t="n">
-        <v>28.89</v>
+        <v>66.67</v>
       </c>
       <c r="S12" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T12" s="8" t="inlineStr">
         <is>
@@ -35254,12 +35262,12 @@
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="3" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W12" s="3" t="inlineStr">
@@ -35271,12 +35279,12 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>4602100001</t>
+          <t>4604060001</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>MANGUERA LATFLEX REFORZADO 19MM  X METRO</t>
+          <t>ARQUETA CIRCULAR 2 VALVULA</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr"/>
@@ -35307,7 +35315,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="M13" s="4" t="n">
         <v>0</v>
@@ -35316,19 +35324,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="P13" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="R13" s="3" t="n">
-        <v>102.22</v>
+        <v>88.89</v>
       </c>
       <c r="S13" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T13" s="8" t="inlineStr">
         <is>
@@ -35337,12 +35345,12 @@
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W13" s="3" t="inlineStr">
@@ -35354,24 +35362,16 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>4603010024</t>
+          <t>4602180009</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>GOTERO AUTOCOMPENSADO AUTO-DRIP 4L/H</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>25UD</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DISTRIBUIDOR CUADRUPLE</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr"/>
+      <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="3" t="inlineStr">
         <is>
           <t>46</t>
@@ -35398,7 +35398,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M14" s="4" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P14" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="R14" s="3" t="n">
-        <v>28.89</v>
+        <v>98.89</v>
       </c>
       <c r="S14" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T14" s="8" t="inlineStr">
         <is>
@@ -35428,12 +35428,12 @@
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="3" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W14" s="3" t="inlineStr">
@@ -35445,24 +35445,32 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>4106010010</t>
+          <t>4604050006</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>CEPILLO BARRENDERO PP F PROEX SIN MANGO (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr"/>
-      <c r="D15" s="2" t="inlineStr"/>
+          <t>CODO ROSCA MACHO</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>20I1/2</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G15" s="3" t="n">
@@ -35481,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="M15" s="4" t="n">
         <v>0</v>
@@ -35490,19 +35498,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="P15" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="R15" s="3" t="n">
-        <v>102.22</v>
+        <v>28.89</v>
       </c>
       <c r="S15" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T15" s="8" t="inlineStr">
         <is>
@@ -35511,12 +35519,12 @@
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 27.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W15" s="3" t="inlineStr">
@@ -35528,32 +35536,24 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>4605010014</t>
+          <t>4503020001</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>PROGRAMADOR RAIN BIRD WPX 9V</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DELANTAL IMPERMEABLE RECOLECCION 76X43X44CM</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION PERSONAL</t>
         </is>
       </c>
       <c r="G16" s="3" t="n">
@@ -35572,7 +35572,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M16" s="4" t="n">
         <v>0</v>
@@ -35581,19 +35581,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P16" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="R16" s="3" t="n">
-        <v>17.78</v>
+        <v>88.89</v>
       </c>
       <c r="S16" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T16" s="8" t="inlineStr">
         <is>
@@ -35602,12 +35602,12 @@
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="3" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W16" s="3" t="inlineStr">
@@ -35619,32 +35619,24 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>4301020003</t>
+          <t>4603010038</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>PULVERIZADOR MATABI BERRY</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>3I5L</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>KIT GOTERO 8L/H 4 SALIDAS+4 MICROT 50CM+4PIQUETAS</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G17" s="3" t="n">
@@ -35663,7 +35655,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M17" s="4" t="n">
         <v>0</v>
@@ -35672,19 +35664,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P17" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="R17" s="3" t="n">
-        <v>88.89</v>
+        <v>12.22</v>
       </c>
       <c r="S17" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T17" s="8" t="inlineStr">
         <is>
@@ -35693,12 +35685,12 @@
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="3" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W17" s="3" t="inlineStr">
@@ -35710,24 +35702,24 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>4603050006</t>
+          <t>4403040002</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>PUNZON PERFORADOR 4MM</t>
+          <t>SET 15 MACETAS PP MARRON 9X6,8CM</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr"/>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G18" s="3" t="n">
@@ -35746,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="M18" s="4" t="n">
         <v>0</v>
@@ -35755,19 +35747,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="P18" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="R18" s="3" t="n">
-        <v>88.89</v>
+        <v>12.22</v>
       </c>
       <c r="S18" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T18" s="8" t="inlineStr">
         <is>
@@ -35776,12 +35768,12 @@
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="3" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W18" s="3" t="inlineStr">
@@ -35793,24 +35785,16 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>4603010008</t>
+          <t>4604060004</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>GOTERO AUTOCOMPENSADO AUTO-MAT 2L/H</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>10UD</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ARQUETA CUADRADA 1 VALVULA</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="3" t="inlineStr">
         <is>
           <t>46</t>
@@ -35837,7 +35821,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M19" s="4" t="n">
         <v>0</v>
@@ -35846,19 +35830,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P19" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="R19" s="3" t="n">
-        <v>88.89</v>
+        <v>12.22</v>
       </c>
       <c r="S19" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T19" s="8" t="inlineStr">
         <is>
@@ -35867,12 +35851,12 @@
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="3" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W19" s="3" t="inlineStr">
@@ -35884,24 +35868,32 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>4602010001</t>
+          <t>4105060006</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>LANZA REGULABLE CON ACOPLE</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr"/>
-      <c r="D20" s="2" t="inlineStr"/>
+          <t>CUBO JARDIN ANTRACITA</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>90L</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G20" s="3" t="n">
@@ -35920,7 +35912,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M20" s="4" t="n">
         <v>0</v>
@@ -35929,19 +35921,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P20" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="R20" s="3" t="n">
-        <v>88.89</v>
+        <v>58.89</v>
       </c>
       <c r="S20" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T20" s="8" t="inlineStr">
         <is>
@@ -35950,12 +35942,12 @@
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="3" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W20" s="3" t="inlineStr">
@@ -35967,32 +35959,24 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>4602160004</t>
+          <t>4106010010</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>PORTAMANGUERA AUTOMATICO ROLLUP</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CEPILLO BARRENDERO PP F PROEX SIN MANGO (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G21" s="3" t="n">
@@ -36011,7 +35995,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M21" s="4" t="n">
         <v>0</v>
@@ -36020,19 +36004,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P21" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R21" s="3" t="n">
-        <v>98.89</v>
+        <v>102.22</v>
       </c>
       <c r="S21" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T21" s="8" t="inlineStr">
         <is>
@@ -36041,12 +36025,12 @@
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 27.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W21" s="3" t="inlineStr">
@@ -36141,32 +36125,24 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>4101170006</t>
+          <t>4401060003</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>MANGO MADERA AZADA</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>900X32</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TREEGUARD 0,2X0,5M</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr"/>
+      <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G23" s="3" t="n">
@@ -36185,7 +36161,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M23" s="4" t="n">
         <v>0</v>
@@ -36194,19 +36170,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P23" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="3" t="n">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="R23" s="3" t="n">
-        <v>68.89</v>
+        <v>102.22</v>
       </c>
       <c r="S23" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T23" s="8" t="inlineStr">
         <is>
@@ -36215,12 +36191,12 @@
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="3" t="inlineStr">
         <is>
-          <t>Compra 30/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W23" s="3" t="inlineStr">
@@ -36232,12 +36208,12 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>4201060008</t>
+          <t>4201020006</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>CORTASETOS NATURECUT FSC 100%</t>
+          <t>CORTARRAMAS EASYCUT</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr"/>
@@ -36315,12 +36291,12 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>4602180016</t>
+          <t>4602010001</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>MANGUITO RED 1X3/4" CONT</t>
+          <t>LANZA REGULABLE CON ACOPLE</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr"/>
@@ -36351,7 +36327,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="M25" s="4" t="n">
         <v>0</v>
@@ -36360,19 +36336,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="P25" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q25" s="3" t="n">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="R25" s="3" t="n">
-        <v>12.22</v>
+        <v>88.89</v>
       </c>
       <c r="S25" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T25" s="8" t="inlineStr">
         <is>
@@ -36381,12 +36357,12 @@
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="3" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W25" s="3" t="inlineStr">
@@ -36398,32 +36374,24 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>4602090006</t>
+          <t>4106010020</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>MANGUERA TRICOTADO NO TORSION X METRO</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>19MM</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CEPILLO BARREND IND FIBRA RIG PP 50CM (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr"/>
+      <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G26" s="3" t="n">
@@ -36442,7 +36410,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="M26" s="4" t="n">
         <v>0</v>
@@ -36451,7 +36419,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="P26" s="3" t="n">
         <v>92</v>
@@ -36472,7 +36440,7 @@
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="3" t="inlineStr">
@@ -36489,24 +36457,24 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>4603020005</t>
+          <t>4105070001</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>ENLACE 4UD 16-12MM</t>
+          <t>CINTA PARA INJERTAR PLANTAS (3CM) 100M</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr"/>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G27" s="3" t="n">
@@ -36525,7 +36493,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M27" s="4" t="n">
         <v>0</v>
@@ -36534,16 +36502,16 @@
         <v>0</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P27" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="R27" s="3" t="n">
-        <v>28.89</v>
+        <v>12.22</v>
       </c>
       <c r="S27" s="4" t="n">
         <v>0</v>
@@ -36560,7 +36528,7 @@
       </c>
       <c r="V27" s="3" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W27" s="3" t="inlineStr">
@@ -36572,12 +36540,12 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>4604060004</t>
+          <t>4602100001</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>ARQUETA CUADRADA 1 VALVULA</t>
+          <t>MANGUERA LATFLEX REFORZADO 19MM  X METRO</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr"/>
@@ -36608,7 +36576,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="M28" s="4" t="n">
         <v>0</v>
@@ -36617,19 +36585,19 @@
         <v>0</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="P28" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="R28" s="3" t="n">
-        <v>12.22</v>
+        <v>102.22</v>
       </c>
       <c r="S28" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T28" s="8" t="inlineStr">
         <is>
@@ -36638,12 +36606,12 @@
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="3" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W28" s="3" t="inlineStr">
@@ -36655,32 +36623,24 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>4602090004</t>
+          <t>4402010004</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>MANGUERA FLEX 25M</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>15MM</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERMOMETRO PARED INTERIOR EXTERIOR CHAPA METALICA</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr"/>
+      <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G29" s="3" t="n">
@@ -36699,7 +36659,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M29" s="4" t="n">
         <v>0</v>
@@ -36708,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P29" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="R29" s="3" t="n">
-        <v>98.89</v>
+        <v>88.89</v>
       </c>
       <c r="S29" s="4" t="n">
         <v>10</v>
@@ -36734,7 +36694,7 @@
       </c>
       <c r="V29" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W29" s="3" t="inlineStr">
@@ -36746,32 +36706,24 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>4604050005</t>
+          <t>4301020004</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>CODO ROSCA HEMBRA</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>25I3/4</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PULVERIZADOR MATABI EVOLUTION 12</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr"/>
+      <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G30" s="3" t="n">
@@ -36790,7 +36742,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="M30" s="4" t="n">
         <v>0</v>
@@ -36799,19 +36751,19 @@
         <v>0</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="P30" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q30" s="3" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="R30" s="3" t="n">
-        <v>28.89</v>
+        <v>88.89</v>
       </c>
       <c r="S30" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T30" s="8" t="inlineStr">
         <is>
@@ -36820,12 +36772,12 @@
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="3" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W30" s="3" t="inlineStr">
@@ -36837,32 +36789,24 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>4602090002</t>
+          <t>4203010005</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>MANGUERA CLASSIC 20M</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>15MM</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>HUERTO ELEVADO PAPRIKA 80X40X87CM 50L</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr"/>
+      <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G31" s="3" t="n">
@@ -36881,7 +36825,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M31" s="4" t="n">
         <v>0</v>
@@ -36890,16 +36834,16 @@
         <v>0</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P31" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R31" s="3" t="n">
-        <v>98.89</v>
+        <v>96.67</v>
       </c>
       <c r="S31" s="4" t="n">
         <v>10</v>
@@ -36916,7 +36860,7 @@
       </c>
       <c r="V31" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 05/03/2025</t>
         </is>
       </c>
       <c r="W31" s="3" t="inlineStr">
@@ -36928,24 +36872,24 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>4106010021</t>
+          <t>4602130001</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>CEPILLO RAICES 5X10 (NO VENTA)</t>
+          <t>SET DE MANGUERA FLEX 20M DIAMETRO 15MM</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr"/>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G32" s="3" t="n">
@@ -36964,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M32" s="4" t="n">
         <v>0</v>
@@ -36973,19 +36917,19 @@
         <v>0</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P32" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R32" s="3" t="n">
-        <v>102.22</v>
+        <v>98.89</v>
       </c>
       <c r="S32" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T32" s="8" t="inlineStr">
         <is>
@@ -36994,12 +36938,12 @@
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W32" s="3" t="inlineStr">
@@ -37011,24 +36955,24 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>4105040029</t>
+          <t>4402010002</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>MANGO MADERA ESPATULA SOLADOR 1500X25MM (NO VENTA)</t>
+          <t>TERMOMETRO PARED BLANCO</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr"/>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G33" s="3" t="n">
@@ -37047,7 +36991,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M33" s="4" t="n">
         <v>0</v>
@@ -37056,19 +37000,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P33" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="R33" s="3" t="n">
-        <v>102.22</v>
+        <v>88.89</v>
       </c>
       <c r="S33" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T33" s="8" t="inlineStr">
         <is>
@@ -37077,12 +37021,12 @@
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W33" s="3" t="inlineStr">
@@ -37094,24 +37038,32 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>4104010020</t>
+          <t>4602090006</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>ESCOBA CESPED JUNIOR</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr"/>
-      <c r="D34" s="2" t="inlineStr"/>
+          <t>MANGUERA TRICOTADO NO TORSION X METRO</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>19MM</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G34" s="3" t="n">
@@ -37130,7 +37082,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="M34" s="4" t="n">
         <v>0</v>
@@ -37139,7 +37091,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="P34" s="3" t="n">
         <v>92</v>
@@ -37160,7 +37112,7 @@
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.39€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="3" t="inlineStr">
@@ -37260,24 +37212,24 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>4602130001</t>
+          <t>4105040029</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>SET DE MANGUERA FLEX 20M DIAMETRO 15MM</t>
+          <t>MANGO MADERA ESPATULA SOLADOR 1500X25MM (NO VENTA)</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr"/>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G36" s="3" t="n">
@@ -37296,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M36" s="4" t="n">
         <v>0</v>
@@ -37305,19 +37257,19 @@
         <v>0</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P36" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q36" s="3" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R36" s="3" t="n">
-        <v>98.89</v>
+        <v>102.22</v>
       </c>
       <c r="S36" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T36" s="8" t="inlineStr">
         <is>
@@ -37326,12 +37278,12 @@
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W36" s="3" t="inlineStr">
@@ -37343,24 +37295,32 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>4106010002</t>
+          <t>4301020003</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>CEPILLO BARRER DOMESTICO (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr"/>
-      <c r="D37" s="2" t="inlineStr"/>
+          <t>PULVERIZADOR MATABI BERRY</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>3I5L</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G37" s="3" t="n">
@@ -37394,10 +37354,10 @@
         <v>92</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="R37" s="3" t="n">
-        <v>68.89</v>
+        <v>88.89</v>
       </c>
       <c r="S37" s="4" t="n">
         <v>10</v>
@@ -37414,7 +37374,7 @@
       </c>
       <c r="V37" s="3" t="inlineStr">
         <is>
-          <t>Compra 30/03/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W37" s="3" t="inlineStr">
@@ -37426,24 +37386,24 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>4403040002</t>
+          <t>4605010001</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>SET 15 MACETAS PP MARRON 9X6,8CM</t>
+          <t>PROGRAMADOR DE GRIFO AQUA CONTROL DISPLAY LCD</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr"/>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F38" s="3" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G38" s="3" t="n">
@@ -37462,7 +37422,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="3" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="M38" s="4" t="n">
         <v>0</v>
@@ -37471,7 +37431,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="P38" s="3" t="n">
         <v>92</v>
@@ -37509,12 +37469,12 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>4201020006</t>
+          <t>4201060008</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>CORTARRAMAS EASYCUT</t>
+          <t>CORTASETOS NATURECUT FSC 100%</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr"/>
@@ -37592,24 +37552,24 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>4603010038</t>
+          <t>4106010002</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>KIT GOTERO 8L/H 4 SALIDAS+4 MICROT 50CM+4PIQUETAS</t>
+          <t>CEPILLO BARRER DOMESTICO (NO VENTA)</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr"/>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G40" s="3" t="n">
@@ -37628,7 +37588,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M40" s="4" t="n">
         <v>0</v>
@@ -37637,19 +37597,19 @@
         <v>0</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P40" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q40" s="3" t="n">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="R40" s="3" t="n">
-        <v>12.22</v>
+        <v>68.89</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T40" s="8" t="inlineStr">
         <is>
@@ -37658,12 +37618,12 @@
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="3" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 30/03/2025</t>
         </is>
       </c>
       <c r="W40" s="3" t="inlineStr">
@@ -37675,24 +37635,32 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>4301020004</t>
+          <t>4603010008</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>PULVERIZADOR MATABI EVOLUTION 12</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr"/>
-      <c r="D41" s="2" t="inlineStr"/>
+          <t>GOTERO AUTOCOMPENSADO AUTO-MAT 2L/H</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>10UD</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G41" s="3" t="n">
@@ -37711,7 +37679,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M41" s="4" t="n">
         <v>0</v>
@@ -37720,7 +37688,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P41" s="3" t="n">
         <v>92</v>
@@ -37758,12 +37726,12 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>4604060001</t>
+          <t>4602180016</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>ARQUETA CIRCULAR 2 VALVULA</t>
+          <t>MANGUITO RED 1X3/4" CONT</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr"/>
@@ -37794,7 +37762,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="3" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="M42" s="4" t="n">
         <v>0</v>
@@ -37803,19 +37771,19 @@
         <v>0</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="P42" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q42" s="3" t="n">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="R42" s="3" t="n">
-        <v>88.89</v>
+        <v>12.22</v>
       </c>
       <c r="S42" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T42" s="8" t="inlineStr">
         <is>
@@ -37824,12 +37792,12 @@
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="3" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W42" s="3" t="inlineStr">
@@ -37841,12 +37809,12 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>4105070001</t>
+          <t>4105060005</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>CINTA PARA INJERTAR PLANTAS (3CM) 100M</t>
+          <t>CARRETILLA OBRA METALICA AMARILLA</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr"/>
@@ -37877,7 +37845,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M43" s="4" t="n">
         <v>0</v>
@@ -37886,19 +37854,19 @@
         <v>0</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P43" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q43" s="3" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="R43" s="3" t="n">
-        <v>12.22</v>
+        <v>102.22</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T43" s="8" t="inlineStr">
         <is>
@@ -37907,12 +37875,12 @@
       </c>
       <c r="U43" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="3" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W43" s="3" t="inlineStr">
@@ -37924,24 +37892,32 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>4106010022</t>
+          <t>4602160004</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>MANGO MADERA ROSCA 1150X22MM CEP RAICES (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr"/>
-      <c r="D44" s="2" t="inlineStr"/>
+          <t>PORTAMANGUERA AUTOMATICO ROLLUP</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G44" s="3" t="n">
@@ -37960,7 +37936,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M44" s="4" t="n">
         <v>0</v>
@@ -37969,19 +37945,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P44" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q44" s="3" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R44" s="3" t="n">
-        <v>102.22</v>
+        <v>98.89</v>
       </c>
       <c r="S44" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T44" s="8" t="inlineStr">
         <is>
@@ -37990,12 +37966,12 @@
       </c>
       <c r="U44" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W44" s="3" t="inlineStr">
@@ -38007,24 +37983,32 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>4203010005</t>
+          <t>4602090004</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>HUERTO ELEVADO PAPRIKA 80X40X87CM 50L</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr"/>
-      <c r="D45" s="2" t="inlineStr"/>
+          <t>MANGUERA FLEX 25M</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>15MM</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G45" s="3" t="n">
@@ -38043,7 +38027,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M45" s="4" t="n">
         <v>0</v>
@@ -38052,16 +38036,16 @@
         <v>0</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P45" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q45" s="3" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="R45" s="3" t="n">
-        <v>96.67</v>
+        <v>98.89</v>
       </c>
       <c r="S45" s="4" t="n">
         <v>10</v>
@@ -38078,7 +38062,7 @@
       </c>
       <c r="V45" s="3" t="inlineStr">
         <is>
-          <t>Compra 05/03/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W45" s="3" t="inlineStr">
@@ -38090,12 +38074,12 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>4101140003</t>
+          <t>4105040028</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>RASTRILLO JARDIN REGULABLE MARIPOSA CON MANGO</t>
+          <t>ESPATULA SOLADOR 55CM (NO VENTA)</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr"/>
@@ -38126,7 +38110,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M46" s="4" t="n">
         <v>0</v>
@@ -38135,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P46" s="3" t="n">
         <v>92</v>
@@ -38156,7 +38140,7 @@
       </c>
       <c r="U46" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.83€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="3" t="inlineStr">
@@ -38173,16 +38157,24 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>4602180009</t>
+          <t>4605010014</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>DISTRIBUIDOR CUADRUPLE</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr"/>
-      <c r="D47" s="2" t="inlineStr"/>
+          <t>PROGRAMADOR RAIN BIRD WPX 9V</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
           <t>46</t>
@@ -38209,7 +38201,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M47" s="4" t="n">
         <v>0</v>
@@ -38218,19 +38210,19 @@
         <v>0</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P47" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q47" s="3" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R47" s="3" t="n">
-        <v>98.89</v>
+        <v>102.22</v>
       </c>
       <c r="S47" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T47" s="8" t="inlineStr">
         <is>
@@ -38239,12 +38231,12 @@
       </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 82.28€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W47" s="3" t="inlineStr">
@@ -38256,24 +38248,32 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>4106010020</t>
+          <t>4605010014</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>CEPILLO BARREND IND FIBRA RIG PP 50CM (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr"/>
-      <c r="D48" s="2" t="inlineStr"/>
+          <t>PROGRAMADOR RAIN BIRD WPX 9V</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G48" s="3" t="n">
@@ -38292,7 +38292,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M48" s="4" t="n">
         <v>0</v>
@@ -38301,19 +38301,19 @@
         <v>0</v>
       </c>
       <c r="O48" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P48" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q48" s="3" t="n">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="R48" s="3" t="n">
-        <v>102.22</v>
+        <v>17.78</v>
       </c>
       <c r="S48" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T48" s="8" t="inlineStr">
         <is>
@@ -38322,12 +38322,12 @@
       </c>
       <c r="U48" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W48" s="3" t="inlineStr">
@@ -38422,12 +38422,12 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>4105040028</t>
+          <t>4106010022</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>ESPATULA SOLADOR 55CM (NO VENTA)</t>
+          <t>MANGO MADERA ROSCA 1150X22MM CEP RAICES (NO VENTA)</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr"/>
@@ -38488,7 +38488,7 @@
       </c>
       <c r="U50" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.83€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="3" t="inlineStr">
